--- a/ADBE.xlsx
+++ b/ADBE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaelsjoeberg/Dropbox/_PROJECTS/_investing/stocks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095A3C87-AA70-B444-95C7-6E5E0C58CEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFFCABE7-7BFD-0349-BF6C-F2889A5E41CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20780" yWindow="460" windowWidth="15060" windowHeight="20340" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-68800" yWindow="-5940" windowWidth="28240" windowHeight="26740" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="121">
   <si>
     <t>Q117</t>
   </si>
@@ -346,12 +346,6 @@
     <t>29/11/2019</t>
   </si>
   <si>
-    <t>Trademarks</t>
-  </si>
-  <si>
-    <t>Adobe</t>
-  </si>
-  <si>
     <t>Acrobat</t>
   </si>
   <si>
@@ -373,12 +367,6 @@
     <t>Reader</t>
   </si>
   <si>
-    <t>BADWILL</t>
-  </si>
-  <si>
-    <t>Intangibles per share</t>
-  </si>
-  <si>
     <t>Risk-free rate + market premium (opportunity cost)</t>
   </si>
   <si>
@@ -388,22 +376,31 @@
     <t>Net present value on future net income (terminal value)</t>
   </si>
   <si>
-    <t>RORC</t>
-  </si>
-  <si>
-    <t>PRR</t>
-  </si>
-  <si>
-    <t>Return on research capital</t>
-  </si>
-  <si>
-    <t>Price to R&amp;D ratio</t>
-  </si>
-  <si>
     <t>Q220</t>
   </si>
   <si>
     <t>Q320</t>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
+  </si>
+  <si>
+    <t>Adobe Suite</t>
+  </si>
+  <si>
+    <t>Photoshop, Lightroom, Illustrator, etc.</t>
+  </si>
+  <si>
+    <t>Q121</t>
+  </si>
+  <si>
+    <t>Q221</t>
+  </si>
+  <si>
+    <t>Q321</t>
+  </si>
+  <si>
+    <t>Q421</t>
   </si>
 </sst>
 </file>
@@ -414,7 +411,7 @@
     <numFmt numFmtId="164" formatCode="#,##0_ ;[Red]\-#,##0\ "/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -472,6 +469,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -512,7 +517,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -613,10 +618,6 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -647,15 +648,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -668,15 +660,41 @@
     <xf numFmtId="4" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -704,15 +722,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -728,8 +746,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5765800" y="1308100"/>
-          <a:ext cx="0" cy="9271000"/>
+          <a:off x="6637020" y="1290320"/>
+          <a:ext cx="0" cy="8963660"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -760,14 +778,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>246380</xdr:colOff>
       <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -784,8 +802,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="20647660" y="152400"/>
-          <a:ext cx="0" cy="8963660"/>
+          <a:off x="21551900" y="152400"/>
+          <a:ext cx="0" cy="8463280"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1075,13 +1093,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:GR62"/>
+  <dimension ref="A1:GR57"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
-      <selection pane="bottomRight" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1103,10 +1121,10 @@
         <v>48</v>
       </c>
       <c r="C2" s="4">
-        <v>460.95</v>
-      </c>
-      <c r="D2" s="70">
-        <v>44151</v>
+        <v>494.86</v>
+      </c>
+      <c r="D2" s="62">
+        <v>44239</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>29</v>
@@ -1125,11 +1143,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="8">
-        <f>Reports!X21</f>
-        <v>485</v>
-      </c>
-      <c r="D3" s="71" t="s">
-        <v>121</v>
+        <f>Reports!Y21</f>
+        <v>484</v>
+      </c>
+      <c r="D3" s="63" t="s">
+        <v>99</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>30</v>
@@ -1151,9 +1169,9 @@
       </c>
       <c r="C4" s="10">
         <f>C2*C3</f>
-        <v>223560.75</v>
-      </c>
-      <c r="D4" s="71"/>
+        <v>239512.24000000002</v>
+      </c>
+      <c r="D4" s="63"/>
       <c r="E4" s="6" t="s">
         <v>31</v>
       </c>
@@ -1162,11 +1180,11 @@
         <v>0.05</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="I4" s="19"/>
       <c r="L4" s="9" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:117" x14ac:dyDescent="0.15">
@@ -1174,21 +1192,21 @@
         <v>26</v>
       </c>
       <c r="C5" s="8">
-        <f>Reports!X33</f>
-        <v>1148</v>
-      </c>
-      <c r="D5" s="71" t="s">
-        <v>121</v>
+        <f>Reports!Y33</f>
+        <v>1875</v>
+      </c>
+      <c r="D5" s="63" t="s">
+        <v>99</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="11">
-        <f>NPV(F4,G25:GR25)</f>
-        <v>330027.95676510851</v>
+        <f>NPV(F4,H25:GR25)</f>
+        <v>365401.30404750502</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="I5" s="19"/>
     </row>
@@ -1201,15 +1219,15 @@
       </c>
       <c r="C6" s="10">
         <f>C4-C5</f>
-        <v>222412.75</v>
-      </c>
-      <c r="D6" s="71"/>
+        <v>237637.24000000002</v>
+      </c>
+      <c r="D6" s="63"/>
       <c r="E6" s="12" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="13">
         <f>F5+C5</f>
-        <v>331175.95676510851</v>
+        <v>367276.30404750502</v>
       </c>
       <c r="I6" s="19"/>
     </row>
@@ -1222,19 +1240,19 @@
       </c>
       <c r="C7" s="44">
         <f>C6/C3</f>
-        <v>458.58298969072166</v>
-      </c>
-      <c r="D7" s="71"/>
+        <v>490.98603305785127</v>
+      </c>
+      <c r="D7" s="63"/>
       <c r="E7" s="14" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="43">
         <f>F6/C3</f>
-        <v>682.8370242579557</v>
+        <v>758.83533894112611</v>
       </c>
       <c r="G7" s="19">
         <f>F7/C2-1</f>
-        <v>0.4813689646555066</v>
+        <v>0.5334343833430184</v>
       </c>
     </row>
     <row r="8" spans="1:117" x14ac:dyDescent="0.15">
@@ -1259,7 +1277,7 @@
         <v>2018</v>
       </c>
       <c r="F9" s="39">
-        <f t="shared" ref="F9:U9" si="0">E9+1</f>
+        <f t="shared" ref="F9:V9" si="0">E9+1</f>
         <v>2019</v>
       </c>
       <c r="G9" s="39">
@@ -1322,7 +1340,10 @@
         <f t="shared" si="0"/>
         <v>2034</v>
       </c>
-      <c r="V9" s="39"/>
+      <c r="V9" s="39">
+        <f t="shared" si="0"/>
+        <v>2035</v>
+      </c>
       <c r="W9" s="39"/>
       <c r="X9" s="39"/>
       <c r="Y9" s="39"/>
@@ -1444,26 +1465,29 @@
         <v>9994.4639999999999</v>
       </c>
       <c r="G10" s="38">
-        <f>F10*1.2</f>
-        <v>11993.3568</v>
+        <f>SUM(Reports!V3:Y3)</f>
+        <v>11814</v>
       </c>
       <c r="H10" s="38">
-        <f t="shared" ref="H10:K10" si="1">G10*1.2</f>
-        <v>14392.02816</v>
+        <f>G10*1.15</f>
+        <v>13586.099999999999</v>
       </c>
       <c r="I10" s="38">
-        <f t="shared" si="1"/>
-        <v>17270.433792</v>
+        <f t="shared" ref="I10:L10" si="1">H10*1.15</f>
+        <v>15624.014999999998</v>
       </c>
       <c r="J10" s="38">
         <f t="shared" si="1"/>
-        <v>20724.520550400001</v>
+        <v>17967.617249999996</v>
       </c>
       <c r="K10" s="38">
         <f t="shared" si="1"/>
-        <v>24869.424660479999</v>
-      </c>
-      <c r="L10" s="38"/>
+        <v>20662.759837499994</v>
+      </c>
+      <c r="L10" s="38">
+        <f t="shared" si="1"/>
+        <v>23762.173813124991</v>
+      </c>
       <c r="M10" s="38"/>
       <c r="N10" s="38"/>
       <c r="O10" s="38"/>
@@ -1595,26 +1619,29 @@
         <v>647.78800000000001</v>
       </c>
       <c r="G11" s="38">
-        <f>F11*0.95</f>
-        <v>615.39859999999999</v>
+        <f>SUM(Reports!V4:Y4)</f>
+        <v>507</v>
       </c>
       <c r="H11" s="38">
-        <f t="shared" ref="H11:K11" si="2">G11*0.95</f>
-        <v>584.62866999999994</v>
+        <f>G11*0.9</f>
+        <v>456.3</v>
       </c>
       <c r="I11" s="38">
-        <f t="shared" si="2"/>
-        <v>555.39723649999996</v>
+        <f t="shared" ref="I11:L11" si="2">H11*0.9</f>
+        <v>410.67</v>
       </c>
       <c r="J11" s="38">
         <f t="shared" si="2"/>
-        <v>527.62737467499994</v>
+        <v>369.60300000000001</v>
       </c>
       <c r="K11" s="38">
         <f t="shared" si="2"/>
-        <v>501.2460059412499</v>
-      </c>
-      <c r="L11" s="38"/>
+        <v>332.64269999999999</v>
+      </c>
+      <c r="L11" s="38">
+        <f t="shared" si="2"/>
+        <v>299.37842999999998</v>
+      </c>
       <c r="M11" s="38"/>
       <c r="N11" s="38"/>
       <c r="O11" s="38"/>
@@ -1746,26 +1773,29 @@
         <v>529.04399999999998</v>
       </c>
       <c r="G12" s="38">
-        <f>F12*1.02</f>
-        <v>539.62487999999996</v>
+        <f>SUM(Reports!V5:Y5)</f>
+        <v>547</v>
       </c>
       <c r="H12" s="38">
-        <f t="shared" ref="H12:K12" si="3">G12*1.02</f>
-        <v>550.41737760000001</v>
+        <f>G12*1.05</f>
+        <v>574.35</v>
       </c>
       <c r="I12" s="38">
-        <f t="shared" si="3"/>
-        <v>561.42572515200004</v>
+        <f t="shared" ref="I12:L12" si="3">H12*1.05</f>
+        <v>603.0675</v>
       </c>
       <c r="J12" s="38">
         <f t="shared" si="3"/>
-        <v>572.6542396550401</v>
+        <v>633.22087499999998</v>
       </c>
       <c r="K12" s="38">
         <f t="shared" si="3"/>
-        <v>584.10732444814096</v>
-      </c>
-      <c r="L12" s="38"/>
+        <v>664.88191874999995</v>
+      </c>
+      <c r="L12" s="38">
+        <f t="shared" si="3"/>
+        <v>698.12601468749995</v>
+      </c>
       <c r="M12" s="38"/>
       <c r="N12" s="38"/>
       <c r="O12" s="38"/>
@@ -1872,20 +1902,21 @@
       <c r="DL12" s="38"/>
       <c r="DM12" s="38"/>
     </row>
-    <row r="13" spans="1:117" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F13" s="49">
+    <row r="13" spans="1:117" s="39" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="38">
         <v>11150</v>
       </c>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
+      <c r="H13" s="38">
+        <v>15150</v>
+      </c>
+      <c r="I13" s="38"/>
     </row>
     <row r="14" spans="1:117" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="24">
-        <f t="shared" ref="B14:K14" si="4">SUM(B10:B12)</f>
+        <f t="shared" ref="B14:L14" si="4">SUM(B10:B12)</f>
         <v>4795.5110000000013</v>
       </c>
       <c r="C14" s="24">
@@ -1904,67 +1935,70 @@
         <f t="shared" si="4"/>
         <v>11171.296</v>
       </c>
-      <c r="G14" s="47">
+      <c r="G14" s="24">
         <f t="shared" si="4"/>
-        <v>13148.380279999999</v>
+        <v>12868</v>
       </c>
       <c r="H14" s="47">
         <f t="shared" si="4"/>
-        <v>15527.074207600001</v>
+        <v>14616.749999999998</v>
       </c>
       <c r="I14" s="47">
         <f t="shared" si="4"/>
-        <v>18387.256753652</v>
+        <v>16637.752499999999</v>
       </c>
       <c r="J14" s="47">
         <f t="shared" si="4"/>
-        <v>21824.802164730041</v>
+        <v>18970.441124999994</v>
       </c>
       <c r="K14" s="47">
         <f t="shared" si="4"/>
-        <v>25954.777990869392</v>
+        <v>21660.284456249996</v>
       </c>
       <c r="L14" s="47">
-        <f>K14*1.1</f>
-        <v>28550.255789956333</v>
+        <f t="shared" si="4"/>
+        <v>24759.678257812491</v>
       </c>
       <c r="M14" s="47">
-        <f t="shared" ref="M14:P14" si="5">L14*1.1</f>
-        <v>31405.281368951968</v>
+        <f t="shared" ref="M14:Q14" si="5">L14*1.1</f>
+        <v>27235.646083593743</v>
       </c>
       <c r="N14" s="47">
         <f t="shared" si="5"/>
-        <v>34545.809505847166</v>
+        <v>29959.210691953122</v>
       </c>
       <c r="O14" s="47">
         <f t="shared" si="5"/>
-        <v>38000.390456431887</v>
+        <v>32955.131761148434</v>
       </c>
       <c r="P14" s="47">
         <f t="shared" si="5"/>
-        <v>41800.42950207508</v>
+        <v>36250.644937263278</v>
       </c>
       <c r="Q14" s="47">
-        <f t="shared" ref="M14:U14" si="6">P14*1.05</f>
-        <v>43890.450977178836</v>
+        <f t="shared" si="5"/>
+        <v>39875.709430989606</v>
       </c>
       <c r="R14" s="47">
-        <f t="shared" si="6"/>
-        <v>46084.973526037778</v>
+        <f t="shared" ref="Q14:V14" si="6">Q14*1.05</f>
+        <v>41869.494902539089</v>
       </c>
       <c r="S14" s="47">
         <f t="shared" si="6"/>
-        <v>48389.222202339668</v>
+        <v>43962.969647666047</v>
       </c>
       <c r="T14" s="47">
         <f t="shared" si="6"/>
-        <v>50808.683312456655</v>
+        <v>46161.118130049348</v>
       </c>
       <c r="U14" s="47">
         <f t="shared" si="6"/>
-        <v>53349.11747807949</v>
-      </c>
-      <c r="V14" s="39"/>
+        <v>48469.17403655182</v>
+      </c>
+      <c r="V14" s="47">
+        <f t="shared" si="6"/>
+        <v>50892.632738379412</v>
+      </c>
       <c r="W14" s="39"/>
       <c r="X14" s="39"/>
       <c r="Y14" s="39"/>
@@ -2085,67 +2119,70 @@
         <f>SUM(Reports!R8:U8)</f>
         <v>1672.72</v>
       </c>
-      <c r="G15" s="23">
-        <f>G14-G16</f>
-        <v>1968.756235799463</v>
+      <c r="G15" s="38">
+        <f>SUM(Reports!V8:Y8)</f>
+        <v>1722</v>
       </c>
       <c r="H15" s="23">
         <f t="shared" ref="H15" si="7">H14-H16</f>
-        <v>2324.926988644529</v>
+        <v>1956.0183012123089</v>
       </c>
       <c r="I15" s="23">
         <f t="shared" ref="I15:P15" si="8">I14-I16</f>
-        <v>2753.1928360835445</v>
+        <v>2226.4695216816908</v>
       </c>
       <c r="J15" s="23">
         <f t="shared" si="8"/>
-        <v>3267.9093882202396</v>
+        <v>2538.630682099003</v>
       </c>
       <c r="K15" s="23">
         <f>K14-K16</f>
-        <v>3886.3061403875618</v>
+        <v>2898.5864029889999</v>
       </c>
       <c r="L15" s="23">
         <f t="shared" si="8"/>
-        <v>4274.9367544263187</v>
+        <v>3313.3483027629045</v>
       </c>
       <c r="M15" s="23">
         <f t="shared" si="8"/>
-        <v>4702.4304298689494</v>
+        <v>3644.6831330391979</v>
       </c>
       <c r="N15" s="23">
         <f t="shared" si="8"/>
-        <v>5172.673472855844</v>
+        <v>4009.1514463431158</v>
       </c>
       <c r="O15" s="23">
         <f t="shared" si="8"/>
-        <v>5689.9408201414299</v>
+        <v>4410.0665909774289</v>
       </c>
       <c r="P15" s="23">
         <f t="shared" si="8"/>
-        <v>6258.9349021555754</v>
+        <v>4851.0732500751728</v>
       </c>
       <c r="Q15" s="23">
         <f t="shared" ref="Q15:U15" si="9">Q14-Q16</f>
-        <v>6571.8816472633553</v>
+        <v>5336.1805750826898</v>
       </c>
       <c r="R15" s="23">
         <f t="shared" si="9"/>
-        <v>6900.4757296265234</v>
+        <v>5602.9896038368242</v>
       </c>
       <c r="S15" s="23">
         <f t="shared" si="9"/>
-        <v>7245.4995161078477</v>
+        <v>5883.1390840286622</v>
       </c>
       <c r="T15" s="23">
         <f t="shared" si="9"/>
-        <v>7607.7744919132383</v>
+        <v>6177.2960382300953</v>
       </c>
       <c r="U15" s="23">
         <f t="shared" si="9"/>
-        <v>7988.1632165089031</v>
-      </c>
-      <c r="V15" s="39"/>
+        <v>6486.1608401416015</v>
+      </c>
+      <c r="V15" s="23">
+        <f t="shared" ref="V15" si="10">V14-V16</f>
+        <v>6810.4688821486852</v>
+      </c>
       <c r="W15" s="39"/>
       <c r="X15" s="39"/>
       <c r="Y15" s="39"/>
@@ -2266,67 +2303,70 @@
         <f>F14-F15</f>
         <v>9498.5760000000009</v>
       </c>
-      <c r="G16" s="23">
-        <f>G14*F29</f>
-        <v>11179.624044200536</v>
+      <c r="G16" s="27">
+        <f>G14-G15</f>
+        <v>11146</v>
       </c>
       <c r="H16" s="23">
-        <f t="shared" ref="H16:U16" si="10">H14*G29</f>
-        <v>13202.147218955472</v>
+        <f t="shared" ref="H16:V16" si="11">H14*G29</f>
+        <v>12660.731698787689</v>
       </c>
       <c r="I16" s="23">
-        <f t="shared" si="10"/>
-        <v>15634.063917568456</v>
+        <f t="shared" si="11"/>
+        <v>14411.282978318308</v>
       </c>
       <c r="J16" s="23">
-        <f t="shared" si="10"/>
-        <v>18556.892776509801</v>
+        <f t="shared" si="11"/>
+        <v>16431.810442900991</v>
       </c>
       <c r="K16" s="23">
         <f>K14*J29</f>
-        <v>22068.47185048183</v>
+        <v>18761.698053260996</v>
       </c>
       <c r="L16" s="23">
-        <f t="shared" si="10"/>
-        <v>24275.319035530014</v>
+        <f t="shared" si="11"/>
+        <v>21446.329955049587</v>
       </c>
       <c r="M16" s="23">
-        <f t="shared" si="10"/>
-        <v>26702.850939083019</v>
+        <f t="shared" si="11"/>
+        <v>23590.962950554545</v>
       </c>
       <c r="N16" s="23">
-        <f t="shared" si="10"/>
-        <v>29373.136032991322</v>
+        <f t="shared" si="11"/>
+        <v>25950.059245610006</v>
       </c>
       <c r="O16" s="23">
-        <f t="shared" si="10"/>
-        <v>32310.449636290457</v>
+        <f t="shared" si="11"/>
+        <v>28545.065170171005</v>
       </c>
       <c r="P16" s="23">
-        <f t="shared" si="10"/>
-        <v>35541.494599919504</v>
+        <f t="shared" si="11"/>
+        <v>31399.571687188105</v>
       </c>
       <c r="Q16" s="23">
-        <f t="shared" si="10"/>
-        <v>37318.569329915481</v>
+        <f t="shared" si="11"/>
+        <v>34539.528855906916</v>
       </c>
       <c r="R16" s="23">
-        <f t="shared" si="10"/>
-        <v>39184.497796411255</v>
+        <f t="shared" si="11"/>
+        <v>36266.505298702265</v>
       </c>
       <c r="S16" s="23">
-        <f t="shared" si="10"/>
-        <v>41143.72268623182</v>
+        <f t="shared" si="11"/>
+        <v>38079.830563637384</v>
       </c>
       <c r="T16" s="23">
-        <f t="shared" si="10"/>
-        <v>43200.908820543416</v>
+        <f t="shared" si="11"/>
+        <v>39983.822091819253</v>
       </c>
       <c r="U16" s="23">
-        <f t="shared" si="10"/>
-        <v>45360.954261570587</v>
-      </c>
-      <c r="V16" s="39"/>
+        <f t="shared" si="11"/>
+        <v>41983.013196410218</v>
+      </c>
+      <c r="V16" s="23">
+        <f t="shared" si="11"/>
+        <v>44082.163856230727</v>
+      </c>
       <c r="W16" s="39"/>
       <c r="X16" s="39"/>
       <c r="Y16" s="39"/>
@@ -2447,67 +2487,70 @@
         <f>SUM(Reports!R10:U10)</f>
         <v>1930.2280000000001</v>
       </c>
-      <c r="G17" s="23">
-        <f>F17*1.15</f>
-        <v>2219.7622000000001</v>
+      <c r="G17" s="38">
+        <f>SUM(Reports!V10:Y10)</f>
+        <v>2188</v>
       </c>
       <c r="H17" s="23">
-        <f t="shared" ref="H17:K17" si="11">G17*1.15</f>
-        <v>2552.7265299999999</v>
+        <f>G17*1.15</f>
+        <v>2516.1999999999998</v>
       </c>
       <c r="I17" s="23">
-        <f t="shared" si="11"/>
-        <v>2935.6355094999999</v>
+        <f t="shared" ref="I17:L17" si="12">H17*1.15</f>
+        <v>2893.6299999999997</v>
       </c>
       <c r="J17" s="23">
-        <f t="shared" si="11"/>
-        <v>3375.9808359249996</v>
+        <f t="shared" si="12"/>
+        <v>3327.6744999999992</v>
       </c>
       <c r="K17" s="23">
-        <f t="shared" si="11"/>
-        <v>3882.3779613137494</v>
+        <f t="shared" si="12"/>
+        <v>3826.8256749999987</v>
       </c>
       <c r="L17" s="23">
-        <f>K17*1.1</f>
-        <v>4270.6157574451245</v>
+        <f t="shared" si="12"/>
+        <v>4400.8495262499982</v>
       </c>
       <c r="M17" s="23">
-        <f t="shared" ref="M17:P17" si="12">L17*1.1</f>
-        <v>4697.6773331896375</v>
+        <f t="shared" ref="M17:P17" si="13">L17*1.1</f>
+        <v>4840.9344788749986</v>
       </c>
       <c r="N17" s="23">
-        <f t="shared" si="12"/>
-        <v>5167.4450665086015</v>
+        <f t="shared" ref="N17" si="14">M17*1.1</f>
+        <v>5325.0279267624992</v>
       </c>
       <c r="O17" s="23">
-        <f t="shared" si="12"/>
-        <v>5684.1895731594623</v>
+        <f t="shared" ref="O17" si="15">N17*1.1</f>
+        <v>5857.5307194387497</v>
       </c>
       <c r="P17" s="23">
-        <f t="shared" si="12"/>
-        <v>6252.6085304754088</v>
+        <f t="shared" ref="P17" si="16">O17*1.1</f>
+        <v>6443.2837913826252</v>
       </c>
       <c r="Q17" s="23">
-        <f t="shared" ref="M17:U17" si="13">P17*1.08</f>
-        <v>6752.8172129134418</v>
+        <f t="shared" ref="Q17" si="17">P17*1.1</f>
+        <v>7087.612170520888</v>
       </c>
       <c r="R17" s="23">
-        <f t="shared" si="13"/>
-        <v>7293.0425899465181</v>
+        <f>Q17*1.05</f>
+        <v>7441.9927790469328</v>
       </c>
       <c r="S17" s="23">
-        <f t="shared" si="13"/>
-        <v>7876.4859971422402</v>
+        <f t="shared" ref="S17:V17" si="18">R17*1.05</f>
+        <v>7814.0924179992799</v>
       </c>
       <c r="T17" s="23">
-        <f t="shared" si="13"/>
-        <v>8506.6048769136196</v>
+        <f t="shared" si="18"/>
+        <v>8204.7970388992435</v>
       </c>
       <c r="U17" s="23">
-        <f t="shared" si="13"/>
-        <v>9187.1332670667089</v>
-      </c>
-      <c r="V17" s="39"/>
+        <f t="shared" si="18"/>
+        <v>8615.0368908442069</v>
+      </c>
+      <c r="V17" s="23">
+        <f t="shared" si="18"/>
+        <v>9045.7887353864171</v>
+      </c>
       <c r="W17" s="39"/>
       <c r="X17" s="39"/>
       <c r="Y17" s="39"/>
@@ -2628,67 +2671,70 @@
         <f>SUM(Reports!R11:U11)</f>
         <v>3244.3469999999998</v>
       </c>
-      <c r="G18" s="23">
-        <f>F18*1.18</f>
-        <v>3828.3294599999995</v>
+      <c r="G18" s="38">
+        <f>SUM(Reports!V11:Y11)</f>
+        <v>3591</v>
       </c>
       <c r="H18" s="23">
-        <f t="shared" ref="H18:K18" si="14">G18*1.18</f>
-        <v>4517.4287627999993</v>
+        <f>G18*1.1</f>
+        <v>3950.1000000000004</v>
       </c>
       <c r="I18" s="23">
-        <f t="shared" si="14"/>
-        <v>5330.5659401039993</v>
+        <f t="shared" ref="I18:L18" si="19">H18*1.1</f>
+        <v>4345.1100000000006</v>
       </c>
       <c r="J18" s="23">
-        <f t="shared" si="14"/>
-        <v>6290.0678093227189</v>
+        <f t="shared" si="19"/>
+        <v>4779.621000000001</v>
       </c>
       <c r="K18" s="23">
-        <f t="shared" si="14"/>
-        <v>7422.2800150008079</v>
+        <f t="shared" si="19"/>
+        <v>5257.5831000000017</v>
       </c>
       <c r="L18" s="23">
-        <f>K18*1.05</f>
-        <v>7793.3940157508487</v>
+        <f t="shared" si="19"/>
+        <v>5783.3414100000027</v>
       </c>
       <c r="M18" s="23">
-        <f t="shared" ref="M18:P18" si="15">L18*1.05</f>
-        <v>8183.0637165383914</v>
+        <f t="shared" ref="M18" si="20">L18*1.05</f>
+        <v>6072.5084805000033</v>
       </c>
       <c r="N18" s="23">
-        <f t="shared" si="15"/>
-        <v>8592.2169023653114</v>
+        <f t="shared" ref="N18:N19" si="21">M18*1.05</f>
+        <v>6376.1339045250033</v>
       </c>
       <c r="O18" s="23">
-        <f t="shared" si="15"/>
-        <v>9021.8277474835777</v>
+        <f t="shared" ref="O18:O19" si="22">N18*1.05</f>
+        <v>6694.940599751254</v>
       </c>
       <c r="P18" s="23">
-        <f t="shared" si="15"/>
-        <v>9472.9191348577569</v>
+        <f t="shared" ref="P18:P19" si="23">O18*1.05</f>
+        <v>7029.6876297388171</v>
       </c>
       <c r="Q18" s="23">
-        <f t="shared" ref="L18:U18" si="16">P18*0.98</f>
-        <v>9283.4607521606013</v>
+        <f t="shared" ref="Q18:Q19" si="24">P18*1.05</f>
+        <v>7381.1720112257581</v>
       </c>
       <c r="R18" s="23">
-        <f t="shared" si="16"/>
-        <v>9097.7915371173895</v>
+        <f>Q18*0.95</f>
+        <v>7012.1134106644695</v>
       </c>
       <c r="S18" s="23">
-        <f t="shared" si="16"/>
-        <v>8915.8357063750409</v>
+        <f t="shared" ref="S18:V18" si="25">R18*0.95</f>
+        <v>6661.5077401312456</v>
       </c>
       <c r="T18" s="23">
-        <f t="shared" si="16"/>
-        <v>8737.5189922475402</v>
+        <f t="shared" si="25"/>
+        <v>6328.4323531246828</v>
       </c>
       <c r="U18" s="23">
-        <f t="shared" si="16"/>
-        <v>8562.7686124025895</v>
-      </c>
-      <c r="V18" s="39"/>
+        <f t="shared" si="25"/>
+        <v>6012.0107354684487</v>
+      </c>
+      <c r="V18" s="23">
+        <f t="shared" si="25"/>
+        <v>5711.4101986950263</v>
+      </c>
       <c r="W18" s="39"/>
       <c r="X18" s="39"/>
       <c r="Y18" s="39"/>
@@ -2809,67 +2855,70 @@
         <f>SUM(Reports!R12:U12)</f>
         <v>1055.8810000000001</v>
       </c>
-      <c r="G19" s="23">
-        <f>F19*1.15</f>
-        <v>1214.26315</v>
+      <c r="G19" s="38">
+        <f>SUM(Reports!V12:Y12)</f>
+        <v>1130</v>
       </c>
       <c r="H19" s="23">
-        <f t="shared" ref="H19:K19" si="17">G19*1.15</f>
-        <v>1396.4026224999998</v>
+        <f>G19*1.05</f>
+        <v>1186.5</v>
       </c>
       <c r="I19" s="23">
-        <f t="shared" si="17"/>
-        <v>1605.8630158749995</v>
+        <f t="shared" ref="I19:L19" si="26">H19*1.05</f>
+        <v>1245.825</v>
       </c>
       <c r="J19" s="23">
-        <f t="shared" si="17"/>
-        <v>1846.7424682562494</v>
+        <f t="shared" si="26"/>
+        <v>1308.11625</v>
       </c>
       <c r="K19" s="23">
-        <f t="shared" si="17"/>
-        <v>2123.7538384946865</v>
+        <f t="shared" si="26"/>
+        <v>1373.5220625000002</v>
       </c>
       <c r="L19" s="23">
-        <f>K19*1.05</f>
-        <v>2229.9415304194208</v>
+        <f t="shared" si="26"/>
+        <v>1442.1981656250002</v>
       </c>
       <c r="M19" s="23">
-        <f t="shared" ref="M19:P19" si="18">L19*1.05</f>
-        <v>2341.4386069403918</v>
+        <f t="shared" ref="M19" si="27">L19*1.05</f>
+        <v>1514.3080739062502</v>
       </c>
       <c r="N19" s="23">
-        <f t="shared" si="18"/>
-        <v>2458.5105372874114</v>
+        <f t="shared" si="21"/>
+        <v>1590.0234776015627</v>
       </c>
       <c r="O19" s="23">
-        <f t="shared" si="18"/>
-        <v>2581.4360641517819</v>
+        <f t="shared" si="22"/>
+        <v>1669.5246514816408</v>
       </c>
       <c r="P19" s="23">
-        <f t="shared" si="18"/>
-        <v>2710.5078673593712</v>
+        <f t="shared" si="23"/>
+        <v>1753.000884055723</v>
       </c>
       <c r="Q19" s="23">
-        <f t="shared" ref="L19:U19" si="19">P19*0.98</f>
-        <v>2656.2977100121839</v>
+        <f t="shared" si="24"/>
+        <v>1840.6509282585091</v>
       </c>
       <c r="R19" s="23">
-        <f t="shared" si="19"/>
-        <v>2603.1717558119403</v>
+        <f t="shared" ref="Q19:V19" si="28">Q19*0.98</f>
+        <v>1803.8379096933388</v>
       </c>
       <c r="S19" s="23">
-        <f t="shared" si="19"/>
-        <v>2551.1083206957014</v>
+        <f t="shared" si="28"/>
+        <v>1767.7611514994719</v>
       </c>
       <c r="T19" s="23">
-        <f t="shared" si="19"/>
-        <v>2500.0861542817875</v>
+        <f t="shared" si="28"/>
+        <v>1732.4059284694824</v>
       </c>
       <c r="U19" s="23">
-        <f t="shared" si="19"/>
-        <v>2450.0844311961519</v>
-      </c>
-      <c r="V19" s="39"/>
+        <f t="shared" si="28"/>
+        <v>1697.7578099000928</v>
+      </c>
+      <c r="V19" s="23">
+        <f t="shared" si="28"/>
+        <v>1663.8026537020908</v>
+      </c>
       <c r="W19" s="39"/>
       <c r="X19" s="39"/>
       <c r="Y19" s="39"/>
@@ -2990,67 +3039,70 @@
         <f>SUM(F17:F19)</f>
         <v>6230.4560000000001</v>
       </c>
-      <c r="G20" s="23">
-        <f t="shared" ref="G20:H20" si="20">SUM(G17:G19)</f>
-        <v>7262.3548099999998</v>
+      <c r="G20" s="27">
+        <f>SUM(G17:G19)</f>
+        <v>6909</v>
       </c>
       <c r="H20" s="23">
-        <f t="shared" si="20"/>
-        <v>8466.5579152999999</v>
+        <f t="shared" ref="H20" si="29">SUM(H17:H19)</f>
+        <v>7652.8</v>
       </c>
       <c r="I20" s="23">
-        <f t="shared" ref="I20:P20" si="21">SUM(I17:I19)</f>
-        <v>9872.0644654789994</v>
+        <f t="shared" ref="I20:P20" si="30">SUM(I17:I19)</f>
+        <v>8484.5650000000005</v>
       </c>
       <c r="J20" s="23">
-        <f t="shared" si="21"/>
-        <v>11512.791113503967</v>
+        <f t="shared" si="30"/>
+        <v>9415.4117499999993</v>
       </c>
       <c r="K20" s="23">
-        <f t="shared" si="21"/>
-        <v>13428.411814809242</v>
+        <f t="shared" si="30"/>
+        <v>10457.9308375</v>
       </c>
       <c r="L20" s="23">
-        <f t="shared" si="21"/>
-        <v>14293.951303615393</v>
+        <f t="shared" si="30"/>
+        <v>11626.389101875002</v>
       </c>
       <c r="M20" s="23">
-        <f t="shared" si="21"/>
-        <v>15222.179656668421</v>
+        <f t="shared" si="30"/>
+        <v>12427.751033281253</v>
       </c>
       <c r="N20" s="23">
-        <f t="shared" si="21"/>
-        <v>16218.172506161323</v>
+        <f t="shared" ref="N20:Q20" si="31">SUM(N17:N19)</f>
+        <v>13291.185308889066</v>
       </c>
       <c r="O20" s="23">
-        <f t="shared" si="21"/>
-        <v>17287.453384794822</v>
+        <f t="shared" si="31"/>
+        <v>14221.995970671645</v>
       </c>
       <c r="P20" s="23">
-        <f t="shared" si="21"/>
-        <v>18436.035532692538</v>
+        <f t="shared" si="31"/>
+        <v>15225.972305177165</v>
       </c>
       <c r="Q20" s="23">
-        <f t="shared" ref="Q20:U20" si="22">SUM(Q17:Q19)</f>
-        <v>18692.575675086227</v>
+        <f t="shared" si="31"/>
+        <v>16309.435110005155</v>
       </c>
       <c r="R20" s="23">
-        <f t="shared" si="22"/>
-        <v>18994.005882875848</v>
+        <f t="shared" ref="Q20:U20" si="32">SUM(R17:R19)</f>
+        <v>16257.94409940474</v>
       </c>
       <c r="S20" s="23">
-        <f t="shared" si="22"/>
-        <v>19343.430024212983</v>
+        <f t="shared" si="32"/>
+        <v>16243.361309629996</v>
       </c>
       <c r="T20" s="23">
-        <f t="shared" si="22"/>
-        <v>19744.210023442945</v>
+        <f t="shared" si="32"/>
+        <v>16265.635320493409</v>
       </c>
       <c r="U20" s="23">
-        <f t="shared" si="22"/>
-        <v>20199.986310665448</v>
-      </c>
-      <c r="V20" s="39"/>
+        <f t="shared" si="32"/>
+        <v>16324.805436212748</v>
+      </c>
+      <c r="V20" s="23">
+        <f t="shared" ref="V20" si="33">SUM(V17:V19)</f>
+        <v>16421.001587783536</v>
+      </c>
       <c r="W20" s="39"/>
       <c r="X20" s="39"/>
       <c r="Y20" s="39"/>
@@ -3171,67 +3223,70 @@
         <f>F16-F20</f>
         <v>3268.1200000000008</v>
       </c>
-      <c r="G21" s="23">
-        <f t="shared" ref="G21:H21" si="23">G16-G20</f>
-        <v>3917.2692342005366</v>
+      <c r="G21" s="27">
+        <f>G16-G20</f>
+        <v>4237</v>
       </c>
       <c r="H21" s="23">
-        <f t="shared" si="23"/>
-        <v>4735.5893036554717</v>
+        <f t="shared" ref="H21" si="34">H16-H20</f>
+        <v>5007.9316987876891</v>
       </c>
       <c r="I21" s="23">
-        <f t="shared" ref="I21:P21" si="24">I16-I20</f>
-        <v>5761.9994520894561</v>
+        <f t="shared" ref="I21:P21" si="35">I16-I20</f>
+        <v>5926.7179783183074</v>
       </c>
       <c r="J21" s="23">
-        <f t="shared" si="24"/>
-        <v>7044.1016630058348</v>
+        <f t="shared" si="35"/>
+        <v>7016.3986929009916</v>
       </c>
       <c r="K21" s="23">
-        <f t="shared" si="24"/>
-        <v>8640.0600356725881</v>
+        <f t="shared" si="35"/>
+        <v>8303.7672157609959</v>
       </c>
       <c r="L21" s="23">
-        <f t="shared" si="24"/>
-        <v>9981.3677319146209</v>
+        <f t="shared" si="35"/>
+        <v>9819.9408531745848</v>
       </c>
       <c r="M21" s="23">
-        <f t="shared" si="24"/>
-        <v>11480.671282414598</v>
+        <f t="shared" si="35"/>
+        <v>11163.211917273293</v>
       </c>
       <c r="N21" s="23">
-        <f t="shared" si="24"/>
-        <v>13154.963526829999</v>
+        <f t="shared" si="35"/>
+        <v>12658.87393672094</v>
       </c>
       <c r="O21" s="23">
-        <f t="shared" si="24"/>
-        <v>15022.996251495635</v>
+        <f t="shared" si="35"/>
+        <v>14323.069199499359</v>
       </c>
       <c r="P21" s="23">
-        <f t="shared" si="24"/>
-        <v>17105.459067226966</v>
+        <f t="shared" si="35"/>
+        <v>16173.59938201094</v>
       </c>
       <c r="Q21" s="23">
-        <f t="shared" ref="Q21:U21" si="25">Q16-Q20</f>
-        <v>18625.993654829254</v>
+        <f t="shared" ref="Q21:U21" si="36">Q16-Q20</f>
+        <v>18230.093745901759</v>
       </c>
       <c r="R21" s="23">
-        <f t="shared" si="25"/>
-        <v>20190.491913535407</v>
+        <f t="shared" si="36"/>
+        <v>20008.561199297525</v>
       </c>
       <c r="S21" s="23">
-        <f t="shared" si="25"/>
-        <v>21800.292662018837</v>
+        <f t="shared" si="36"/>
+        <v>21836.469254007388</v>
       </c>
       <c r="T21" s="23">
-        <f t="shared" si="25"/>
-        <v>23456.698797100471</v>
+        <f t="shared" si="36"/>
+        <v>23718.186771325843</v>
       </c>
       <c r="U21" s="23">
-        <f t="shared" si="25"/>
-        <v>25160.967950905138</v>
-      </c>
-      <c r="V21" s="39"/>
+        <f t="shared" si="36"/>
+        <v>25658.207760197471</v>
+      </c>
+      <c r="V21" s="23">
+        <f t="shared" ref="V21" si="37">V16-V20</f>
+        <v>27661.162268447191</v>
+      </c>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
       <c r="Y21" s="39"/>
@@ -3352,67 +3407,70 @@
         <f>SUM(Reports!R15:U15)</f>
         <v>-63.378999999999998</v>
       </c>
-      <c r="G22" s="23">
-        <f>F39*$F$3</f>
-        <v>0.77418000000001486</v>
+      <c r="G22" s="38">
+        <f>SUM(Reports!V15:Y15)</f>
+        <v>-61</v>
       </c>
       <c r="H22" s="23">
-        <f t="shared" ref="H22:U22" si="26">G39*$F$3</f>
-        <v>71.298961455609671</v>
+        <f t="shared" ref="H22:V22" si="38">G39*$F$3</f>
+        <v>37.5</v>
       </c>
       <c r="I22" s="23">
-        <f t="shared" si="26"/>
-        <v>157.82295022760914</v>
+        <f t="shared" si="38"/>
+        <v>128.3177705781784</v>
       </c>
       <c r="J22" s="23">
-        <f t="shared" si="26"/>
-        <v>264.37975346931631</v>
+        <f t="shared" si="38"/>
+        <v>237.30841405831515</v>
       </c>
       <c r="K22" s="23">
-        <f t="shared" si="26"/>
-        <v>395.93241896586903</v>
+        <f t="shared" si="38"/>
+        <v>367.87514198358264</v>
       </c>
       <c r="L22" s="23">
-        <f t="shared" si="26"/>
-        <v>558.58028314936121</v>
+        <f t="shared" si="38"/>
+        <v>523.96470442298505</v>
       </c>
       <c r="M22" s="23">
-        <f t="shared" si="26"/>
-        <v>748.29934742051296</v>
+        <f t="shared" si="38"/>
+        <v>710.15500445974135</v>
       </c>
       <c r="N22" s="23">
-        <f t="shared" si="26"/>
-        <v>968.42081875754491</v>
+        <f t="shared" si="38"/>
+        <v>923.87560905093596</v>
       </c>
       <c r="O22" s="23">
-        <f t="shared" si="26"/>
-        <v>1222.6417369781209</v>
+        <f t="shared" si="38"/>
+        <v>1168.3651008748297</v>
       </c>
       <c r="P22" s="23">
-        <f t="shared" si="26"/>
-        <v>1515.0632207706483</v>
+        <f t="shared" si="38"/>
+        <v>1447.210918281565</v>
       </c>
       <c r="Q22" s="23">
-        <f t="shared" si="26"/>
-        <v>1850.2326219546053</v>
+        <f t="shared" si="38"/>
+        <v>1764.3855036868301</v>
       </c>
       <c r="R22" s="23">
-        <f t="shared" si="26"/>
-        <v>2218.8046949367149</v>
+        <f t="shared" si="38"/>
+        <v>2124.2861301794246</v>
       </c>
       <c r="S22" s="23">
-        <f t="shared" si="26"/>
-        <v>2622.1720338892128</v>
+        <f t="shared" si="38"/>
+        <v>2522.6773821100101</v>
       </c>
       <c r="T22" s="23">
-        <f t="shared" si="26"/>
-        <v>3061.7763984155572</v>
+        <f t="shared" si="38"/>
+        <v>2961.1420215601229</v>
       </c>
       <c r="U22" s="23">
-        <f t="shared" si="26"/>
-        <v>3539.1089519348461</v>
-      </c>
-      <c r="V22" s="39"/>
+        <f t="shared" si="38"/>
+        <v>3441.3699398320705</v>
+      </c>
+      <c r="V22" s="23">
+        <f t="shared" si="38"/>
+        <v>3965.1623384326022</v>
+      </c>
       <c r="W22" s="39"/>
       <c r="X22" s="39"/>
       <c r="Y22" s="39"/>
@@ -3533,67 +3591,70 @@
         <f>F21+F22</f>
         <v>3204.7410000000009</v>
       </c>
-      <c r="G23" s="23">
-        <f t="shared" ref="G23:H23" si="27">G21+G22</f>
-        <v>3918.0434142005365</v>
+      <c r="G23" s="27">
+        <f>G21+G22</f>
+        <v>4176</v>
       </c>
       <c r="H23" s="23">
-        <f t="shared" si="27"/>
-        <v>4806.8882651110816</v>
+        <f t="shared" ref="H23" si="39">H21+H22</f>
+        <v>5045.4316987876891</v>
       </c>
       <c r="I23" s="23">
-        <f t="shared" ref="I23" si="28">I21+I22</f>
-        <v>5919.8224023170651</v>
+        <f t="shared" ref="I23" si="40">I21+I22</f>
+        <v>6055.0357488964855</v>
       </c>
       <c r="J23" s="23">
-        <f t="shared" ref="J23" si="29">J21+J22</f>
-        <v>7308.4814164751515</v>
+        <f t="shared" ref="J23" si="41">J21+J22</f>
+        <v>7253.7071069593067</v>
       </c>
       <c r="K23" s="23">
-        <f t="shared" ref="K23" si="30">K21+K22</f>
-        <v>9035.9924546384573</v>
+        <f t="shared" ref="K23" si="42">K21+K22</f>
+        <v>8671.6423577445785</v>
       </c>
       <c r="L23" s="23">
-        <f t="shared" ref="L23" si="31">L21+L22</f>
-        <v>10539.948015063983</v>
+        <f t="shared" ref="L23" si="43">L21+L22</f>
+        <v>10343.905557597569</v>
       </c>
       <c r="M23" s="23">
-        <f t="shared" ref="M23" si="32">M21+M22</f>
-        <v>12228.97062983511</v>
+        <f t="shared" ref="M23" si="44">M21+M22</f>
+        <v>11873.366921733033</v>
       </c>
       <c r="N23" s="23">
-        <f t="shared" ref="N23" si="33">N21+N22</f>
-        <v>14123.384345587543</v>
+        <f t="shared" ref="N23" si="45">N21+N22</f>
+        <v>13582.749545771876</v>
       </c>
       <c r="O23" s="23">
-        <f t="shared" ref="O23" si="34">O21+O22</f>
-        <v>16245.637988473756</v>
+        <f t="shared" ref="O23" si="46">O21+O22</f>
+        <v>15491.434300374189</v>
       </c>
       <c r="P23" s="23">
-        <f t="shared" ref="P23:Q23" si="35">P21+P22</f>
-        <v>18620.522287997614</v>
+        <f t="shared" ref="P23:Q23" si="47">P21+P22</f>
+        <v>17620.810300292505</v>
       </c>
       <c r="Q23" s="23">
-        <f t="shared" si="35"/>
-        <v>20476.226276783858</v>
+        <f t="shared" si="47"/>
+        <v>19994.479249588589</v>
       </c>
       <c r="R23" s="23">
-        <f t="shared" ref="R23:U23" si="36">R21+R22</f>
-        <v>22409.296608472123</v>
+        <f t="shared" ref="R23:U23" si="48">R21+R22</f>
+        <v>22132.84732947695</v>
       </c>
       <c r="S23" s="23">
-        <f t="shared" si="36"/>
-        <v>24422.464695908049</v>
+        <f t="shared" si="48"/>
+        <v>24359.146636117399</v>
       </c>
       <c r="T23" s="23">
-        <f t="shared" si="36"/>
-        <v>26518.475195516028</v>
+        <f t="shared" si="48"/>
+        <v>26679.328792885965</v>
       </c>
       <c r="U23" s="23">
-        <f t="shared" si="36"/>
-        <v>28700.076902839985</v>
-      </c>
-      <c r="V23" s="39"/>
+        <f t="shared" si="48"/>
+        <v>29099.577700029542</v>
+      </c>
+      <c r="V23" s="23">
+        <f t="shared" ref="V23" si="49">V21+V22</f>
+        <v>31626.324606879793</v>
+      </c>
       <c r="W23" s="39"/>
       <c r="X23" s="39"/>
       <c r="Y23" s="39"/>
@@ -3714,67 +3775,70 @@
         <f>SUM(Reports!R17:U17)</f>
         <v>253.28300000000002</v>
       </c>
-      <c r="G24" s="23">
-        <f>G23*0.1</f>
-        <v>391.80434142005367</v>
+      <c r="G24" s="38">
+        <f>SUM(Reports!V17:Y17)</f>
+        <v>100.66978739942763</v>
       </c>
       <c r="H24" s="23">
-        <f t="shared" ref="H24:P24" si="37">H23*0.1</f>
-        <v>480.68882651110818</v>
+        <f t="shared" ref="H24:P24" si="50">H23*0.1</f>
+        <v>504.54316987876894</v>
       </c>
       <c r="I24" s="23">
-        <f t="shared" si="37"/>
-        <v>591.98224023170656</v>
+        <f t="shared" si="50"/>
+        <v>605.50357488964858</v>
       </c>
       <c r="J24" s="23">
-        <f t="shared" si="37"/>
-        <v>730.84814164751515</v>
+        <f t="shared" si="50"/>
+        <v>725.37071069593071</v>
       </c>
       <c r="K24" s="23">
-        <f t="shared" si="37"/>
-        <v>903.59924546384582</v>
+        <f t="shared" si="50"/>
+        <v>867.16423577445789</v>
       </c>
       <c r="L24" s="23">
-        <f t="shared" si="37"/>
-        <v>1053.9948015063983</v>
+        <f t="shared" si="50"/>
+        <v>1034.390555759757</v>
       </c>
       <c r="M24" s="23">
-        <f t="shared" si="37"/>
-        <v>1222.897062983511</v>
+        <f t="shared" si="50"/>
+        <v>1187.3366921733034</v>
       </c>
       <c r="N24" s="23">
-        <f t="shared" si="37"/>
-        <v>1412.3384345587544</v>
+        <f t="shared" si="50"/>
+        <v>1358.2749545771876</v>
       </c>
       <c r="O24" s="23">
-        <f t="shared" si="37"/>
-        <v>1624.5637988473757</v>
+        <f t="shared" si="50"/>
+        <v>1549.143430037419</v>
       </c>
       <c r="P24" s="23">
-        <f t="shared" si="37"/>
-        <v>1862.0522287997615</v>
+        <f t="shared" si="50"/>
+        <v>1762.0810300292505</v>
       </c>
       <c r="Q24" s="23">
-        <f t="shared" ref="Q24:U24" si="38">Q23*0.1</f>
-        <v>2047.6226276783859</v>
+        <f t="shared" ref="Q24:U24" si="51">Q23*0.1</f>
+        <v>1999.4479249588589</v>
       </c>
       <c r="R24" s="23">
-        <f t="shared" si="38"/>
-        <v>2240.9296608472123</v>
+        <f t="shared" si="51"/>
+        <v>2213.2847329476949</v>
       </c>
       <c r="S24" s="23">
-        <f t="shared" si="38"/>
-        <v>2442.2464695908052</v>
+        <f t="shared" si="51"/>
+        <v>2435.9146636117398</v>
       </c>
       <c r="T24" s="23">
-        <f t="shared" si="38"/>
-        <v>2651.847519551603</v>
+        <f t="shared" si="51"/>
+        <v>2667.9328792885967</v>
       </c>
       <c r="U24" s="23">
-        <f t="shared" si="38"/>
-        <v>2870.0076902839987</v>
-      </c>
-      <c r="V24" s="39"/>
+        <f t="shared" si="51"/>
+        <v>2909.9577700029545</v>
+      </c>
+      <c r="V24" s="23">
+        <f t="shared" ref="V24" si="52">V23*0.1</f>
+        <v>3162.6324606879793</v>
+      </c>
       <c r="W24" s="39"/>
       <c r="X24" s="39"/>
       <c r="Y24" s="39"/>
@@ -3892,784 +3956,784 @@
         <v>2590.7740000000008</v>
       </c>
       <c r="F25" s="24">
-        <f t="shared" ref="F25:H25" si="39">F23-F24</f>
+        <f t="shared" ref="F25:H25" si="53">F23-F24</f>
         <v>2951.458000000001</v>
       </c>
       <c r="G25" s="24">
         <f>G23-G24</f>
-        <v>3526.2390727804827</v>
+        <v>4075.3302126005724</v>
       </c>
       <c r="H25" s="24">
-        <f t="shared" si="39"/>
-        <v>4326.1994385999733</v>
+        <f t="shared" si="53"/>
+        <v>4540.8885289089203</v>
       </c>
       <c r="I25" s="24">
-        <f t="shared" ref="I25:P25" si="40">I23-I24</f>
-        <v>5327.8401620853583</v>
+        <f t="shared" ref="I25:P25" si="54">I23-I24</f>
+        <v>5449.5321740068366</v>
       </c>
       <c r="J25" s="24">
-        <f t="shared" si="40"/>
-        <v>6577.6332748276363</v>
+        <f t="shared" si="54"/>
+        <v>6528.3363962633757</v>
       </c>
       <c r="K25" s="24">
-        <f t="shared" si="40"/>
-        <v>8132.3932091746119</v>
+        <f t="shared" si="54"/>
+        <v>7804.4781219701208</v>
       </c>
       <c r="L25" s="24">
-        <f t="shared" si="40"/>
-        <v>9485.9532135575846</v>
+        <f t="shared" si="54"/>
+        <v>9309.5150018378117</v>
       </c>
       <c r="M25" s="24">
-        <f t="shared" si="40"/>
-        <v>11006.073566851599</v>
+        <f t="shared" si="54"/>
+        <v>10686.03022955973</v>
       </c>
       <c r="N25" s="24">
-        <f t="shared" si="40"/>
-        <v>12711.045911028788</v>
+        <f t="shared" si="54"/>
+        <v>12224.474591194688</v>
       </c>
       <c r="O25" s="24">
-        <f t="shared" si="40"/>
-        <v>14621.074189626381</v>
+        <f t="shared" si="54"/>
+        <v>13942.29087033677</v>
       </c>
       <c r="P25" s="24">
-        <f t="shared" si="40"/>
-        <v>16758.470059197851</v>
+        <f t="shared" si="54"/>
+        <v>15858.729270263255</v>
       </c>
       <c r="Q25" s="24">
-        <f t="shared" ref="Q25:U25" si="41">Q23-Q24</f>
-        <v>18428.603649105473</v>
+        <f t="shared" ref="Q25:U25" si="55">Q23-Q24</f>
+        <v>17995.03132462973</v>
       </c>
       <c r="R25" s="24">
-        <f t="shared" si="41"/>
-        <v>20168.366947624912</v>
+        <f t="shared" si="55"/>
+        <v>19919.562596529257</v>
       </c>
       <c r="S25" s="24">
-        <f t="shared" si="41"/>
-        <v>21980.218226317244</v>
+        <f t="shared" si="55"/>
+        <v>21923.231972505659</v>
       </c>
       <c r="T25" s="24">
-        <f t="shared" si="41"/>
-        <v>23866.627675964424</v>
+        <f t="shared" si="55"/>
+        <v>24011.395913597367</v>
       </c>
       <c r="U25" s="24">
-        <f t="shared" si="41"/>
-        <v>25830.069212555987</v>
+        <f t="shared" si="55"/>
+        <v>26189.619930026587</v>
       </c>
       <c r="V25" s="24">
-        <f t="shared" ref="V25:BY25" si="42">U25*($F$2+1)</f>
-        <v>25571.768520430425</v>
+        <f t="shared" ref="V25" si="56">V23-V24</f>
+        <v>28463.692146191814</v>
       </c>
       <c r="W25" s="24">
-        <f t="shared" si="42"/>
-        <v>25316.05083522612</v>
+        <f t="shared" ref="V25:BY25" si="57">V25*($F$2+1)</f>
+        <v>28179.055224729895</v>
       </c>
       <c r="X25" s="24">
-        <f t="shared" si="42"/>
-        <v>25062.890326873858</v>
+        <f t="shared" si="57"/>
+        <v>27897.264672482597</v>
       </c>
       <c r="Y25" s="24">
-        <f t="shared" si="42"/>
-        <v>24812.261423605119</v>
+        <f t="shared" si="57"/>
+        <v>27618.292025757772</v>
       </c>
       <c r="Z25" s="24">
-        <f t="shared" si="42"/>
-        <v>24564.138809369069</v>
+        <f t="shared" si="57"/>
+        <v>27342.109105500193</v>
       </c>
       <c r="AA25" s="24">
-        <f t="shared" si="42"/>
-        <v>24318.497421275377</v>
+        <f t="shared" si="57"/>
+        <v>27068.68801444519</v>
       </c>
       <c r="AB25" s="24">
-        <f t="shared" si="42"/>
-        <v>24075.312447062624</v>
+        <f t="shared" si="57"/>
+        <v>26798.001134300739</v>
       </c>
       <c r="AC25" s="24">
-        <f t="shared" si="42"/>
-        <v>23834.559322591998</v>
+        <f t="shared" si="57"/>
+        <v>26530.021122957733</v>
       </c>
       <c r="AD25" s="24">
-        <f t="shared" si="42"/>
-        <v>23596.213729366078</v>
+        <f t="shared" si="57"/>
+        <v>26264.720911728156</v>
       </c>
       <c r="AE25" s="24">
-        <f t="shared" si="42"/>
-        <v>23360.251592072418</v>
+        <f t="shared" si="57"/>
+        <v>26002.073702610876</v>
       </c>
       <c r="AF25" s="24">
-        <f t="shared" si="42"/>
-        <v>23126.649076151694</v>
+        <f t="shared" si="57"/>
+        <v>25742.052965584768</v>
       </c>
       <c r="AG25" s="24">
-        <f t="shared" si="42"/>
-        <v>22895.382585390176</v>
+        <f t="shared" si="57"/>
+        <v>25484.632435928921</v>
       </c>
       <c r="AH25" s="24">
-        <f t="shared" si="42"/>
-        <v>22666.428759536273</v>
+        <f t="shared" si="57"/>
+        <v>25229.786111569632</v>
       </c>
       <c r="AI25" s="24">
-        <f t="shared" si="42"/>
-        <v>22439.764471940911</v>
+        <f t="shared" si="57"/>
+        <v>24977.488250453935</v>
       </c>
       <c r="AJ25" s="24">
-        <f t="shared" si="42"/>
-        <v>22215.3668272215</v>
+        <f t="shared" si="57"/>
+        <v>24727.713367949396</v>
       </c>
       <c r="AK25" s="24">
-        <f t="shared" si="42"/>
-        <v>21993.213158949286</v>
+        <f t="shared" si="57"/>
+        <v>24480.436234269902</v>
       </c>
       <c r="AL25" s="24">
-        <f t="shared" si="42"/>
-        <v>21773.281027359793</v>
+        <f t="shared" si="57"/>
+        <v>24235.631871927202</v>
       </c>
       <c r="AM25" s="24">
-        <f t="shared" si="42"/>
-        <v>21555.548217086194</v>
+        <f t="shared" si="57"/>
+        <v>23993.275553207928</v>
       </c>
       <c r="AN25" s="24">
-        <f t="shared" si="42"/>
-        <v>21339.992734915333</v>
+        <f t="shared" si="57"/>
+        <v>23753.34279767585</v>
       </c>
       <c r="AO25" s="24">
-        <f t="shared" si="42"/>
-        <v>21126.59280756618</v>
+        <f t="shared" si="57"/>
+        <v>23515.809369699091</v>
       </c>
       <c r="AP25" s="24">
-        <f t="shared" si="42"/>
-        <v>20915.326879490516</v>
+        <f t="shared" si="57"/>
+        <v>23280.6512760021</v>
       </c>
       <c r="AQ25" s="24">
-        <f t="shared" si="42"/>
-        <v>20706.173610695612</v>
+        <f t="shared" si="57"/>
+        <v>23047.844763242079</v>
       </c>
       <c r="AR25" s="24">
-        <f t="shared" si="42"/>
-        <v>20499.111874588656</v>
+        <f t="shared" si="57"/>
+        <v>22817.366315609659</v>
       </c>
       <c r="AS25" s="24">
-        <f t="shared" si="42"/>
-        <v>20294.12075584277</v>
+        <f t="shared" si="57"/>
+        <v>22589.192652453563</v>
       </c>
       <c r="AT25" s="24">
-        <f t="shared" si="42"/>
-        <v>20091.179548284341</v>
+        <f t="shared" si="57"/>
+        <v>22363.300725929028</v>
       </c>
       <c r="AU25" s="24">
-        <f t="shared" si="42"/>
-        <v>19890.267752801497</v>
+        <f t="shared" si="57"/>
+        <v>22139.667718669738</v>
       </c>
       <c r="AV25" s="24">
-        <f t="shared" si="42"/>
-        <v>19691.365075273483</v>
+        <f t="shared" si="57"/>
+        <v>21918.27104148304</v>
       </c>
       <c r="AW25" s="24">
-        <f t="shared" si="42"/>
-        <v>19494.451424520747</v>
+        <f t="shared" si="57"/>
+        <v>21699.088331068207</v>
       </c>
       <c r="AX25" s="24">
-        <f t="shared" si="42"/>
-        <v>19299.506910275541</v>
+        <f t="shared" si="57"/>
+        <v>21482.097447757526</v>
       </c>
       <c r="AY25" s="24">
-        <f t="shared" si="42"/>
-        <v>19106.511841172785</v>
+        <f t="shared" si="57"/>
+        <v>21267.276473279951</v>
       </c>
       <c r="AZ25" s="24">
-        <f t="shared" si="42"/>
-        <v>18915.446722761058</v>
+        <f t="shared" si="57"/>
+        <v>21054.603708547151</v>
       </c>
       <c r="BA25" s="24">
-        <f t="shared" si="42"/>
-        <v>18726.292255533448</v>
+        <f t="shared" si="57"/>
+        <v>20844.05767146168</v>
       </c>
       <c r="BB25" s="24">
-        <f t="shared" si="42"/>
-        <v>18539.029332978113</v>
+        <f t="shared" si="57"/>
+        <v>20635.617094747064</v>
       </c>
       <c r="BC25" s="24">
-        <f t="shared" si="42"/>
-        <v>18353.639039648333</v>
+        <f t="shared" si="57"/>
+        <v>20429.260923799593</v>
       </c>
       <c r="BD25" s="24">
-        <f t="shared" si="42"/>
-        <v>18170.10264925185</v>
+        <f t="shared" si="57"/>
+        <v>20224.968314561596</v>
       </c>
       <c r="BE25" s="24">
-        <f t="shared" si="42"/>
-        <v>17988.401622759331</v>
+        <f t="shared" si="57"/>
+        <v>20022.718631415981</v>
       </c>
       <c r="BF25" s="24">
-        <f t="shared" si="42"/>
-        <v>17808.517606531739</v>
+        <f t="shared" si="57"/>
+        <v>19822.491445101819</v>
       </c>
       <c r="BG25" s="24">
-        <f t="shared" si="42"/>
-        <v>17630.432430466422</v>
+        <f t="shared" si="57"/>
+        <v>19624.266530650802</v>
       </c>
       <c r="BH25" s="24">
-        <f t="shared" si="42"/>
-        <v>17454.128106161759</v>
+        <f t="shared" si="57"/>
+        <v>19428.023865344294</v>
       </c>
       <c r="BI25" s="24">
-        <f t="shared" si="42"/>
-        <v>17279.586825100141</v>
+        <f t="shared" si="57"/>
+        <v>19233.743626690852</v>
       </c>
       <c r="BJ25" s="24">
-        <f t="shared" si="42"/>
-        <v>17106.790956849141</v>
+        <f t="shared" si="57"/>
+        <v>19041.406190423942</v>
       </c>
       <c r="BK25" s="24">
-        <f t="shared" si="42"/>
-        <v>16935.723047280651</v>
+        <f t="shared" si="57"/>
+        <v>18850.992128519702</v>
       </c>
       <c r="BL25" s="24">
-        <f t="shared" si="42"/>
-        <v>16766.365816807844</v>
+        <f t="shared" si="57"/>
+        <v>18662.482207234505</v>
       </c>
       <c r="BM25" s="24">
-        <f t="shared" si="42"/>
-        <v>16598.702158639764</v>
+        <f t="shared" si="57"/>
+        <v>18475.857385162159</v>
       </c>
       <c r="BN25" s="24">
-        <f t="shared" si="42"/>
-        <v>16432.715137053365</v>
+        <f t="shared" si="57"/>
+        <v>18291.098811310538</v>
       </c>
       <c r="BO25" s="24">
-        <f t="shared" si="42"/>
-        <v>16268.387985682832</v>
+        <f t="shared" si="57"/>
+        <v>18108.187823197433</v>
       </c>
       <c r="BP25" s="24">
-        <f t="shared" si="42"/>
-        <v>16105.704105826004</v>
+        <f t="shared" si="57"/>
+        <v>17927.10594496546</v>
       </c>
       <c r="BQ25" s="24">
-        <f t="shared" si="42"/>
-        <v>15944.647064767743</v>
+        <f t="shared" si="57"/>
+        <v>17747.834885515807</v>
       </c>
       <c r="BR25" s="24">
-        <f t="shared" si="42"/>
-        <v>15785.200594120066</v>
+        <f t="shared" si="57"/>
+        <v>17570.356536660649</v>
       </c>
       <c r="BS25" s="24">
-        <f t="shared" si="42"/>
-        <v>15627.348588178866</v>
+        <f t="shared" si="57"/>
+        <v>17394.652971294043</v>
       </c>
       <c r="BT25" s="24">
-        <f t="shared" si="42"/>
-        <v>15471.075102297076</v>
+        <f t="shared" si="57"/>
+        <v>17220.706441581104</v>
       </c>
       <c r="BU25" s="24">
-        <f t="shared" si="42"/>
-        <v>15316.364351274106</v>
+        <f t="shared" si="57"/>
+        <v>17048.499377165292</v>
       </c>
       <c r="BV25" s="24">
-        <f t="shared" si="42"/>
-        <v>15163.200707761363</v>
+        <f t="shared" si="57"/>
+        <v>16878.014383393638</v>
       </c>
       <c r="BW25" s="24">
-        <f t="shared" si="42"/>
-        <v>15011.568700683749</v>
+        <f t="shared" si="57"/>
+        <v>16709.234239559701</v>
       </c>
       <c r="BX25" s="24">
-        <f t="shared" si="42"/>
-        <v>14861.453013676912</v>
+        <f t="shared" si="57"/>
+        <v>16542.141897164103</v>
       </c>
       <c r="BY25" s="24">
-        <f t="shared" si="42"/>
-        <v>14712.838483540143</v>
+        <f t="shared" si="57"/>
+        <v>16376.720478192463</v>
       </c>
       <c r="BZ25" s="24">
-        <f t="shared" ref="BZ25:DM25" si="43">BY25*($F$2+1)</f>
-        <v>14565.710098704742</v>
+        <f t="shared" ref="BZ25:DM25" si="58">BY25*($F$2+1)</f>
+        <v>16212.953273410538</v>
       </c>
       <c r="CA25" s="24">
-        <f t="shared" si="43"/>
-        <v>14420.052997717694</v>
+        <f t="shared" si="58"/>
+        <v>16050.823740676433</v>
       </c>
       <c r="CB25" s="24">
-        <f t="shared" si="43"/>
-        <v>14275.852467740517</v>
+        <f t="shared" si="58"/>
+        <v>15890.315503269669</v>
       </c>
       <c r="CC25" s="24">
-        <f t="shared" si="43"/>
-        <v>14133.093943063112</v>
+        <f t="shared" si="58"/>
+        <v>15731.412348236972</v>
       </c>
       <c r="CD25" s="24">
-        <f t="shared" si="43"/>
-        <v>13991.763003632481</v>
+        <f t="shared" si="58"/>
+        <v>15574.098224754602</v>
       </c>
       <c r="CE25" s="24">
-        <f t="shared" si="43"/>
-        <v>13851.845373596156</v>
+        <f t="shared" si="58"/>
+        <v>15418.357242507056</v>
       </c>
       <c r="CF25" s="24">
-        <f t="shared" si="43"/>
-        <v>13713.326919860194</v>
+        <f t="shared" si="58"/>
+        <v>15264.173670081986</v>
       </c>
       <c r="CG25" s="24">
-        <f t="shared" si="43"/>
-        <v>13576.193650661591</v>
+        <f t="shared" si="58"/>
+        <v>15111.531933381166</v>
       </c>
       <c r="CH25" s="24">
-        <f t="shared" si="43"/>
-        <v>13440.431714154975</v>
+        <f t="shared" si="58"/>
+        <v>14960.416614047354</v>
       </c>
       <c r="CI25" s="24">
-        <f t="shared" si="43"/>
-        <v>13306.027397013424</v>
+        <f t="shared" si="58"/>
+        <v>14810.812447906879</v>
       </c>
       <c r="CJ25" s="24">
-        <f t="shared" si="43"/>
-        <v>13172.96712304329</v>
+        <f t="shared" si="58"/>
+        <v>14662.70432342781</v>
       </c>
       <c r="CK25" s="24">
-        <f t="shared" si="43"/>
-        <v>13041.237451812858</v>
+        <f t="shared" si="58"/>
+        <v>14516.077280193531</v>
       </c>
       <c r="CL25" s="24">
-        <f t="shared" si="43"/>
-        <v>12910.825077294729</v>
+        <f t="shared" si="58"/>
+        <v>14370.916507391596</v>
       </c>
       <c r="CM25" s="24">
-        <f t="shared" si="43"/>
-        <v>12781.716826521781</v>
+        <f t="shared" si="58"/>
+        <v>14227.207342317679</v>
       </c>
       <c r="CN25" s="24">
-        <f t="shared" si="43"/>
-        <v>12653.899658256563</v>
+        <f t="shared" si="58"/>
+        <v>14084.935268894502</v>
       </c>
       <c r="CO25" s="24">
-        <f t="shared" si="43"/>
-        <v>12527.360661673998</v>
+        <f t="shared" si="58"/>
+        <v>13944.085916205557</v>
       </c>
       <c r="CP25" s="24">
-        <f t="shared" si="43"/>
-        <v>12402.087055057258</v>
+        <f t="shared" si="58"/>
+        <v>13804.645057043501</v>
       </c>
       <c r="CQ25" s="24">
-        <f t="shared" si="43"/>
-        <v>12278.066184506686</v>
+        <f t="shared" si="58"/>
+        <v>13666.598606473066</v>
       </c>
       <c r="CR25" s="24">
-        <f t="shared" si="43"/>
-        <v>12155.285522661619</v>
+        <f t="shared" si="58"/>
+        <v>13529.932620408335</v>
       </c>
       <c r="CS25" s="24">
-        <f t="shared" si="43"/>
-        <v>12033.732667435002</v>
+        <f t="shared" si="58"/>
+        <v>13394.633294204252</v>
       </c>
       <c r="CT25" s="24">
-        <f t="shared" si="43"/>
-        <v>11913.395340760653</v>
+        <f t="shared" si="58"/>
+        <v>13260.686961262209</v>
       </c>
       <c r="CU25" s="24">
-        <f t="shared" si="43"/>
-        <v>11794.261387353046</v>
+        <f t="shared" si="58"/>
+        <v>13128.080091649586</v>
       </c>
       <c r="CV25" s="24">
-        <f t="shared" si="43"/>
-        <v>11676.318773479516</v>
+        <f t="shared" si="58"/>
+        <v>12996.79929073309</v>
       </c>
       <c r="CW25" s="24">
-        <f t="shared" si="43"/>
-        <v>11559.55558574472</v>
+        <f t="shared" si="58"/>
+        <v>12866.831297825758</v>
       </c>
       <c r="CX25" s="24">
-        <f t="shared" si="43"/>
-        <v>11443.960029887272</v>
+        <f t="shared" si="58"/>
+        <v>12738.1629848475</v>
       </c>
       <c r="CY25" s="24">
-        <f t="shared" si="43"/>
-        <v>11329.5204295884</v>
+        <f t="shared" si="58"/>
+        <v>12610.781354999026</v>
       </c>
       <c r="CZ25" s="24">
-        <f t="shared" si="43"/>
-        <v>11216.225225292515</v>
+        <f t="shared" si="58"/>
+        <v>12484.673541449036</v>
       </c>
       <c r="DA25" s="24">
-        <f t="shared" si="43"/>
-        <v>11104.06297303959</v>
+        <f t="shared" si="58"/>
+        <v>12359.826806034545</v>
       </c>
       <c r="DB25" s="24">
-        <f t="shared" si="43"/>
-        <v>10993.022343309194</v>
+        <f t="shared" si="58"/>
+        <v>12236.228537974201</v>
       </c>
       <c r="DC25" s="24">
-        <f t="shared" si="43"/>
-        <v>10883.092119876103</v>
+        <f t="shared" si="58"/>
+        <v>12113.866252594458</v>
       </c>
       <c r="DD25" s="24">
-        <f t="shared" si="43"/>
-        <v>10774.261198677341</v>
+        <f t="shared" si="58"/>
+        <v>11992.727590068514</v>
       </c>
       <c r="DE25" s="24">
-        <f t="shared" si="43"/>
-        <v>10666.518586690567</v>
+        <f t="shared" si="58"/>
+        <v>11872.800314167829</v>
       </c>
       <c r="DF25" s="24">
-        <f t="shared" si="43"/>
-        <v>10559.85340082366</v>
+        <f t="shared" si="58"/>
+        <v>11754.072311026152</v>
       </c>
       <c r="DG25" s="24">
-        <f t="shared" si="43"/>
-        <v>10454.254866815423</v>
+        <f t="shared" si="58"/>
+        <v>11636.53158791589</v>
       </c>
       <c r="DH25" s="24">
-        <f t="shared" si="43"/>
-        <v>10349.712318147269</v>
+        <f t="shared" si="58"/>
+        <v>11520.166272036731</v>
       </c>
       <c r="DI25" s="24">
-        <f t="shared" si="43"/>
-        <v>10246.215194965796</v>
+        <f t="shared" si="58"/>
+        <v>11404.964609316365</v>
       </c>
       <c r="DJ25" s="24">
-        <f t="shared" si="43"/>
-        <v>10143.753043016139</v>
+        <f t="shared" si="58"/>
+        <v>11290.9149632232</v>
       </c>
       <c r="DK25" s="24">
-        <f t="shared" si="43"/>
-        <v>10042.315512585978</v>
+        <f t="shared" si="58"/>
+        <v>11178.005813590968</v>
       </c>
       <c r="DL25" s="24">
-        <f t="shared" si="43"/>
-        <v>9941.8923574601176</v>
+        <f t="shared" si="58"/>
+        <v>11066.225755455058</v>
       </c>
       <c r="DM25" s="24">
-        <f t="shared" si="43"/>
-        <v>9842.473433885516</v>
+        <f t="shared" si="58"/>
+        <v>10955.563497900508</v>
       </c>
       <c r="DN25" s="24">
-        <f t="shared" ref="DN25" si="44">DM25*($F$2+1)</f>
-        <v>9744.0486995466599</v>
+        <f t="shared" ref="DN25" si="59">DM25*($F$2+1)</f>
+        <v>10846.007862921502</v>
       </c>
       <c r="DO25" s="24">
-        <f t="shared" ref="DO25" si="45">DN25*($F$2+1)</f>
-        <v>9646.608212551193</v>
+        <f t="shared" ref="DO25" si="60">DN25*($F$2+1)</f>
+        <v>10737.547784292286</v>
       </c>
       <c r="DP25" s="24">
-        <f t="shared" ref="DP25" si="46">DO25*($F$2+1)</f>
-        <v>9550.1421304256801</v>
+        <f t="shared" ref="DP25" si="61">DO25*($F$2+1)</f>
+        <v>10630.172306449364</v>
       </c>
       <c r="DQ25" s="24">
-        <f t="shared" ref="DQ25" si="47">DP25*($F$2+1)</f>
-        <v>9454.6407091214223</v>
+        <f t="shared" ref="DQ25" si="62">DP25*($F$2+1)</f>
+        <v>10523.870583384869</v>
       </c>
       <c r="DR25" s="24">
-        <f t="shared" ref="DR25" si="48">DQ25*($F$2+1)</f>
-        <v>9360.0943020302075</v>
+        <f t="shared" ref="DR25" si="63">DQ25*($F$2+1)</f>
+        <v>10418.631877551021</v>
       </c>
       <c r="DS25" s="24">
-        <f t="shared" ref="DS25" si="49">DR25*($F$2+1)</f>
-        <v>9266.4933590099045</v>
+        <f t="shared" ref="DS25" si="64">DR25*($F$2+1)</f>
+        <v>10314.445558775511</v>
       </c>
       <c r="DT25" s="24">
-        <f t="shared" ref="DT25" si="50">DS25*($F$2+1)</f>
-        <v>9173.8284254198061</v>
+        <f t="shared" ref="DT25" si="65">DS25*($F$2+1)</f>
+        <v>10211.301103187756</v>
       </c>
       <c r="DU25" s="24">
-        <f t="shared" ref="DU25" si="51">DT25*($F$2+1)</f>
-        <v>9082.0901411656087</v>
+        <f t="shared" ref="DU25" si="66">DT25*($F$2+1)</f>
+        <v>10109.188092155879</v>
       </c>
       <c r="DV25" s="24">
-        <f t="shared" ref="DV25" si="52">DU25*($F$2+1)</f>
-        <v>8991.2692397539522</v>
+        <f t="shared" ref="DV25" si="67">DU25*($F$2+1)</f>
+        <v>10008.09621123432</v>
       </c>
       <c r="DW25" s="24">
-        <f t="shared" ref="DW25" si="53">DV25*($F$2+1)</f>
-        <v>8901.3565473564122</v>
+        <f t="shared" ref="DW25" si="68">DV25*($F$2+1)</f>
+        <v>9908.0152491219778</v>
       </c>
       <c r="DX25" s="24">
-        <f t="shared" ref="DX25" si="54">DW25*($F$2+1)</f>
-        <v>8812.3429818828481</v>
+        <f t="shared" ref="DX25" si="69">DW25*($F$2+1)</f>
+        <v>9808.9350966307575</v>
       </c>
       <c r="DY25" s="24">
-        <f t="shared" ref="DY25" si="55">DX25*($F$2+1)</f>
-        <v>8724.2195520640198</v>
+        <f t="shared" ref="DY25" si="70">DX25*($F$2+1)</f>
+        <v>9710.8457456644501</v>
       </c>
       <c r="DZ25" s="24">
-        <f t="shared" ref="DZ25" si="56">DY25*($F$2+1)</f>
-        <v>8636.9773565433788</v>
+        <f t="shared" ref="DZ25" si="71">DY25*($F$2+1)</f>
+        <v>9613.7372882078052</v>
       </c>
       <c r="EA25" s="24">
-        <f t="shared" ref="EA25" si="57">DZ25*($F$2+1)</f>
-        <v>8550.6075829779456</v>
+        <f t="shared" ref="EA25" si="72">DZ25*($F$2+1)</f>
+        <v>9517.5999153257271</v>
       </c>
       <c r="EB25" s="24">
-        <f t="shared" ref="EB25" si="58">EA25*($F$2+1)</f>
-        <v>8465.101507148167</v>
+        <f t="shared" ref="EB25" si="73">EA25*($F$2+1)</f>
+        <v>9422.423916172469</v>
       </c>
       <c r="EC25" s="24">
-        <f t="shared" ref="EC25" si="59">EB25*($F$2+1)</f>
-        <v>8380.4504920766849</v>
+        <f t="shared" ref="EC25" si="74">EB25*($F$2+1)</f>
+        <v>9328.1996770107435</v>
       </c>
       <c r="ED25" s="24">
-        <f t="shared" ref="ED25" si="60">EC25*($F$2+1)</f>
-        <v>8296.6459871559182</v>
+        <f t="shared" ref="ED25" si="75">EC25*($F$2+1)</f>
+        <v>9234.9176802406364</v>
       </c>
       <c r="EE25" s="24">
-        <f t="shared" ref="EE25" si="61">ED25*($F$2+1)</f>
-        <v>8213.6795272843592</v>
+        <f t="shared" ref="EE25" si="76">ED25*($F$2+1)</f>
+        <v>9142.5685034382295</v>
       </c>
       <c r="EF25" s="24">
-        <f t="shared" ref="EF25" si="62">EE25*($F$2+1)</f>
-        <v>8131.5427320115159</v>
+        <f t="shared" ref="EF25" si="77">EE25*($F$2+1)</f>
+        <v>9051.1428184038468</v>
       </c>
       <c r="EG25" s="24">
-        <f t="shared" ref="EG25" si="63">EF25*($F$2+1)</f>
-        <v>8050.2273046914006</v>
+        <f t="shared" ref="EG25" si="78">EF25*($F$2+1)</f>
+        <v>8960.631390219809</v>
       </c>
       <c r="EH25" s="24">
-        <f t="shared" ref="EH25" si="64">EG25*($F$2+1)</f>
-        <v>7969.7250316444861</v>
+        <f t="shared" ref="EH25" si="79">EG25*($F$2+1)</f>
+        <v>8871.02507631761</v>
       </c>
       <c r="EI25" s="24">
-        <f t="shared" ref="EI25" si="65">EH25*($F$2+1)</f>
-        <v>7890.0277813280409</v>
+        <f t="shared" ref="EI25" si="80">EH25*($F$2+1)</f>
+        <v>8782.3148255544347</v>
       </c>
       <c r="EJ25" s="24">
-        <f t="shared" ref="EJ25" si="66">EI25*($F$2+1)</f>
-        <v>7811.1275035147601</v>
+        <f t="shared" ref="EJ25" si="81">EI25*($F$2+1)</f>
+        <v>8694.4916772988909</v>
       </c>
       <c r="EK25" s="24">
-        <f t="shared" ref="EK25" si="67">EJ25*($F$2+1)</f>
-        <v>7733.0162284796124</v>
+        <f t="shared" ref="EK25" si="82">EJ25*($F$2+1)</f>
+        <v>8607.5467605259018</v>
       </c>
       <c r="EL25" s="24">
-        <f t="shared" ref="EL25" si="68">EK25*($F$2+1)</f>
-        <v>7655.6860661948158</v>
+        <f t="shared" ref="EL25" si="83">EK25*($F$2+1)</f>
+        <v>8521.4712929206435</v>
       </c>
       <c r="EM25" s="24">
-        <f t="shared" ref="EM25" si="69">EL25*($F$2+1)</f>
-        <v>7579.1292055328677</v>
+        <f t="shared" ref="EM25" si="84">EL25*($F$2+1)</f>
+        <v>8436.2565799914373</v>
       </c>
       <c r="EN25" s="24">
-        <f t="shared" ref="EN25" si="70">EM25*($F$2+1)</f>
-        <v>7503.3379134775387</v>
+        <f t="shared" ref="EN25" si="85">EM25*($F$2+1)</f>
+        <v>8351.8940141915227</v>
       </c>
       <c r="EO25" s="24">
-        <f t="shared" ref="EO25" si="71">EN25*($F$2+1)</f>
-        <v>7428.304534342763</v>
+        <f t="shared" ref="EO25" si="86">EN25*($F$2+1)</f>
+        <v>8268.3750740496071</v>
       </c>
       <c r="EP25" s="24">
-        <f t="shared" ref="EP25" si="72">EO25*($F$2+1)</f>
-        <v>7354.0214889993349</v>
+        <f t="shared" ref="EP25" si="87">EO25*($F$2+1)</f>
+        <v>8185.6913233091109</v>
       </c>
       <c r="EQ25" s="24">
-        <f t="shared" ref="EQ25" si="73">EP25*($F$2+1)</f>
-        <v>7280.4812741093419</v>
+        <f t="shared" ref="EQ25" si="88">EP25*($F$2+1)</f>
+        <v>8103.8344100760196</v>
       </c>
       <c r="ER25" s="24">
-        <f t="shared" ref="ER25" si="74">EQ25*($F$2+1)</f>
-        <v>7207.6764613682481</v>
+        <f t="shared" ref="ER25" si="89">EQ25*($F$2+1)</f>
+        <v>8022.7960659752589</v>
       </c>
       <c r="ES25" s="24">
-        <f t="shared" ref="ES25" si="75">ER25*($F$2+1)</f>
-        <v>7135.5996967545652</v>
+        <f t="shared" ref="ES25" si="90">ER25*($F$2+1)</f>
+        <v>7942.5681053155058</v>
       </c>
       <c r="ET25" s="24">
-        <f t="shared" ref="ET25" si="76">ES25*($F$2+1)</f>
-        <v>7064.2436997870191</v>
+        <f t="shared" ref="ET25" si="91">ES25*($F$2+1)</f>
+        <v>7863.1424242623507</v>
       </c>
       <c r="EU25" s="24">
-        <f t="shared" ref="EU25" si="77">ET25*($F$2+1)</f>
-        <v>6993.6012627891487</v>
+        <f t="shared" ref="EU25" si="92">ET25*($F$2+1)</f>
+        <v>7784.5110000197274</v>
       </c>
       <c r="EV25" s="24">
-        <f t="shared" ref="EV25" si="78">EU25*($F$2+1)</f>
-        <v>6923.6652501612571</v>
+        <f t="shared" ref="EV25" si="93">EU25*($F$2+1)</f>
+        <v>7706.6658900195298</v>
       </c>
       <c r="EW25" s="24">
-        <f t="shared" ref="EW25" si="79">EV25*($F$2+1)</f>
-        <v>6854.4285976596448</v>
+        <f t="shared" ref="EW25" si="94">EV25*($F$2+1)</f>
+        <v>7629.599231119334</v>
       </c>
       <c r="EX25" s="24">
-        <f t="shared" ref="EX25" si="80">EW25*($F$2+1)</f>
-        <v>6785.8843116830485</v>
+        <f t="shared" ref="EX25" si="95">EW25*($F$2+1)</f>
+        <v>7553.303238808141</v>
       </c>
       <c r="EY25" s="24">
-        <f t="shared" ref="EY25" si="81">EX25*($F$2+1)</f>
-        <v>6718.0254685662176</v>
+        <f t="shared" ref="EY25" si="96">EX25*($F$2+1)</f>
+        <v>7477.7702064200594</v>
       </c>
       <c r="EZ25" s="24">
-        <f t="shared" ref="EZ25" si="82">EY25*($F$2+1)</f>
-        <v>6650.8452138805551</v>
+        <f t="shared" ref="EZ25" si="97">EY25*($F$2+1)</f>
+        <v>7402.9925043558587</v>
       </c>
       <c r="FA25" s="24">
-        <f t="shared" ref="FA25" si="83">EZ25*($F$2+1)</f>
-        <v>6584.3367617417498</v>
+        <f t="shared" ref="FA25" si="98">EZ25*($F$2+1)</f>
+        <v>7328.9625793123005</v>
       </c>
       <c r="FB25" s="24">
-        <f t="shared" ref="FB25" si="84">FA25*($F$2+1)</f>
-        <v>6518.4933941243326</v>
+        <f t="shared" ref="FB25" si="99">FA25*($F$2+1)</f>
+        <v>7255.6729535191771</v>
       </c>
       <c r="FC25" s="24">
-        <f t="shared" ref="FC25" si="85">FB25*($F$2+1)</f>
-        <v>6453.3084601830888</v>
+        <f t="shared" ref="FC25" si="100">FB25*($F$2+1)</f>
+        <v>7183.116223983985</v>
       </c>
       <c r="FD25" s="24">
-        <f t="shared" ref="FD25" si="86">FC25*($F$2+1)</f>
-        <v>6388.7753755812582</v>
+        <f t="shared" ref="FD25" si="101">FC25*($F$2+1)</f>
+        <v>7111.2850617441454</v>
       </c>
       <c r="FE25" s="24">
-        <f t="shared" ref="FE25" si="87">FD25*($F$2+1)</f>
-        <v>6324.8876218254454</v>
+        <f t="shared" ref="FE25" si="102">FD25*($F$2+1)</f>
+        <v>7040.1722111267036</v>
       </c>
       <c r="FF25" s="24">
-        <f t="shared" ref="FF25" si="88">FE25*($F$2+1)</f>
-        <v>6261.6387456071907</v>
+        <f t="shared" ref="FF25" si="103">FE25*($F$2+1)</f>
+        <v>6969.7704890154364</v>
       </c>
       <c r="FG25" s="24">
-        <f t="shared" ref="FG25" si="89">FF25*($F$2+1)</f>
-        <v>6199.0223581511191</v>
+        <f t="shared" ref="FG25" si="104">FF25*($F$2+1)</f>
+        <v>6900.0727841252819</v>
       </c>
       <c r="FH25" s="24">
-        <f t="shared" ref="FH25" si="90">FG25*($F$2+1)</f>
-        <v>6137.0321345696075</v>
+        <f t="shared" ref="FH25" si="105">FG25*($F$2+1)</f>
+        <v>6831.0720562840288</v>
       </c>
       <c r="FI25" s="24">
-        <f t="shared" ref="FI25" si="91">FH25*($F$2+1)</f>
-        <v>6075.6618132239109</v>
+        <f t="shared" ref="FI25" si="106">FH25*($F$2+1)</f>
+        <v>6762.7613357211885</v>
       </c>
       <c r="FJ25" s="24">
-        <f t="shared" ref="FJ25" si="92">FI25*($F$2+1)</f>
-        <v>6014.9051950916719</v>
+        <f t="shared" ref="FJ25" si="107">FI25*($F$2+1)</f>
+        <v>6695.1337223639766</v>
       </c>
       <c r="FK25" s="24">
-        <f t="shared" ref="FK25" si="93">FJ25*($F$2+1)</f>
-        <v>5954.7561431407548</v>
+        <f t="shared" ref="FK25" si="108">FJ25*($F$2+1)</f>
+        <v>6628.1823851403369</v>
       </c>
       <c r="FL25" s="24">
-        <f t="shared" ref="FL25" si="94">FK25*($F$2+1)</f>
-        <v>5895.2085817093475</v>
+        <f t="shared" ref="FL25" si="109">FK25*($F$2+1)</f>
+        <v>6561.9005612889332</v>
       </c>
       <c r="FM25" s="24">
-        <f t="shared" ref="FM25" si="95">FL25*($F$2+1)</f>
-        <v>5836.256495892254</v>
+        <f t="shared" ref="FM25" si="110">FL25*($F$2+1)</f>
+        <v>6496.2815556760443</v>
       </c>
       <c r="FN25" s="24">
-        <f t="shared" ref="FN25" si="96">FM25*($F$2+1)</f>
-        <v>5777.8939309333309</v>
+        <f t="shared" ref="FN25" si="111">FM25*($F$2+1)</f>
+        <v>6431.3187401192836</v>
       </c>
       <c r="FO25" s="24">
-        <f t="shared" ref="FO25" si="97">FN25*($F$2+1)</f>
-        <v>5720.1149916239974</v>
+        <f t="shared" ref="FO25" si="112">FN25*($F$2+1)</f>
+        <v>6367.0055527180903</v>
       </c>
       <c r="FP25" s="24">
-        <f t="shared" ref="FP25" si="98">FO25*($F$2+1)</f>
-        <v>5662.9138417077575</v>
+        <f t="shared" ref="FP25" si="113">FO25*($F$2+1)</f>
+        <v>6303.3354971909093</v>
       </c>
       <c r="FQ25" s="24">
-        <f t="shared" ref="FQ25" si="99">FP25*($F$2+1)</f>
-        <v>5606.2847032906802</v>
+        <f t="shared" ref="FQ25" si="114">FP25*($F$2+1)</f>
+        <v>6240.3021422190004</v>
       </c>
       <c r="FR25" s="24">
-        <f t="shared" ref="FR25" si="100">FQ25*($F$2+1)</f>
-        <v>5550.2218562577737</v>
+        <f t="shared" ref="FR25" si="115">FQ25*($F$2+1)</f>
+        <v>6177.8991207968102</v>
       </c>
       <c r="FS25" s="24">
-        <f t="shared" ref="FS25" si="101">FR25*($F$2+1)</f>
-        <v>5494.7196376951961</v>
+        <f t="shared" ref="FS25" si="116">FR25*($F$2+1)</f>
+        <v>6116.1201295888422</v>
       </c>
       <c r="FT25" s="24">
-        <f t="shared" ref="FT25" si="102">FS25*($F$2+1)</f>
-        <v>5439.7724413182441</v>
+        <f t="shared" ref="FT25" si="117">FS25*($F$2+1)</f>
+        <v>6054.9589282929537</v>
       </c>
       <c r="FU25" s="24">
-        <f t="shared" ref="FU25" si="103">FT25*($F$2+1)</f>
-        <v>5385.3747169050612</v>
+        <f t="shared" ref="FU25" si="118">FT25*($F$2+1)</f>
+        <v>5994.4093390100243</v>
       </c>
       <c r="FV25" s="24">
-        <f t="shared" ref="FV25" si="104">FU25*($F$2+1)</f>
-        <v>5331.5209697360106</v>
+        <f t="shared" ref="FV25" si="119">FU25*($F$2+1)</f>
+        <v>5934.4652456199237</v>
       </c>
       <c r="FW25" s="24">
-        <f t="shared" ref="FW25" si="105">FV25*($F$2+1)</f>
-        <v>5278.2057600386506</v>
+        <f t="shared" ref="FW25" si="120">FV25*($F$2+1)</f>
+        <v>5875.1205931637242</v>
       </c>
       <c r="FX25" s="24">
-        <f t="shared" ref="FX25" si="106">FW25*($F$2+1)</f>
-        <v>5225.4237024382637</v>
+        <f t="shared" ref="FX25" si="121">FW25*($F$2+1)</f>
+        <v>5816.3693872320864</v>
       </c>
       <c r="FY25" s="24">
-        <f t="shared" ref="FY25" si="107">FX25*($F$2+1)</f>
-        <v>5173.169465413881</v>
+        <f t="shared" ref="FY25" si="122">FX25*($F$2+1)</f>
+        <v>5758.2056933597651</v>
       </c>
       <c r="FZ25" s="24">
-        <f t="shared" ref="FZ25" si="108">FY25*($F$2+1)</f>
-        <v>5121.4377707597423</v>
+        <f t="shared" ref="FZ25" si="123">FY25*($F$2+1)</f>
+        <v>5700.6236364261676</v>
       </c>
       <c r="GA25" s="24">
-        <f t="shared" ref="GA25" si="109">FZ25*($F$2+1)</f>
-        <v>5070.2233930521452</v>
+        <f t="shared" ref="GA25" si="124">FZ25*($F$2+1)</f>
+        <v>5643.6174000619058</v>
       </c>
       <c r="GB25" s="24">
-        <f t="shared" ref="GB25" si="110">GA25*($F$2+1)</f>
-        <v>5019.5211591216239</v>
+        <f t="shared" ref="GB25" si="125">GA25*($F$2+1)</f>
+        <v>5587.1812260612869</v>
       </c>
       <c r="GC25" s="24">
-        <f t="shared" ref="GC25" si="111">GB25*($F$2+1)</f>
-        <v>4969.3259475304076</v>
+        <f t="shared" ref="GC25" si="126">GB25*($F$2+1)</f>
+        <v>5531.3094138006736</v>
       </c>
       <c r="GD25" s="24">
-        <f t="shared" ref="GD25" si="112">GC25*($F$2+1)</f>
-        <v>4919.6326880551032</v>
+        <f t="shared" ref="GD25" si="127">GC25*($F$2+1)</f>
+        <v>5475.9963196626668</v>
       </c>
       <c r="GE25" s="24">
-        <f t="shared" ref="GE25" si="113">GD25*($F$2+1)</f>
-        <v>4870.4363611745521</v>
+        <f t="shared" ref="GE25" si="128">GD25*($F$2+1)</f>
+        <v>5421.23635646604</v>
       </c>
       <c r="GF25" s="24">
-        <f t="shared" ref="GF25" si="114">GE25*($F$2+1)</f>
-        <v>4821.7319975628061</v>
+        <f t="shared" ref="GF25" si="129">GE25*($F$2+1)</f>
+        <v>5367.0239929013796</v>
       </c>
       <c r="GG25" s="24">
-        <f t="shared" ref="GG25" si="115">GF25*($F$2+1)</f>
-        <v>4773.5146775871781</v>
+        <f t="shared" ref="GG25" si="130">GF25*($F$2+1)</f>
+        <v>5313.3537529723662</v>
       </c>
       <c r="GH25" s="24">
-        <f t="shared" ref="GH25" si="116">GG25*($F$2+1)</f>
-        <v>4725.7795308113064</v>
+        <f t="shared" ref="GH25" si="131">GG25*($F$2+1)</f>
+        <v>5260.2202154426423</v>
       </c>
       <c r="GI25" s="24">
-        <f t="shared" ref="GI25" si="117">GH25*($F$2+1)</f>
-        <v>4678.5217355031937</v>
+        <f t="shared" ref="GI25" si="132">GH25*($F$2+1)</f>
+        <v>5207.6180132882155</v>
       </c>
       <c r="GJ25" s="24">
-        <f t="shared" ref="GJ25" si="118">GI25*($F$2+1)</f>
-        <v>4631.7365181481618</v>
+        <f t="shared" ref="GJ25" si="133">GI25*($F$2+1)</f>
+        <v>5155.5418331553328</v>
       </c>
       <c r="GK25" s="24">
-        <f t="shared" ref="GK25" si="119">GJ25*($F$2+1)</f>
-        <v>4585.4191529666805</v>
+        <f t="shared" ref="GK25" si="134">GJ25*($F$2+1)</f>
+        <v>5103.9864148237793</v>
       </c>
       <c r="GL25" s="24">
-        <f t="shared" ref="GL25" si="120">GK25*($F$2+1)</f>
-        <v>4539.5649614370141</v>
+        <f t="shared" ref="GL25" si="135">GK25*($F$2+1)</f>
+        <v>5052.9465506755414</v>
       </c>
       <c r="GM25" s="24">
-        <f t="shared" ref="GM25" si="121">GL25*($F$2+1)</f>
-        <v>4494.169311822644</v>
+        <f t="shared" ref="GM25" si="136">GL25*($F$2+1)</f>
+        <v>5002.4170851687859</v>
       </c>
       <c r="GN25" s="24">
-        <f t="shared" ref="GN25" si="122">GM25*($F$2+1)</f>
-        <v>4449.2276187044172</v>
+        <f t="shared" ref="GN25" si="137">GM25*($F$2+1)</f>
+        <v>4952.3929143170981</v>
       </c>
       <c r="GO25" s="24">
-        <f t="shared" ref="GO25" si="123">GN25*($F$2+1)</f>
-        <v>4404.7353425173733</v>
+        <f t="shared" ref="GO25" si="138">GN25*($F$2+1)</f>
+        <v>4902.8689851739273</v>
       </c>
       <c r="GP25" s="24">
-        <f t="shared" ref="GP25" si="124">GO25*($F$2+1)</f>
-        <v>4360.6879890921991</v>
+        <f t="shared" ref="GP25" si="139">GO25*($F$2+1)</f>
+        <v>4853.8402953221876</v>
       </c>
       <c r="GQ25" s="24">
-        <f t="shared" ref="GQ25" si="125">GP25*($F$2+1)</f>
-        <v>4317.0811092012773</v>
+        <f t="shared" ref="GQ25" si="140">GP25*($F$2+1)</f>
+        <v>4805.301892368966</v>
       </c>
       <c r="GR25" s="24">
-        <f t="shared" ref="GR25" si="126">GQ25*($F$2+1)</f>
-        <v>4273.9102981092647</v>
+        <f t="shared" ref="GR25" si="141">GQ25*($F$2+1)</f>
+        <v>4757.2488734452763</v>
       </c>
     </row>
     <row r="26" spans="1:200" x14ac:dyDescent="0.15">
@@ -4677,86 +4741,89 @@
         <v>16</v>
       </c>
       <c r="B26" s="29">
-        <f t="shared" ref="B26:G26" si="127">B25/B27</f>
+        <f t="shared" ref="B26:G26" si="142">B25/B27</f>
         <v>1.244142431404792</v>
       </c>
       <c r="C26" s="29">
-        <f t="shared" si="127"/>
+        <f t="shared" si="142"/>
         <v>2.3320789503088735</v>
       </c>
       <c r="D26" s="29">
-        <f t="shared" si="127"/>
+        <f t="shared" si="142"/>
         <v>3.3875014998200221</v>
       </c>
       <c r="E26" s="29">
-        <f t="shared" si="127"/>
+        <f t="shared" si="142"/>
         <v>5.2318998037109159</v>
       </c>
       <c r="F26" s="29">
-        <f t="shared" si="127"/>
+        <f t="shared" si="142"/>
         <v>6.0375410912527556</v>
       </c>
-      <c r="G26" s="50">
-        <f t="shared" si="127"/>
-        <v>7.2133207721381005</v>
-      </c>
-      <c r="H26" s="50">
-        <f t="shared" ref="H26" si="128">H25/H27</f>
-        <v>8.8497301603146425</v>
-      </c>
-      <c r="I26" s="50">
-        <f t="shared" ref="I26:P26" si="129">I25/I27</f>
-        <v>10.898699526206059</v>
-      </c>
-      <c r="J26" s="50">
-        <f t="shared" si="129"/>
-        <v>13.455292665510834</v>
-      </c>
-      <c r="K26" s="50">
-        <f t="shared" si="129"/>
-        <v>16.635729924199012</v>
-      </c>
-      <c r="L26" s="50">
-        <f t="shared" si="129"/>
-        <v>19.404589974363528</v>
-      </c>
-      <c r="M26" s="50">
-        <f t="shared" si="129"/>
-        <v>22.514168052947827</v>
-      </c>
-      <c r="N26" s="50">
-        <f t="shared" si="129"/>
-        <v>26.001881782033358</v>
-      </c>
-      <c r="O26" s="50">
-        <f t="shared" si="129"/>
-        <v>29.909060612796907</v>
-      </c>
-      <c r="P26" s="50">
-        <f t="shared" si="129"/>
-        <v>34.281345561731186</v>
-      </c>
-      <c r="Q26" s="50">
-        <f t="shared" ref="Q26:U26" si="130">Q25/Q27</f>
-        <v>37.697792679375667</v>
-      </c>
-      <c r="R26" s="50">
-        <f t="shared" si="130"/>
-        <v>41.256675239745675</v>
-      </c>
-      <c r="S26" s="50">
-        <f t="shared" si="130"/>
-        <v>44.963021915301887</v>
-      </c>
-      <c r="T26" s="50">
-        <f t="shared" si="130"/>
-        <v>48.821885760619132</v>
-      </c>
-      <c r="U26" s="50">
-        <f t="shared" si="130"/>
-        <v>52.838327450605576</v>
-      </c>
-      <c r="V26" s="39"/>
+      <c r="G26" s="29">
+        <f t="shared" si="142"/>
+        <v>8.4201037450425051</v>
+      </c>
+      <c r="H26" s="48">
+        <f t="shared" ref="H26" si="143">H25/H27</f>
+        <v>9.382001092787025</v>
+      </c>
+      <c r="I26" s="48">
+        <f t="shared" ref="I26:P26" si="144">I25/I27</f>
+        <v>11.259363995881893</v>
+      </c>
+      <c r="J26" s="48">
+        <f t="shared" si="144"/>
+        <v>13.488298339387139</v>
+      </c>
+      <c r="K26" s="48">
+        <f t="shared" si="144"/>
+        <v>16.124954797458926</v>
+      </c>
+      <c r="L26" s="48">
+        <f t="shared" si="144"/>
+        <v>19.234535127764072</v>
+      </c>
+      <c r="M26" s="48">
+        <f t="shared" si="144"/>
+        <v>22.078574854462254</v>
+      </c>
+      <c r="N26" s="48">
+        <f t="shared" si="144"/>
+        <v>25.257178907427043</v>
+      </c>
+      <c r="O26" s="48">
+        <f t="shared" si="144"/>
+        <v>28.806386095737128</v>
+      </c>
+      <c r="P26" s="48">
+        <f t="shared" si="144"/>
+        <v>32.765969566659621</v>
+      </c>
+      <c r="Q26" s="48">
+        <f t="shared" ref="Q26:U26" si="145">Q25/Q27</f>
+        <v>37.179816786425064</v>
+      </c>
+      <c r="R26" s="48">
+        <f t="shared" si="145"/>
+        <v>41.156121067209206</v>
+      </c>
+      <c r="S26" s="48">
+        <f t="shared" si="145"/>
+        <v>45.295933827491034</v>
+      </c>
+      <c r="T26" s="48">
+        <f t="shared" si="145"/>
+        <v>49.610322135531753</v>
+      </c>
+      <c r="U26" s="48">
+        <f t="shared" si="145"/>
+        <v>54.110784979393777</v>
+      </c>
+      <c r="V26" s="48">
+        <f t="shared" ref="V26" si="146">V25/V27</f>
+        <v>58.809281293784736</v>
+      </c>
       <c r="W26" s="39"/>
       <c r="X26" s="39"/>
       <c r="Y26" s="39"/>
@@ -4878,66 +4945,69 @@
         <v>488.851</v>
       </c>
       <c r="G27" s="23">
-        <f t="shared" ref="G27" si="131">F27</f>
-        <v>488.851</v>
+        <f>Reports!Y21</f>
+        <v>484</v>
       </c>
       <c r="H27" s="23">
-        <f t="shared" ref="H27" si="132">G27</f>
-        <v>488.851</v>
+        <f t="shared" ref="H27" si="147">G27</f>
+        <v>484</v>
       </c>
       <c r="I27" s="23">
-        <f t="shared" ref="I27" si="133">H27</f>
-        <v>488.851</v>
+        <f t="shared" ref="I27" si="148">H27</f>
+        <v>484</v>
       </c>
       <c r="J27" s="23">
-        <f t="shared" ref="J27" si="134">I27</f>
-        <v>488.851</v>
+        <f t="shared" ref="J27" si="149">I27</f>
+        <v>484</v>
       </c>
       <c r="K27" s="23">
-        <f t="shared" ref="K27" si="135">J27</f>
-        <v>488.851</v>
+        <f t="shared" ref="K27" si="150">J27</f>
+        <v>484</v>
       </c>
       <c r="L27" s="23">
-        <f t="shared" ref="L27" si="136">K27</f>
-        <v>488.851</v>
+        <f t="shared" ref="L27" si="151">K27</f>
+        <v>484</v>
       </c>
       <c r="M27" s="23">
-        <f t="shared" ref="M27" si="137">L27</f>
-        <v>488.851</v>
+        <f t="shared" ref="M27" si="152">L27</f>
+        <v>484</v>
       </c>
       <c r="N27" s="23">
-        <f t="shared" ref="N27" si="138">M27</f>
-        <v>488.851</v>
+        <f t="shared" ref="N27" si="153">M27</f>
+        <v>484</v>
       </c>
       <c r="O27" s="23">
-        <f t="shared" ref="O27" si="139">N27</f>
-        <v>488.851</v>
+        <f t="shared" ref="O27" si="154">N27</f>
+        <v>484</v>
       </c>
       <c r="P27" s="23">
-        <f t="shared" ref="P27:U27" si="140">O27</f>
-        <v>488.851</v>
+        <f t="shared" ref="P27:V27" si="155">O27</f>
+        <v>484</v>
       </c>
       <c r="Q27" s="23">
-        <f t="shared" si="140"/>
-        <v>488.851</v>
+        <f t="shared" si="155"/>
+        <v>484</v>
       </c>
       <c r="R27" s="23">
-        <f t="shared" si="140"/>
-        <v>488.851</v>
+        <f t="shared" si="155"/>
+        <v>484</v>
       </c>
       <c r="S27" s="23">
-        <f t="shared" si="140"/>
-        <v>488.851</v>
+        <f t="shared" si="155"/>
+        <v>484</v>
       </c>
       <c r="T27" s="23">
-        <f t="shared" si="140"/>
-        <v>488.851</v>
+        <f t="shared" si="155"/>
+        <v>484</v>
       </c>
       <c r="U27" s="23">
-        <f t="shared" si="140"/>
-        <v>488.851</v>
-      </c>
-      <c r="V27" s="38"/>
+        <f t="shared" si="155"/>
+        <v>484</v>
+      </c>
+      <c r="V27" s="23">
+        <f t="shared" si="155"/>
+        <v>484</v>
+      </c>
       <c r="W27" s="38"/>
       <c r="X27" s="38"/>
       <c r="Y27" s="38"/>
@@ -5055,7 +5125,7 @@
       <c r="S28" s="20"/>
       <c r="T28" s="20"/>
       <c r="U28" s="20"/>
-      <c r="V28" s="39"/>
+      <c r="V28" s="20"/>
       <c r="W28" s="39"/>
       <c r="X28" s="39"/>
       <c r="Y28" s="39"/>
@@ -5157,15 +5227,15 @@
         <v>19</v>
       </c>
       <c r="B29" s="34">
-        <f t="shared" ref="B29:P29" si="141">IFERROR(B16/B14,0)</f>
+        <f t="shared" ref="B29:P29" si="156">IFERROR(B16/B14,0)</f>
         <v>0.84478880352896701</v>
       </c>
       <c r="C29" s="34">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>0.8599508406454599</v>
       </c>
       <c r="D29" s="34">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>0.86160510744017849</v>
       </c>
       <c r="E29" s="34">
@@ -5173,70 +5243,73 @@
         <v>0.8676635723910765</v>
       </c>
       <c r="F29" s="34">
-        <f t="shared" si="141"/>
+        <f t="shared" si="156"/>
         <v>0.8502662537990221</v>
       </c>
       <c r="G29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.8502662537990221</v>
+        <f t="shared" si="156"/>
+        <v>0.86617967050046629</v>
       </c>
       <c r="H29" s="34">
         <f>IFERROR(H16/H14,0)</f>
-        <v>0.8502662537990221</v>
+        <v>0.86617967050046629</v>
       </c>
       <c r="I29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.8502662537990221</v>
+        <f t="shared" si="156"/>
+        <v>0.86617967050046629</v>
       </c>
       <c r="J29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="156"/>
+        <v>0.8661796705004664</v>
       </c>
       <c r="K29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="156"/>
+        <v>0.8661796705004664</v>
       </c>
       <c r="L29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="156"/>
+        <v>0.8661796705004664</v>
       </c>
       <c r="M29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="156"/>
+        <v>0.8661796705004664</v>
       </c>
       <c r="N29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="156"/>
+        <v>0.8661796705004664</v>
       </c>
       <c r="O29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="156"/>
+        <v>0.8661796705004664</v>
       </c>
       <c r="P29" s="34">
-        <f t="shared" si="141"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="156"/>
+        <v>0.8661796705004664</v>
       </c>
       <c r="Q29" s="34">
-        <f t="shared" ref="Q29:U29" si="142">IFERROR(Q16/Q14,0)</f>
-        <v>0.85026625379902221</v>
+        <f t="shared" ref="Q29:U29" si="157">IFERROR(Q16/Q14,0)</f>
+        <v>0.8661796705004664</v>
       </c>
       <c r="R29" s="34">
-        <f t="shared" si="142"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="157"/>
+        <v>0.8661796705004664</v>
       </c>
       <c r="S29" s="34">
-        <f t="shared" si="142"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="157"/>
+        <v>0.86617967050046651</v>
       </c>
       <c r="T29" s="34">
-        <f t="shared" si="142"/>
-        <v>0.85026625379902221</v>
+        <f t="shared" si="157"/>
+        <v>0.86617967050046651</v>
       </c>
       <c r="U29" s="34">
-        <f t="shared" si="142"/>
-        <v>0.85026625379902221</v>
-      </c>
-      <c r="V29" s="39"/>
+        <f t="shared" si="157"/>
+        <v>0.8661796705004664</v>
+      </c>
+      <c r="V29" s="34">
+        <f t="shared" ref="V29" si="158">IFERROR(V16/V14,0)</f>
+        <v>0.8661796705004664</v>
+      </c>
       <c r="W29" s="39"/>
       <c r="X29" s="39"/>
       <c r="Y29" s="39"/>
@@ -5338,15 +5411,15 @@
         <v>20</v>
       </c>
       <c r="B30" s="36">
-        <f t="shared" ref="B30:P30" si="143">IFERROR(B21/B14,0)</f>
+        <f t="shared" ref="B30:P30" si="159">IFERROR(B21/B14,0)</f>
         <v>0.18832091095193013</v>
       </c>
       <c r="C30" s="36">
-        <f t="shared" si="143"/>
+        <f t="shared" si="159"/>
         <v>0.25512338519719252</v>
       </c>
       <c r="D30" s="36">
-        <f t="shared" si="143"/>
+        <f t="shared" si="159"/>
         <v>0.29693809700876739</v>
       </c>
       <c r="E30" s="36">
@@ -5354,70 +5427,73 @@
         <v>0.3145477833463714</v>
       </c>
       <c r="F30" s="36">
-        <f t="shared" si="143"/>
+        <f t="shared" si="159"/>
         <v>0.29254618264523657</v>
       </c>
       <c r="G30" s="36">
         <f>IFERROR(G21/G14,0)</f>
-        <v>0.29792789307737733</v>
+        <v>0.32926639726453216</v>
       </c>
       <c r="H30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.30498915895807038</v>
+        <f t="shared" si="159"/>
+        <v>0.34261595079533341</v>
       </c>
       <c r="I30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.313369173514425</v>
+        <f t="shared" si="159"/>
+        <v>0.35622106882034144</v>
       </c>
       <c r="J30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.32275672465840038</v>
+        <f t="shared" si="159"/>
+        <v>0.36985954341644195</v>
       </c>
       <c r="K30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.33288899788362925</v>
+        <f t="shared" si="159"/>
+        <v>0.38336371955470672</v>
       </c>
       <c r="L30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.34960694591836045</v>
+        <f t="shared" si="159"/>
+        <v>0.39661019626036825</v>
       </c>
       <c r="M30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.3655649872242403</v>
+        <f t="shared" si="159"/>
+        <v>0.40987505429503318</v>
       </c>
       <c r="N30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.38079766301621654</v>
+        <f t="shared" si="159"/>
+        <v>0.42253696423721349</v>
       </c>
       <c r="O30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.39533794445401194</v>
+        <f t="shared" si="159"/>
+        <v>0.43462333281838539</v>
       </c>
       <c r="P30" s="36">
-        <f t="shared" si="143"/>
-        <v>0.40921730400827122</v>
+        <f t="shared" si="159"/>
+        <v>0.44616032100950415</v>
       </c>
       <c r="Q30" s="36">
-        <f t="shared" ref="Q30:U30" si="144">IFERROR(Q21/Q14,0)</f>
-        <v>0.42437462455133979</v>
+        <f t="shared" ref="Q30:U30" si="160">IFERROR(Q21/Q14,0)</f>
+        <v>0.45717290064648108</v>
       </c>
       <c r="R30" s="36">
-        <f t="shared" si="144"/>
-        <v>0.43811443012173762</v>
+        <f t="shared" si="160"/>
+        <v>0.47787921124608901</v>
       </c>
       <c r="S30" s="36">
-        <f t="shared" si="144"/>
-        <v>0.450519592376601</v>
+        <f t="shared" si="160"/>
+        <v>0.49670141550973834</v>
       </c>
       <c r="T30" s="36">
-        <f t="shared" si="144"/>
-        <v>0.46166712592903669</v>
+        <f t="shared" si="160"/>
+        <v>0.51381309058642788</v>
       </c>
       <c r="U30" s="36">
-        <f t="shared" si="144"/>
-        <v>0.47162856932438435</v>
-      </c>
-      <c r="V30" s="39"/>
+        <f t="shared" si="160"/>
+        <v>0.52937167323808676</v>
+      </c>
+      <c r="V30" s="36">
+        <f t="shared" ref="V30" si="161">IFERROR(V21/V14,0)</f>
+        <v>0.54351997096796323</v>
+      </c>
       <c r="W30" s="39"/>
       <c r="X30" s="39"/>
       <c r="Y30" s="39"/>
@@ -5519,15 +5595,15 @@
         <v>21</v>
       </c>
       <c r="B31" s="36">
-        <f t="shared" ref="B31:P31" si="145">IFERROR(B24/B23,0)</f>
+        <f t="shared" ref="B31:P31" si="162">IFERROR(B24/B23,0)</f>
         <v>0.2795093965192646</v>
       </c>
       <c r="C31" s="36">
-        <f t="shared" si="145"/>
+        <f t="shared" si="162"/>
         <v>0.18559608901722344</v>
       </c>
       <c r="D31" s="36">
-        <f t="shared" si="145"/>
+        <f t="shared" si="162"/>
         <v>0.20755917387437833</v>
       </c>
       <c r="E31" s="36">
@@ -5535,70 +5611,73 @@
         <v>7.2695423848445656E-2</v>
       </c>
       <c r="F31" s="36">
-        <f t="shared" si="145"/>
+        <f t="shared" si="162"/>
         <v>7.903384392061634E-2</v>
       </c>
       <c r="G31" s="36">
-        <f t="shared" si="145"/>
+        <f t="shared" si="162"/>
+        <v>2.410674985618478E-2</v>
+      </c>
+      <c r="H31" s="36">
+        <f t="shared" si="162"/>
         <v>0.1</v>
       </c>
-      <c r="H31" s="36">
-        <f t="shared" si="145"/>
+      <c r="I31" s="36">
+        <f t="shared" si="162"/>
         <v>0.1</v>
       </c>
-      <c r="I31" s="36">
-        <f t="shared" si="145"/>
+      <c r="J31" s="36">
+        <f t="shared" si="162"/>
         <v>0.1</v>
       </c>
-      <c r="J31" s="36">
-        <f t="shared" si="145"/>
+      <c r="K31" s="36">
+        <f t="shared" si="162"/>
         <v>0.1</v>
       </c>
-      <c r="K31" s="36">
-        <f t="shared" si="145"/>
+      <c r="L31" s="36">
+        <f t="shared" si="162"/>
+        <v>0.10000000000000002</v>
+      </c>
+      <c r="M31" s="36">
+        <f t="shared" si="162"/>
         <v>0.1</v>
       </c>
-      <c r="L31" s="36">
-        <f t="shared" si="145"/>
+      <c r="N31" s="36">
+        <f t="shared" si="162"/>
         <v>0.1</v>
       </c>
-      <c r="M31" s="36">
-        <f t="shared" si="145"/>
+      <c r="O31" s="36">
+        <f t="shared" si="162"/>
+        <v>0.1</v>
+      </c>
+      <c r="P31" s="36">
+        <f t="shared" si="162"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q31" s="36">
+        <f t="shared" ref="Q31:U31" si="163">IFERROR(Q24/Q23,0)</f>
+        <v>0.1</v>
+      </c>
+      <c r="R31" s="36">
+        <f t="shared" si="163"/>
         <v>9.9999999999999992E-2</v>
       </c>
-      <c r="N31" s="36">
-        <f t="shared" si="145"/>
+      <c r="S31" s="36">
+        <f t="shared" si="163"/>
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="T31" s="36">
+        <f t="shared" si="163"/>
         <v>0.1</v>
       </c>
-      <c r="O31" s="36">
-        <f t="shared" si="145"/>
+      <c r="U31" s="36">
+        <f t="shared" si="163"/>
         <v>0.1</v>
       </c>
-      <c r="P31" s="36">
-        <f t="shared" si="145"/>
+      <c r="V31" s="36">
+        <f t="shared" ref="V31" si="164">IFERROR(V24/V23,0)</f>
         <v>0.1</v>
       </c>
-      <c r="Q31" s="36">
-        <f t="shared" ref="Q31:U31" si="146">IFERROR(Q24/Q23,0)</f>
-        <v>0.1</v>
-      </c>
-      <c r="R31" s="36">
-        <f t="shared" si="146"/>
-        <v>0.1</v>
-      </c>
-      <c r="S31" s="36">
-        <f t="shared" si="146"/>
-        <v>0.1</v>
-      </c>
-      <c r="T31" s="36">
-        <f t="shared" si="146"/>
-        <v>0.1</v>
-      </c>
-      <c r="U31" s="36">
-        <f t="shared" si="146"/>
-        <v>0.1</v>
-      </c>
-      <c r="V31" s="39"/>
       <c r="W31" s="39"/>
       <c r="X31" s="39"/>
       <c r="Y31" s="39"/>
@@ -5716,7 +5795,7 @@
       <c r="S32" s="36"/>
       <c r="T32" s="36"/>
       <c r="U32" s="36"/>
-      <c r="V32" s="39"/>
+      <c r="V32" s="36"/>
       <c r="W32" s="39"/>
       <c r="X32" s="39"/>
       <c r="Y32" s="39"/>
@@ -5818,83 +5897,86 @@
         <v>18</v>
       </c>
       <c r="B33" s="26"/>
-      <c r="C33" s="51">
-        <f t="shared" ref="C33:U33" si="147">C14/B14-1</f>
+      <c r="C33" s="49">
+        <f t="shared" ref="C33:V33" si="165">C14/B14-1</f>
         <v>0.22081463268460833</v>
       </c>
-      <c r="D33" s="51">
-        <f t="shared" si="147"/>
+      <c r="D33" s="49">
+        <f t="shared" si="165"/>
         <v>0.24717607008709641</v>
       </c>
-      <c r="E33" s="51">
-        <f t="shared" si="147"/>
+      <c r="E33" s="49">
+        <f t="shared" si="165"/>
         <v>0.23673242708181386</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F33" s="49">
         <f>F14/E14-1</f>
         <v>0.23713024395991678</v>
       </c>
-      <c r="G33" s="51">
-        <f t="shared" si="147"/>
-        <v>0.17697895391904384</v>
-      </c>
-      <c r="H33" s="51">
-        <f t="shared" si="147"/>
-        <v>0.18091155541175152</v>
-      </c>
-      <c r="I33" s="51">
-        <f t="shared" si="147"/>
-        <v>0.18420614906651456</v>
-      </c>
-      <c r="J33" s="51">
-        <f t="shared" si="147"/>
-        <v>0.18695259750453475</v>
-      </c>
-      <c r="K33" s="51">
-        <f t="shared" si="147"/>
-        <v>0.18923313920405627</v>
-      </c>
-      <c r="L33" s="51">
-        <f t="shared" si="147"/>
+      <c r="G33" s="49">
+        <f t="shared" si="165"/>
+        <v>0.15188067704946673</v>
+      </c>
+      <c r="H33" s="49">
+        <f t="shared" si="165"/>
+        <v>0.13589912962387296</v>
+      </c>
+      <c r="I33" s="49">
+        <f t="shared" si="165"/>
+        <v>0.13826620144697022</v>
+      </c>
+      <c r="J33" s="49">
+        <f t="shared" si="165"/>
+        <v>0.1402045513659369</v>
+      </c>
+      <c r="K33" s="49">
+        <f t="shared" si="165"/>
+        <v>0.1417912906466483</v>
+      </c>
+      <c r="L33" s="49">
+        <f t="shared" si="165"/>
+        <v>0.14309109410925469</v>
+      </c>
+      <c r="M33" s="49">
+        <f t="shared" si="165"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M33" s="51">
-        <f t="shared" si="147"/>
+      <c r="N33" s="49">
+        <f t="shared" si="165"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N33" s="51">
-        <f t="shared" si="147"/>
+      <c r="O33" s="49">
+        <f t="shared" si="165"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O33" s="51">
-        <f t="shared" si="147"/>
+      <c r="P33" s="49">
+        <f t="shared" si="165"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P33" s="51">
-        <f t="shared" si="147"/>
+      <c r="Q33" s="49">
+        <f t="shared" si="165"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q33" s="51">
-        <f t="shared" si="147"/>
+      <c r="R33" s="49">
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="R33" s="51">
-        <f t="shared" si="147"/>
+      <c r="S33" s="49">
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="S33" s="51">
-        <f t="shared" si="147"/>
+      <c r="T33" s="49">
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="T33" s="51">
-        <f t="shared" si="147"/>
+      <c r="U33" s="49">
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="U33" s="51">
-        <f t="shared" si="147"/>
+      <c r="V33" s="49">
+        <f t="shared" si="165"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="V33" s="39"/>
       <c r="W33" s="39"/>
       <c r="X33" s="39"/>
       <c r="Y33" s="39"/>
@@ -5997,82 +6079,85 @@
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="36">
-        <f t="shared" ref="C34:U34" si="148">C17/B17-1</f>
+        <f t="shared" ref="C34:V34" si="166">C17/B17-1</f>
         <v>0.13127745644639677</v>
       </c>
       <c r="D34" s="36">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>0.25417551668208738</v>
       </c>
       <c r="E34" s="36">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>0.25632179494615825</v>
       </c>
       <c r="F34" s="36">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>0.25517813620910768</v>
       </c>
       <c r="G34" s="36">
-        <f t="shared" si="148"/>
-        <v>0.15000000000000013</v>
+        <f t="shared" si="166"/>
+        <v>0.13354484547939416</v>
       </c>
       <c r="H34" s="36">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="I34" s="36">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="J34" s="36">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="K34" s="36">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="L34" s="36">
-        <f t="shared" si="148"/>
+        <f t="shared" si="166"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="M34" s="36">
+        <f t="shared" si="166"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="M34" s="36">
-        <f t="shared" si="148"/>
+      <c r="N34" s="36">
+        <f t="shared" si="166"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="N34" s="36">
-        <f t="shared" si="148"/>
+      <c r="O34" s="36">
+        <f t="shared" si="166"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O34" s="36">
-        <f t="shared" si="148"/>
+      <c r="P34" s="36">
+        <f t="shared" si="166"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="P34" s="36">
-        <f t="shared" si="148"/>
+      <c r="Q34" s="36">
+        <f t="shared" si="166"/>
         <v>0.10000000000000009</v>
       </c>
-      <c r="Q34" s="36">
-        <f t="shared" si="148"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
       <c r="R34" s="36">
-        <f t="shared" si="148"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="S34" s="36">
-        <f t="shared" si="148"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="T34" s="36">
-        <f t="shared" si="148"/>
-        <v>8.0000000000000071E-2</v>
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="U34" s="36">
-        <f t="shared" si="148"/>
-        <v>8.0000000000000071E-2</v>
-      </c>
-      <c r="V34" s="39"/>
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="V34" s="36">
+        <f t="shared" si="166"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
       <c r="W34" s="39"/>
       <c r="X34" s="39"/>
       <c r="Y34" s="39"/>
@@ -6175,82 +6260,85 @@
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="36">
-        <f t="shared" ref="C35:U35" si="149">C18/B18-1</f>
+        <f t="shared" ref="C35:V35" si="167">C18/B18-1</f>
         <v>0.13483206811617121</v>
       </c>
       <c r="D35" s="36">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>0.15045306845314887</v>
       </c>
       <c r="E35" s="36">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>0.19259125442757341</v>
       </c>
       <c r="F35" s="36">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
         <v>0.23790869224966604</v>
       </c>
       <c r="G35" s="36">
-        <f t="shared" si="149"/>
-        <v>0.17999999999999994</v>
+        <f t="shared" si="167"/>
+        <v>0.10684831184827037</v>
       </c>
       <c r="H35" s="36">
-        <f t="shared" si="149"/>
-        <v>0.17999999999999994</v>
+        <f t="shared" si="167"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="I35" s="36">
-        <f t="shared" si="149"/>
-        <v>0.17999999999999994</v>
+        <f t="shared" si="167"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="J35" s="36">
-        <f t="shared" si="149"/>
-        <v>0.17999999999999994</v>
+        <f t="shared" si="167"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="K35" s="36">
-        <f t="shared" si="149"/>
-        <v>0.17999999999999994</v>
+        <f t="shared" si="167"/>
+        <v>0.10000000000000009</v>
       </c>
       <c r="L35" s="36">
-        <f t="shared" si="149"/>
+        <f t="shared" si="167"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="M35" s="36">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="M35" s="36">
-        <f t="shared" si="149"/>
+      <c r="N35" s="36">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="N35" s="36">
-        <f t="shared" si="149"/>
+      <c r="O35" s="36">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="O35" s="36">
-        <f t="shared" si="149"/>
+      <c r="P35" s="36">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="P35" s="36">
-        <f t="shared" si="149"/>
+      <c r="Q35" s="36">
+        <f t="shared" si="167"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="Q35" s="36">
-        <f t="shared" si="149"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
       <c r="R35" s="36">
-        <f t="shared" si="149"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="167"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="S35" s="36">
-        <f t="shared" si="149"/>
-        <v>-2.0000000000000129E-2</v>
+        <f t="shared" si="167"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="T35" s="36">
-        <f t="shared" si="149"/>
-        <v>-2.0000000000000018E-2</v>
+        <f t="shared" si="167"/>
+        <v>-5.0000000000000044E-2</v>
       </c>
       <c r="U35" s="36">
-        <f t="shared" si="149"/>
-        <v>-2.0000000000000018E-2</v>
-      </c>
-      <c r="V35" s="39"/>
+        <f t="shared" si="167"/>
+        <v>-4.9999999999999933E-2</v>
+      </c>
+      <c r="V35" s="36">
+        <f t="shared" si="167"/>
+        <v>-5.0000000000000044E-2</v>
+      </c>
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
@@ -6353,7 +6441,7 @@
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="36">
-        <f t="shared" ref="C36:U36" si="150">C19/B19-1</f>
+        <f t="shared" ref="C36:V36" si="168">C19/B19-1</f>
         <v>8.7371933163602034E-2</v>
       </c>
       <c r="D36" s="36">
@@ -6361,74 +6449,77 @@
         <v>7.1069866327801989E-2</v>
       </c>
       <c r="E36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>0.19212483672433378</v>
       </c>
       <c r="F36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>0.26301706102519273</v>
       </c>
       <c r="G36" s="36">
-        <f t="shared" si="150"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="168"/>
+        <v>7.0196357354664007E-2</v>
       </c>
       <c r="H36" s="36">
-        <f t="shared" si="150"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="I36" s="36">
-        <f t="shared" si="150"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="J36" s="36">
-        <f t="shared" si="150"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="K36" s="36">
-        <f t="shared" si="150"/>
-        <v>0.14999999999999991</v>
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="L36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="M36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="N36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="O36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="P36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="Q36" s="36">
-        <f t="shared" si="150"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="168"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="R36" s="36">
-        <f t="shared" si="150"/>
-        <v>-1.9999999999999907E-2</v>
+        <f t="shared" si="168"/>
+        <v>-2.0000000000000018E-2</v>
       </c>
       <c r="S36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="T36" s="36">
-        <f t="shared" si="150"/>
+        <f t="shared" si="168"/>
         <v>-2.0000000000000018E-2</v>
       </c>
       <c r="U36" s="36">
-        <f t="shared" si="150"/>
-        <v>-1.9999999999999907E-2</v>
-      </c>
-      <c r="V36" s="39"/>
+        <f t="shared" si="168"/>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="V36" s="36">
+        <f t="shared" si="168"/>
+        <v>-2.0000000000000129E-2</v>
+      </c>
       <c r="W36" s="39"/>
       <c r="X36" s="39"/>
       <c r="Y36" s="39"/>
@@ -6543,70 +6634,73 @@
         <v>0.21143296775900744</v>
       </c>
       <c r="F37" s="45">
-        <f t="shared" ref="F37:U37" si="151">F20/E20-1</f>
+        <f t="shared" ref="F37:V37" si="169">F20/E20-1</f>
         <v>0.24742844329120839</v>
       </c>
       <c r="G37" s="45">
-        <f t="shared" si="151"/>
-        <v>0.1656217153287014</v>
+        <f t="shared" si="169"/>
+        <v>0.1089075984165524</v>
       </c>
       <c r="H37" s="45">
-        <f t="shared" si="151"/>
-        <v>0.16581441375486849</v>
+        <f t="shared" si="169"/>
+        <v>0.10765667969315396</v>
       </c>
       <c r="I37" s="45">
-        <f t="shared" si="151"/>
-        <v>0.16600684295079282</v>
+        <f t="shared" si="169"/>
+        <v>0.10868766987246503</v>
       </c>
       <c r="J37" s="45">
-        <f t="shared" si="151"/>
-        <v>0.16619893982280209</v>
+        <f t="shared" si="169"/>
+        <v>0.10971060390249798</v>
       </c>
       <c r="K37" s="45">
-        <f t="shared" si="151"/>
-        <v>0.16639064171487838</v>
+        <f t="shared" si="169"/>
+        <v>0.1107247473802726</v>
       </c>
       <c r="L37" s="45">
         <f>L20/K20-1</f>
-        <v>6.4455834445858118E-2</v>
+        <v>0.11172939298710505</v>
       </c>
       <c r="M37" s="45">
-        <f t="shared" si="151"/>
-        <v>6.4938541718569498E-2</v>
+        <f t="shared" si="169"/>
+        <v>6.8926123526780403E-2</v>
       </c>
       <c r="N37" s="45">
-        <f t="shared" si="151"/>
-        <v>6.5430370154420325E-2</v>
+        <f t="shared" si="169"/>
+        <v>6.9476309373719625E-2</v>
       </c>
       <c r="O37" s="45">
-        <f t="shared" si="151"/>
-        <v>6.5931033735599831E-2</v>
+        <f t="shared" si="169"/>
+        <v>7.0032178481482799E-2</v>
       </c>
       <c r="P37" s="45">
-        <f t="shared" si="151"/>
-        <v>6.6440216631788562E-2</v>
+        <f t="shared" si="169"/>
+        <v>7.0593209038724458E-2</v>
       </c>
       <c r="Q37" s="45">
-        <f t="shared" si="151"/>
-        <v>1.391514688387141E-2</v>
+        <f t="shared" si="169"/>
+        <v>7.1158858239850353E-2</v>
       </c>
       <c r="R37" s="45">
-        <f t="shared" si="151"/>
-        <v>1.6125664703948273E-2</v>
+        <f t="shared" si="169"/>
+        <v>-3.157130228797933E-3</v>
       </c>
       <c r="S37" s="45">
-        <f t="shared" si="151"/>
-        <v>1.8396548021087034E-2</v>
+        <f t="shared" si="169"/>
+        <v>-8.9696395101257487E-4</v>
       </c>
       <c r="T37" s="45">
-        <f t="shared" si="151"/>
-        <v>2.07191795213304E-2</v>
+        <f t="shared" si="169"/>
+        <v>1.371268571746187E-3</v>
       </c>
       <c r="U37" s="45">
-        <f t="shared" si="151"/>
-        <v>2.308404776293127E-2</v>
-      </c>
-      <c r="V37" s="39"/>
+        <f t="shared" si="169"/>
+        <v>3.6377377553022949E-3</v>
+      </c>
+      <c r="V37" s="45">
+        <f t="shared" si="169"/>
+        <v>5.8926369411667068E-3</v>
+      </c>
       <c r="W37" s="39"/>
       <c r="X37" s="39"/>
       <c r="Y37" s="39"/>
@@ -6724,7 +6818,7 @@
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
       <c r="U38" s="45"/>
-      <c r="V38" s="39"/>
+      <c r="V38" s="45"/>
       <c r="W38" s="39"/>
       <c r="X38" s="39"/>
       <c r="Y38" s="39"/>
@@ -6845,67 +6939,70 @@
         <f>F40-F41</f>
         <v>38.709000000000742</v>
       </c>
-      <c r="G39" s="52">
-        <f>F39+G25</f>
-        <v>3564.9480727804835</v>
-      </c>
-      <c r="H39" s="52">
+      <c r="G39" s="24">
+        <f>G40-G41</f>
+        <v>1875</v>
+      </c>
+      <c r="H39" s="50">
         <f>G39+H25</f>
-        <v>7891.1475113804572</v>
-      </c>
-      <c r="I39" s="52">
-        <f t="shared" ref="I39:U39" si="152">H39+I25</f>
-        <v>13218.987673465816</v>
-      </c>
-      <c r="J39" s="52">
-        <f t="shared" si="152"/>
-        <v>19796.62094829345</v>
-      </c>
-      <c r="K39" s="52">
-        <f t="shared" si="152"/>
-        <v>27929.01415746806</v>
-      </c>
-      <c r="L39" s="52">
-        <f t="shared" si="152"/>
-        <v>37414.967371025647</v>
-      </c>
-      <c r="M39" s="52">
-        <f t="shared" si="152"/>
-        <v>48421.040937877246</v>
-      </c>
-      <c r="N39" s="52">
-        <f t="shared" si="152"/>
-        <v>61132.086848906038</v>
-      </c>
-      <c r="O39" s="52">
-        <f t="shared" si="152"/>
-        <v>75753.161038532417</v>
-      </c>
-      <c r="P39" s="52">
-        <f t="shared" si="152"/>
-        <v>92511.631097730264</v>
-      </c>
-      <c r="Q39" s="52">
-        <f t="shared" si="152"/>
-        <v>110940.23474683573</v>
-      </c>
-      <c r="R39" s="52">
-        <f t="shared" si="152"/>
-        <v>131108.60169446064</v>
-      </c>
-      <c r="S39" s="52">
-        <f t="shared" si="152"/>
-        <v>153088.81992077787</v>
-      </c>
-      <c r="T39" s="52">
-        <f t="shared" si="152"/>
-        <v>176955.44759674231</v>
-      </c>
-      <c r="U39" s="52">
-        <f t="shared" si="152"/>
-        <v>202785.51680929831</v>
-      </c>
-      <c r="V39" s="39"/>
+        <v>6415.8885289089203</v>
+      </c>
+      <c r="I39" s="50">
+        <f t="shared" ref="I39:V39" si="170">H39+I25</f>
+        <v>11865.420702915757</v>
+      </c>
+      <c r="J39" s="50">
+        <f t="shared" si="170"/>
+        <v>18393.757099179133</v>
+      </c>
+      <c r="K39" s="50">
+        <f t="shared" si="170"/>
+        <v>26198.235221149254</v>
+      </c>
+      <c r="L39" s="50">
+        <f t="shared" si="170"/>
+        <v>35507.750222987066</v>
+      </c>
+      <c r="M39" s="50">
+        <f t="shared" si="170"/>
+        <v>46193.780452546795</v>
+      </c>
+      <c r="N39" s="50">
+        <f t="shared" si="170"/>
+        <v>58418.255043741483</v>
+      </c>
+      <c r="O39" s="50">
+        <f t="shared" si="170"/>
+        <v>72360.545914078248</v>
+      </c>
+      <c r="P39" s="50">
+        <f t="shared" si="170"/>
+        <v>88219.275184341503</v>
+      </c>
+      <c r="Q39" s="50">
+        <f t="shared" si="170"/>
+        <v>106214.30650897123</v>
+      </c>
+      <c r="R39" s="50">
+        <f t="shared" si="170"/>
+        <v>126133.86910550049</v>
+      </c>
+      <c r="S39" s="50">
+        <f t="shared" si="170"/>
+        <v>148057.10107800615</v>
+      </c>
+      <c r="T39" s="50">
+        <f t="shared" si="170"/>
+        <v>172068.49699160352</v>
+      </c>
+      <c r="U39" s="50">
+        <f t="shared" si="170"/>
+        <v>198258.11692163011</v>
+      </c>
+      <c r="V39" s="50">
+        <f t="shared" si="170"/>
+        <v>226721.80906782192</v>
+      </c>
       <c r="W39" s="39"/>
       <c r="X39" s="39"/>
       <c r="Y39" s="39"/>
@@ -7006,36 +7103,39 @@
       <c r="A40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B40" s="53">
+      <c r="B40" s="51">
         <f>Reports!E34</f>
         <v>3988.0839999999998</v>
       </c>
-      <c r="C40" s="53">
+      <c r="C40" s="51">
         <f>Reports!I34</f>
         <v>4761.3</v>
       </c>
-      <c r="D40" s="53">
+      <c r="D40" s="51">
         <f>Reports!M34</f>
         <v>5819.7740000000003</v>
       </c>
-      <c r="E40" s="53">
+      <c r="E40" s="51">
         <f>Reports!Q34</f>
         <v>3228.962</v>
       </c>
-      <c r="F40" s="53">
+      <c r="F40" s="51">
         <f>Reports!U34</f>
         <v>4176.9760000000006</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="53"/>
-      <c r="I40" s="53"/>
-      <c r="J40" s="53"/>
-      <c r="K40" s="53"/>
-      <c r="L40" s="53"/>
-      <c r="M40" s="53"/>
-      <c r="N40" s="53"/>
-      <c r="O40" s="53"/>
-      <c r="P40" s="53"/>
+      <c r="G40" s="51">
+        <f>Reports!Y34</f>
+        <v>5992</v>
+      </c>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
       <c r="Q40" s="23"/>
       <c r="R40" s="39"/>
       <c r="S40" s="39"/>
@@ -7142,36 +7242,39 @@
       <c r="A41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B41" s="51">
         <f>Reports!E35</f>
         <v>1907.231</v>
       </c>
-      <c r="C41" s="53">
+      <c r="C41" s="51">
         <f>Reports!I35</f>
         <v>1902.068</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="51">
         <f>Reports!M35</f>
         <v>1881.421</v>
       </c>
-      <c r="E41" s="53">
+      <c r="E41" s="51">
         <f>Reports!Q35</f>
         <v>4124.8</v>
       </c>
-      <c r="F41" s="53">
+      <c r="F41" s="51">
         <f>Reports!U35</f>
         <v>4138.2669999999998</v>
       </c>
-      <c r="G41" s="53"/>
-      <c r="H41" s="53"/>
-      <c r="I41" s="53"/>
-      <c r="J41" s="53"/>
-      <c r="K41" s="53"/>
-      <c r="L41" s="53"/>
-      <c r="M41" s="53"/>
-      <c r="N41" s="53"/>
-      <c r="O41" s="53"/>
-      <c r="P41" s="53"/>
+      <c r="G41" s="51">
+        <f>Reports!Y35</f>
+        <v>4117</v>
+      </c>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
       <c r="Q41" s="23"/>
       <c r="R41" s="39"/>
       <c r="S41" s="39"/>
@@ -7275,22 +7378,22 @@
       <c r="DM41" s="39"/>
     </row>
     <row r="42" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="55"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="53"/>
       <c r="R42" s="39"/>
       <c r="S42" s="39"/>
       <c r="T42" s="39"/>
@@ -7396,36 +7499,39 @@
       <c r="A43" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="56">
+      <c r="B43" s="54">
         <f>Reports!E37</f>
         <v>5876.8879999999999</v>
       </c>
-      <c r="C43" s="56">
+      <c r="C43" s="54">
         <f>Reports!I37</f>
         <v>5820.8789999999999</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="54">
         <f>Reports!M37</f>
         <v>6207.2190000000001</v>
       </c>
-      <c r="E43" s="53">
+      <c r="E43" s="51">
         <f>Reports!Q37</f>
         <v>12650.049000000001</v>
       </c>
-      <c r="F43" s="53">
+      <c r="F43" s="51">
         <f>Reports!U37</f>
         <v>12411.764000000001</v>
       </c>
-      <c r="G43" s="56"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="56"/>
-      <c r="J43" s="56"/>
-      <c r="K43" s="56"/>
-      <c r="L43" s="56"/>
-      <c r="M43" s="56"/>
-      <c r="N43" s="56"/>
-      <c r="O43" s="56"/>
-      <c r="P43" s="56"/>
+      <c r="G43" s="51">
+        <f>Reports!Y37</f>
+        <v>12101</v>
+      </c>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
+      <c r="P43" s="54"/>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
@@ -7532,36 +7638,39 @@
       <c r="A44" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="56">
+      <c r="B44" s="54">
         <f>Reports!E38</f>
         <v>11726.472</v>
       </c>
-      <c r="C44" s="56">
+      <c r="C44" s="54">
         <f>Reports!I38</f>
         <v>12707.114</v>
       </c>
-      <c r="D44" s="56">
+      <c r="D44" s="54">
         <f>Reports!M38</f>
         <v>14535.556</v>
       </c>
-      <c r="E44" s="53">
+      <c r="E44" s="51">
         <f>Reports!Q38</f>
         <v>18768.682000000001</v>
       </c>
-      <c r="F44" s="53">
+      <c r="F44" s="51">
         <f>Reports!U38</f>
         <v>20762.400000000001</v>
       </c>
-      <c r="G44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="56"/>
-      <c r="L44" s="56"/>
-      <c r="M44" s="56"/>
-      <c r="N44" s="56"/>
-      <c r="O44" s="56"/>
-      <c r="P44" s="56"/>
+      <c r="G44" s="51">
+        <f>Reports!Y38</f>
+        <v>24284</v>
+      </c>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
+      <c r="P44" s="54"/>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
@@ -7668,36 +7777,39 @@
       <c r="A45" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B45" s="56">
+      <c r="B45" s="54">
         <f>Reports!E39</f>
         <v>4724.8919999999998</v>
       </c>
-      <c r="C45" s="56">
+      <c r="C45" s="54">
         <f>Reports!I39</f>
         <v>5282.2790000000005</v>
       </c>
-      <c r="D45" s="56">
+      <c r="D45" s="54">
         <f>Reports!M39</f>
         <v>6075.6869999999999</v>
       </c>
-      <c r="E45" s="53">
+      <c r="E45" s="51">
         <f>Reports!Q39</f>
         <v>9406.5679999999993</v>
       </c>
-      <c r="F45" s="53">
+      <c r="F45" s="51">
         <f>Reports!U39</f>
         <v>10232.245000000001</v>
       </c>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="56"/>
-      <c r="M45" s="56"/>
-      <c r="N45" s="56"/>
-      <c r="O45" s="56"/>
-      <c r="P45" s="56"/>
+      <c r="G45" s="51">
+        <f>Reports!Y39</f>
+        <v>11020</v>
+      </c>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
+      <c r="P45" s="54"/>
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
       <c r="S45" s="38"/>
@@ -7922,27 +8034,30 @@
       <c r="A47" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="57">
+      <c r="B47" s="55">
         <f>B44-B43-B40</f>
         <v>1861.5</v>
       </c>
-      <c r="C47" s="57">
+      <c r="C47" s="55">
         <f>C44-C43-C40</f>
         <v>2124.9349999999995</v>
       </c>
-      <c r="D47" s="57">
+      <c r="D47" s="55">
         <f>D44-D43-D40</f>
         <v>2508.5629999999992</v>
       </c>
-      <c r="E47" s="57">
+      <c r="E47" s="55">
         <f>E44-E43-E40</f>
         <v>2889.6709999999998</v>
       </c>
-      <c r="F47" s="57">
+      <c r="F47" s="55">
         <f>F44-F43-F40</f>
         <v>4173.66</v>
       </c>
-      <c r="G47" s="38"/>
+      <c r="G47" s="55">
+        <f>G44-G43-G40</f>
+        <v>6191</v>
+      </c>
       <c r="H47" s="38"/>
       <c r="I47" s="38"/>
       <c r="J47" s="38"/>
@@ -8058,27 +8173,30 @@
       <c r="A48" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="57">
+      <c r="B48" s="55">
         <f>B44-B45</f>
         <v>7001.58</v>
       </c>
-      <c r="C48" s="57">
+      <c r="C48" s="55">
         <f>C44-C45</f>
         <v>7424.8349999999991</v>
       </c>
-      <c r="D48" s="57">
+      <c r="D48" s="55">
         <f>D44-D45</f>
         <v>8459.8690000000006</v>
       </c>
-      <c r="E48" s="57">
+      <c r="E48" s="55">
         <f>E44-E45</f>
         <v>9362.1140000000014</v>
       </c>
-      <c r="F48" s="57">
+      <c r="F48" s="55">
         <f>F44-F45</f>
         <v>10530.155000000001</v>
       </c>
-      <c r="G48" s="38"/>
+      <c r="G48" s="55">
+        <f>G44-G45</f>
+        <v>13264</v>
+      </c>
       <c r="H48" s="38"/>
       <c r="I48" s="38"/>
       <c r="J48" s="38"/>
@@ -8312,27 +8430,30 @@
       <c r="A50" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="58">
+      <c r="B50" s="56">
         <f>B25/B48</f>
         <v>8.99155619160249E-2</v>
       </c>
-      <c r="C50" s="58">
+      <c r="C50" s="56">
         <f>C25/C48</f>
         <v>0.15741521528761246</v>
       </c>
-      <c r="D50" s="58">
+      <c r="D50" s="56">
         <f>D25/D48</f>
         <v>0.2002340698183388</v>
       </c>
-      <c r="E50" s="58">
+      <c r="E50" s="56">
         <f>E25/E48</f>
         <v>0.27672959333757319</v>
       </c>
-      <c r="F50" s="58">
+      <c r="F50" s="56">
         <f>F25/F48</f>
         <v>0.28028628258558402</v>
       </c>
-      <c r="G50" s="39"/>
+      <c r="G50" s="56">
+        <f>G25/G48</f>
+        <v>0.30724745269907816</v>
+      </c>
       <c r="H50" s="39"/>
       <c r="I50" s="39"/>
       <c r="J50" s="39"/>
@@ -8448,27 +8569,30 @@
       <c r="A51" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="B51" s="58">
+      <c r="B51" s="56">
         <f>B25/B44</f>
         <v>5.3686309062094859E-2</v>
       </c>
-      <c r="C51" s="58">
+      <c r="C51" s="56">
         <f>C25/C44</f>
         <v>9.1978556263837719E-2</v>
       </c>
-      <c r="D51" s="58">
+      <c r="D51" s="56">
         <f>D25/D44</f>
         <v>0.11653864496136233</v>
       </c>
-      <c r="E51" s="58">
+      <c r="E51" s="56">
         <f>E25/E44</f>
         <v>0.13803707687092789</v>
       </c>
-      <c r="F51" s="58">
+      <c r="F51" s="56">
         <f>F25/F44</f>
         <v>0.142153989904828</v>
       </c>
-      <c r="G51" s="39"/>
+      <c r="G51" s="56">
+        <f>G25/G44</f>
+        <v>0.16781956072313345</v>
+      </c>
       <c r="H51" s="39"/>
       <c r="I51" s="39"/>
       <c r="J51" s="39"/>
@@ -8584,27 +8708,30 @@
       <c r="A52" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="58">
+      <c r="B52" s="56">
         <f>B25/(B48-B43)</f>
         <v>0.55975413713265643</v>
       </c>
-      <c r="C52" s="58">
+      <c r="C52" s="56">
         <f>C25/(C48-C43)</f>
         <v>0.72868707121641774</v>
       </c>
-      <c r="D52" s="58">
+      <c r="D52" s="56">
         <f>D25/(D48-D43)</f>
         <v>0.75198277584178619</v>
       </c>
-      <c r="E52" s="58">
+      <c r="E52" s="56">
         <f>E25/(E48-E43)</f>
         <v>-0.7879638739816941</v>
       </c>
-      <c r="F52" s="58">
+      <c r="F52" s="56">
         <f>F25/(F48-F43)</f>
         <v>-1.5685819955155405</v>
       </c>
-      <c r="G52" s="39"/>
+      <c r="G52" s="56">
+        <f>G25/(G48-G43)</f>
+        <v>3.5041532352541465</v>
+      </c>
       <c r="H52" s="39"/>
       <c r="I52" s="39"/>
       <c r="J52" s="39"/>
@@ -8720,27 +8847,30 @@
       <c r="A53" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="B53" s="58">
+      <c r="B53" s="56">
         <f>B25/B47</f>
         <v>0.33819554123019158</v>
       </c>
-      <c r="C53" s="58">
+      <c r="C53" s="56">
         <f>C25/C47</f>
         <v>0.55003188332819597</v>
       </c>
-      <c r="D53" s="58">
+      <c r="D53" s="56">
         <f>D25/D47</f>
         <v>0.67526866975236444</v>
       </c>
-      <c r="E53" s="58">
+      <c r="E53" s="56">
         <f>E25/E47</f>
         <v>0.89656365724679421</v>
       </c>
-      <c r="F53" s="58">
+      <c r="F53" s="56">
         <f>F25/F47</f>
         <v>0.70716301759127509</v>
       </c>
-      <c r="G53" s="39"/>
+      <c r="G53" s="56">
+        <f>G25/G47</f>
+        <v>0.65826687330004396</v>
+      </c>
       <c r="H53" s="39"/>
       <c r="I53" s="39"/>
       <c r="J53" s="39"/>
@@ -8971,37 +9101,50 @@
       <c r="DM54" s="39"/>
     </row>
     <row r="55" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A55" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B55" s="58">
-        <f>(B43/B27)/$C$2</f>
-        <v>2.5196068398299534E-2</v>
-      </c>
-      <c r="C55" s="58">
-        <f t="shared" ref="C55:E55" si="153">(C43/C27)/$C$2</f>
-        <v>2.5196747662774084E-2</v>
-      </c>
-      <c r="D55" s="58">
-        <f t="shared" si="153"/>
-        <v>2.6929056180033537E-2</v>
-      </c>
-      <c r="E55" s="58">
-        <f t="shared" si="153"/>
-        <v>5.5420223981777005E-2</v>
-      </c>
-      <c r="F55" s="58">
-        <f>(F43/F27)/$C$2</f>
-        <v>5.5081173207691347E-2</v>
-      </c>
-      <c r="G55" s="61" t="s">
-        <v>112</v>
-      </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39"/>
-      <c r="L55" s="39"/>
+      <c r="A55" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B55" s="39"/>
+      <c r="C55" s="56">
+        <f>C10/B10-1</f>
+        <v>0.42213694948732972</v>
+      </c>
+      <c r="D55" s="56">
+        <f t="shared" ref="D55:F55" si="171">D10/C10-1</f>
+        <v>0.3378609428086039</v>
+      </c>
+      <c r="E55" s="56">
+        <f t="shared" si="171"/>
+        <v>0.29154241800729674</v>
+      </c>
+      <c r="F55" s="56">
+        <f t="shared" si="171"/>
+        <v>0.26158447856087585</v>
+      </c>
+      <c r="G55" s="56">
+        <f t="shared" ref="G55:L57" si="172">G10/F10-1</f>
+        <v>0.18205438530770635</v>
+      </c>
+      <c r="H55" s="56">
+        <f t="shared" si="172"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="I55" s="56">
+        <f t="shared" si="172"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="J55" s="56">
+        <f t="shared" si="172"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="K55" s="56">
+        <f t="shared" si="172"/>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="L55" s="56">
+        <f t="shared" si="172"/>
+        <v>0.14999999999999991</v>
+      </c>
       <c r="M55" s="39"/>
       <c r="N55" s="39"/>
       <c r="O55" s="39"/>
@@ -9109,16 +9252,50 @@
       <c r="DM55" s="39"/>
     </row>
     <row r="56" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
-      <c r="F56" s="58"/>
-      <c r="G56" s="61"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="39"/>
-      <c r="J56" s="39"/>
-      <c r="K56" s="39"/>
+      <c r="A56" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" s="39"/>
+      <c r="C56" s="56">
+        <f t="shared" ref="C56:F56" si="173">C11/B11-1</f>
+        <v>-0.28853855410764473</v>
+      </c>
+      <c r="D56" s="56">
+        <f t="shared" si="173"/>
+        <v>-0.11709086093906551</v>
+      </c>
+      <c r="E56" s="56">
+        <f t="shared" si="173"/>
+        <v>-0.119719794500875</v>
+      </c>
+      <c r="F56" s="56">
+        <f t="shared" si="173"/>
+        <v>4.1203691053486757E-2</v>
+      </c>
+      <c r="G56" s="56">
+        <f t="shared" si="172"/>
+        <v>-0.21733653602721881</v>
+      </c>
+      <c r="H56" s="56">
+        <f t="shared" si="172"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="I56" s="56">
+        <f t="shared" si="172"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="J56" s="56">
+        <f t="shared" si="172"/>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="K56" s="56">
+        <f t="shared" si="172"/>
+        <v>-0.10000000000000009</v>
+      </c>
+      <c r="L56" s="56">
+        <f t="shared" si="172"/>
+        <v>-0.10000000000000009</v>
+      </c>
       <c r="M56" s="39"/>
       <c r="N56" s="39"/>
       <c r="O56" s="39"/>
@@ -9226,51 +9403,49 @@
       <c r="DM56" s="39"/>
     </row>
     <row r="57" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A57" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B57" s="58">
-        <f t="shared" ref="B57:K57" si="154">B25/B17-1</f>
-        <v>-0.27028038899771467</v>
-      </c>
-      <c r="C57" s="58">
-        <f t="shared" si="154"/>
-        <v>0.19753849180368199</v>
-      </c>
-      <c r="D57" s="58">
-        <f t="shared" si="154"/>
-        <v>0.38388263964400404</v>
-      </c>
-      <c r="E57" s="58">
-        <f t="shared" si="154"/>
-        <v>0.68471438641394466</v>
-      </c>
-      <c r="F57" s="58">
-        <f t="shared" si="154"/>
-        <v>0.52907221323076903</v>
-      </c>
-      <c r="G57" s="58">
-        <f t="shared" si="154"/>
-        <v>0.5885661413553589</v>
-      </c>
-      <c r="H57" s="58">
-        <f t="shared" si="154"/>
-        <v>0.69473674040594302</v>
-      </c>
-      <c r="I57" s="58">
-        <f t="shared" si="154"/>
-        <v>0.81488476510246355</v>
-      </c>
-      <c r="J57" s="58">
-        <f t="shared" si="154"/>
-        <v>0.94836214851480394</v>
-      </c>
-      <c r="K57" s="58">
-        <f t="shared" si="154"/>
-        <v>1.0946938423333488</v>
-      </c>
-      <c r="L57" s="61" t="s">
-        <v>118</v>
+      <c r="A57" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" s="39"/>
+      <c r="C57" s="56">
+        <f t="shared" ref="C57:F57" si="174">C12/B12-1</f>
+        <v>5.0705436757074063E-2</v>
+      </c>
+      <c r="D57" s="56">
+        <f t="shared" si="174"/>
+        <v>-1.7544271038736015E-2</v>
+      </c>
+      <c r="E57" s="56">
+        <f t="shared" si="174"/>
+        <v>5.3885160425196643E-2</v>
+      </c>
+      <c r="F57" s="56">
+        <f t="shared" si="174"/>
+        <v>8.9233543955874239E-2</v>
+      </c>
+      <c r="G57" s="56">
+        <f t="shared" si="172"/>
+        <v>3.3940466199408714E-2</v>
+      </c>
+      <c r="H57" s="56">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="I57" s="56">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="J57" s="56">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="K57" s="56">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="L57" s="56">
+        <f t="shared" si="172"/>
+        <v>5.0000000000000044E-2</v>
       </c>
       <c r="M57" s="39"/>
       <c r="N57" s="39"/>
@@ -9378,721 +9553,6 @@
       <c r="DL57" s="39"/>
       <c r="DM57" s="39"/>
     </row>
-    <row r="58" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A58" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B58" s="62" t="str">
-        <f t="shared" ref="B58:K58" si="155">ROUND($C$4/B17,0)&amp;"x"</f>
-        <v>259x</v>
-      </c>
-      <c r="C58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>229x</v>
-      </c>
-      <c r="D58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>183x</v>
-      </c>
-      <c r="E58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>145x</v>
-      </c>
-      <c r="F58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>116x</v>
-      </c>
-      <c r="G58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>101x</v>
-      </c>
-      <c r="H58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>88x</v>
-      </c>
-      <c r="I58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>76x</v>
-      </c>
-      <c r="J58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>66x</v>
-      </c>
-      <c r="K58" s="62" t="str">
-        <f t="shared" si="155"/>
-        <v>58x</v>
-      </c>
-      <c r="L58" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="M58" s="39"/>
-      <c r="N58" s="39"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="39"/>
-      <c r="AC58" s="39"/>
-      <c r="AD58" s="39"/>
-      <c r="AE58" s="39"/>
-      <c r="AF58" s="39"/>
-      <c r="AG58" s="39"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="39"/>
-      <c r="AK58" s="39"/>
-      <c r="AL58" s="39"/>
-      <c r="AM58" s="39"/>
-      <c r="AN58" s="39"/>
-      <c r="AO58" s="39"/>
-      <c r="AP58" s="39"/>
-      <c r="AQ58" s="39"/>
-      <c r="AR58" s="39"/>
-      <c r="AS58" s="39"/>
-      <c r="AT58" s="39"/>
-      <c r="AU58" s="39"/>
-      <c r="AV58" s="39"/>
-      <c r="AW58" s="39"/>
-      <c r="AX58" s="39"/>
-      <c r="AY58" s="39"/>
-      <c r="AZ58" s="39"/>
-      <c r="BA58" s="39"/>
-      <c r="BB58" s="39"/>
-      <c r="BC58" s="39"/>
-      <c r="BD58" s="39"/>
-      <c r="BE58" s="39"/>
-      <c r="BF58" s="39"/>
-      <c r="BG58" s="39"/>
-      <c r="BH58" s="39"/>
-      <c r="BI58" s="39"/>
-      <c r="BJ58" s="39"/>
-      <c r="BK58" s="39"/>
-      <c r="BL58" s="39"/>
-      <c r="BM58" s="39"/>
-      <c r="BN58" s="39"/>
-      <c r="BO58" s="39"/>
-      <c r="BP58" s="39"/>
-      <c r="BQ58" s="39"/>
-      <c r="BR58" s="39"/>
-      <c r="BS58" s="39"/>
-      <c r="BT58" s="39"/>
-      <c r="BU58" s="39"/>
-      <c r="BV58" s="39"/>
-      <c r="BW58" s="39"/>
-      <c r="BX58" s="39"/>
-      <c r="BY58" s="39"/>
-      <c r="BZ58" s="39"/>
-      <c r="CA58" s="39"/>
-      <c r="CB58" s="39"/>
-      <c r="CC58" s="39"/>
-      <c r="CD58" s="39"/>
-      <c r="CE58" s="39"/>
-      <c r="CF58" s="39"/>
-      <c r="CG58" s="39"/>
-      <c r="CH58" s="39"/>
-      <c r="CI58" s="39"/>
-      <c r="CJ58" s="39"/>
-      <c r="CK58" s="39"/>
-      <c r="CL58" s="39"/>
-      <c r="CM58" s="39"/>
-      <c r="CN58" s="39"/>
-      <c r="CO58" s="39"/>
-      <c r="CP58" s="39"/>
-      <c r="CQ58" s="39"/>
-      <c r="CR58" s="39"/>
-      <c r="CS58" s="39"/>
-      <c r="CT58" s="39"/>
-      <c r="CU58" s="39"/>
-      <c r="CV58" s="39"/>
-      <c r="CW58" s="39"/>
-      <c r="CX58" s="39"/>
-      <c r="CY58" s="39"/>
-      <c r="CZ58" s="39"/>
-      <c r="DA58" s="39"/>
-      <c r="DB58" s="39"/>
-      <c r="DC58" s="39"/>
-      <c r="DD58" s="39"/>
-      <c r="DE58" s="39"/>
-      <c r="DF58" s="39"/>
-      <c r="DG58" s="39"/>
-      <c r="DH58" s="39"/>
-      <c r="DI58" s="39"/>
-      <c r="DJ58" s="39"/>
-      <c r="DK58" s="39"/>
-      <c r="DL58" s="39"/>
-      <c r="DM58" s="39"/>
-    </row>
-    <row r="59" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="B59" s="39"/>
-      <c r="C59" s="39"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="39"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="39"/>
-      <c r="J59" s="39"/>
-      <c r="K59" s="39"/>
-      <c r="L59" s="39"/>
-      <c r="M59" s="39"/>
-      <c r="N59" s="39"/>
-      <c r="O59" s="39"/>
-      <c r="P59" s="39"/>
-      <c r="Q59" s="39"/>
-      <c r="R59" s="39"/>
-      <c r="S59" s="39"/>
-      <c r="T59" s="39"/>
-      <c r="U59" s="39"/>
-      <c r="V59" s="39"/>
-      <c r="W59" s="39"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="39"/>
-      <c r="Z59" s="39"/>
-      <c r="AA59" s="39"/>
-      <c r="AB59" s="39"/>
-      <c r="AC59" s="39"/>
-      <c r="AD59" s="39"/>
-      <c r="AE59" s="39"/>
-      <c r="AF59" s="39"/>
-      <c r="AG59" s="39"/>
-      <c r="AH59" s="39"/>
-      <c r="AI59" s="39"/>
-      <c r="AJ59" s="39"/>
-      <c r="AK59" s="39"/>
-      <c r="AL59" s="39"/>
-      <c r="AM59" s="39"/>
-      <c r="AN59" s="39"/>
-      <c r="AO59" s="39"/>
-      <c r="AP59" s="39"/>
-      <c r="AQ59" s="39"/>
-      <c r="AR59" s="39"/>
-      <c r="AS59" s="39"/>
-      <c r="AT59" s="39"/>
-      <c r="AU59" s="39"/>
-      <c r="AV59" s="39"/>
-      <c r="AW59" s="39"/>
-      <c r="AX59" s="39"/>
-      <c r="AY59" s="39"/>
-      <c r="AZ59" s="39"/>
-      <c r="BA59" s="39"/>
-      <c r="BB59" s="39"/>
-      <c r="BC59" s="39"/>
-      <c r="BD59" s="39"/>
-      <c r="BE59" s="39"/>
-      <c r="BF59" s="39"/>
-      <c r="BG59" s="39"/>
-      <c r="BH59" s="39"/>
-      <c r="BI59" s="39"/>
-      <c r="BJ59" s="39"/>
-      <c r="BK59" s="39"/>
-      <c r="BL59" s="39"/>
-      <c r="BM59" s="39"/>
-      <c r="BN59" s="39"/>
-      <c r="BO59" s="39"/>
-      <c r="BP59" s="39"/>
-      <c r="BQ59" s="39"/>
-      <c r="BR59" s="39"/>
-      <c r="BS59" s="39"/>
-      <c r="BT59" s="39"/>
-      <c r="BU59" s="39"/>
-      <c r="BV59" s="39"/>
-      <c r="BW59" s="39"/>
-      <c r="BX59" s="39"/>
-      <c r="BY59" s="39"/>
-      <c r="BZ59" s="39"/>
-      <c r="CA59" s="39"/>
-      <c r="CB59" s="39"/>
-      <c r="CC59" s="39"/>
-      <c r="CD59" s="39"/>
-      <c r="CE59" s="39"/>
-      <c r="CF59" s="39"/>
-      <c r="CG59" s="39"/>
-      <c r="CH59" s="39"/>
-      <c r="CI59" s="39"/>
-      <c r="CJ59" s="39"/>
-      <c r="CK59" s="39"/>
-      <c r="CL59" s="39"/>
-      <c r="CM59" s="39"/>
-      <c r="CN59" s="39"/>
-      <c r="CO59" s="39"/>
-      <c r="CP59" s="39"/>
-      <c r="CQ59" s="39"/>
-      <c r="CR59" s="39"/>
-      <c r="CS59" s="39"/>
-      <c r="CT59" s="39"/>
-      <c r="CU59" s="39"/>
-      <c r="CV59" s="39"/>
-      <c r="CW59" s="39"/>
-      <c r="CX59" s="39"/>
-      <c r="CY59" s="39"/>
-      <c r="CZ59" s="39"/>
-      <c r="DA59" s="39"/>
-      <c r="DB59" s="39"/>
-      <c r="DC59" s="39"/>
-      <c r="DD59" s="39"/>
-      <c r="DE59" s="39"/>
-      <c r="DF59" s="39"/>
-      <c r="DG59" s="39"/>
-      <c r="DH59" s="39"/>
-      <c r="DI59" s="39"/>
-      <c r="DJ59" s="39"/>
-      <c r="DK59" s="39"/>
-      <c r="DL59" s="39"/>
-      <c r="DM59" s="39"/>
-    </row>
-    <row r="60" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="58">
-        <f>C10/B10-1</f>
-        <v>0.42213694948732972</v>
-      </c>
-      <c r="D60" s="58">
-        <f t="shared" ref="D60:F60" si="156">D10/C10-1</f>
-        <v>0.3378609428086039</v>
-      </c>
-      <c r="E60" s="58">
-        <f t="shared" si="156"/>
-        <v>0.29154241800729674</v>
-      </c>
-      <c r="F60" s="58">
-        <f t="shared" si="156"/>
-        <v>0.26158447856087585</v>
-      </c>
-      <c r="G60" s="58">
-        <f t="shared" ref="G60:K62" si="157">G10/F10-1</f>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="H60" s="58">
-        <f t="shared" si="157"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="I60" s="58">
-        <f t="shared" si="157"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="J60" s="58">
-        <f t="shared" si="157"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="K60" s="58">
-        <f t="shared" si="157"/>
-        <v>0.19999999999999996</v>
-      </c>
-      <c r="L60" s="39"/>
-      <c r="M60" s="39"/>
-      <c r="N60" s="39"/>
-      <c r="O60" s="39"/>
-      <c r="P60" s="39"/>
-      <c r="Q60" s="39"/>
-      <c r="R60" s="39"/>
-      <c r="S60" s="39"/>
-      <c r="T60" s="39"/>
-      <c r="U60" s="39"/>
-      <c r="V60" s="39"/>
-      <c r="W60" s="39"/>
-      <c r="X60" s="39"/>
-      <c r="Y60" s="39"/>
-      <c r="Z60" s="39"/>
-      <c r="AA60" s="39"/>
-      <c r="AB60" s="39"/>
-      <c r="AC60" s="39"/>
-      <c r="AD60" s="39"/>
-      <c r="AE60" s="39"/>
-      <c r="AF60" s="39"/>
-      <c r="AG60" s="39"/>
-      <c r="AH60" s="39"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
-      <c r="AP60" s="39"/>
-      <c r="AQ60" s="39"/>
-      <c r="AR60" s="39"/>
-      <c r="AS60" s="39"/>
-      <c r="AT60" s="39"/>
-      <c r="AU60" s="39"/>
-      <c r="AV60" s="39"/>
-      <c r="AW60" s="39"/>
-      <c r="AX60" s="39"/>
-      <c r="AY60" s="39"/>
-      <c r="AZ60" s="39"/>
-      <c r="BA60" s="39"/>
-      <c r="BB60" s="39"/>
-      <c r="BC60" s="39"/>
-      <c r="BD60" s="39"/>
-      <c r="BE60" s="39"/>
-      <c r="BF60" s="39"/>
-      <c r="BG60" s="39"/>
-      <c r="BH60" s="39"/>
-      <c r="BI60" s="39"/>
-      <c r="BJ60" s="39"/>
-      <c r="BK60" s="39"/>
-      <c r="BL60" s="39"/>
-      <c r="BM60" s="39"/>
-      <c r="BN60" s="39"/>
-      <c r="BO60" s="39"/>
-      <c r="BP60" s="39"/>
-      <c r="BQ60" s="39"/>
-      <c r="BR60" s="39"/>
-      <c r="BS60" s="39"/>
-      <c r="BT60" s="39"/>
-      <c r="BU60" s="39"/>
-      <c r="BV60" s="39"/>
-      <c r="BW60" s="39"/>
-      <c r="BX60" s="39"/>
-      <c r="BY60" s="39"/>
-      <c r="BZ60" s="39"/>
-      <c r="CA60" s="39"/>
-      <c r="CB60" s="39"/>
-      <c r="CC60" s="39"/>
-      <c r="CD60" s="39"/>
-      <c r="CE60" s="39"/>
-      <c r="CF60" s="39"/>
-      <c r="CG60" s="39"/>
-      <c r="CH60" s="39"/>
-      <c r="CI60" s="39"/>
-      <c r="CJ60" s="39"/>
-      <c r="CK60" s="39"/>
-      <c r="CL60" s="39"/>
-      <c r="CM60" s="39"/>
-      <c r="CN60" s="39"/>
-      <c r="CO60" s="39"/>
-      <c r="CP60" s="39"/>
-      <c r="CQ60" s="39"/>
-      <c r="CR60" s="39"/>
-      <c r="CS60" s="39"/>
-      <c r="CT60" s="39"/>
-      <c r="CU60" s="39"/>
-      <c r="CV60" s="39"/>
-      <c r="CW60" s="39"/>
-      <c r="CX60" s="39"/>
-      <c r="CY60" s="39"/>
-      <c r="CZ60" s="39"/>
-      <c r="DA60" s="39"/>
-      <c r="DB60" s="39"/>
-      <c r="DC60" s="39"/>
-      <c r="DD60" s="39"/>
-      <c r="DE60" s="39"/>
-      <c r="DF60" s="39"/>
-      <c r="DG60" s="39"/>
-      <c r="DH60" s="39"/>
-      <c r="DI60" s="39"/>
-      <c r="DJ60" s="39"/>
-      <c r="DK60" s="39"/>
-      <c r="DL60" s="39"/>
-      <c r="DM60" s="39"/>
-    </row>
-    <row r="61" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B61" s="39"/>
-      <c r="C61" s="58">
-        <f t="shared" ref="C61:F61" si="158">C11/B11-1</f>
-        <v>-0.28853855410764473</v>
-      </c>
-      <c r="D61" s="58">
-        <f t="shared" si="158"/>
-        <v>-0.11709086093906551</v>
-      </c>
-      <c r="E61" s="58">
-        <f t="shared" si="158"/>
-        <v>-0.119719794500875</v>
-      </c>
-      <c r="F61" s="58">
-        <f t="shared" si="158"/>
-        <v>4.1203691053486757E-2</v>
-      </c>
-      <c r="G61" s="58">
-        <f t="shared" si="157"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="H61" s="58">
-        <f t="shared" si="157"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="I61" s="58">
-        <f t="shared" si="157"/>
-        <v>-4.9999999999999933E-2</v>
-      </c>
-      <c r="J61" s="58">
-        <f t="shared" si="157"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="K61" s="58">
-        <f t="shared" si="157"/>
-        <v>-5.0000000000000044E-2</v>
-      </c>
-      <c r="L61" s="39"/>
-      <c r="M61" s="39"/>
-      <c r="N61" s="39"/>
-      <c r="O61" s="39"/>
-      <c r="P61" s="39"/>
-      <c r="Q61" s="39"/>
-      <c r="R61" s="39"/>
-      <c r="S61" s="39"/>
-      <c r="T61" s="39"/>
-      <c r="U61" s="39"/>
-      <c r="V61" s="39"/>
-      <c r="W61" s="39"/>
-      <c r="X61" s="39"/>
-      <c r="Y61" s="39"/>
-      <c r="Z61" s="39"/>
-      <c r="AA61" s="39"/>
-      <c r="AB61" s="39"/>
-      <c r="AC61" s="39"/>
-      <c r="AD61" s="39"/>
-      <c r="AE61" s="39"/>
-      <c r="AF61" s="39"/>
-      <c r="AG61" s="39"/>
-      <c r="AH61" s="39"/>
-      <c r="AI61" s="39"/>
-      <c r="AJ61" s="39"/>
-      <c r="AK61" s="39"/>
-      <c r="AL61" s="39"/>
-      <c r="AM61" s="39"/>
-      <c r="AN61" s="39"/>
-      <c r="AO61" s="39"/>
-      <c r="AP61" s="39"/>
-      <c r="AQ61" s="39"/>
-      <c r="AR61" s="39"/>
-      <c r="AS61" s="39"/>
-      <c r="AT61" s="39"/>
-      <c r="AU61" s="39"/>
-      <c r="AV61" s="39"/>
-      <c r="AW61" s="39"/>
-      <c r="AX61" s="39"/>
-      <c r="AY61" s="39"/>
-      <c r="AZ61" s="39"/>
-      <c r="BA61" s="39"/>
-      <c r="BB61" s="39"/>
-      <c r="BC61" s="39"/>
-      <c r="BD61" s="39"/>
-      <c r="BE61" s="39"/>
-      <c r="BF61" s="39"/>
-      <c r="BG61" s="39"/>
-      <c r="BH61" s="39"/>
-      <c r="BI61" s="39"/>
-      <c r="BJ61" s="39"/>
-      <c r="BK61" s="39"/>
-      <c r="BL61" s="39"/>
-      <c r="BM61" s="39"/>
-      <c r="BN61" s="39"/>
-      <c r="BO61" s="39"/>
-      <c r="BP61" s="39"/>
-      <c r="BQ61" s="39"/>
-      <c r="BR61" s="39"/>
-      <c r="BS61" s="39"/>
-      <c r="BT61" s="39"/>
-      <c r="BU61" s="39"/>
-      <c r="BV61" s="39"/>
-      <c r="BW61" s="39"/>
-      <c r="BX61" s="39"/>
-      <c r="BY61" s="39"/>
-      <c r="BZ61" s="39"/>
-      <c r="CA61" s="39"/>
-      <c r="CB61" s="39"/>
-      <c r="CC61" s="39"/>
-      <c r="CD61" s="39"/>
-      <c r="CE61" s="39"/>
-      <c r="CF61" s="39"/>
-      <c r="CG61" s="39"/>
-      <c r="CH61" s="39"/>
-      <c r="CI61" s="39"/>
-      <c r="CJ61" s="39"/>
-      <c r="CK61" s="39"/>
-      <c r="CL61" s="39"/>
-      <c r="CM61" s="39"/>
-      <c r="CN61" s="39"/>
-      <c r="CO61" s="39"/>
-      <c r="CP61" s="39"/>
-      <c r="CQ61" s="39"/>
-      <c r="CR61" s="39"/>
-      <c r="CS61" s="39"/>
-      <c r="CT61" s="39"/>
-      <c r="CU61" s="39"/>
-      <c r="CV61" s="39"/>
-      <c r="CW61" s="39"/>
-      <c r="CX61" s="39"/>
-      <c r="CY61" s="39"/>
-      <c r="CZ61" s="39"/>
-      <c r="DA61" s="39"/>
-      <c r="DB61" s="39"/>
-      <c r="DC61" s="39"/>
-      <c r="DD61" s="39"/>
-      <c r="DE61" s="39"/>
-      <c r="DF61" s="39"/>
-      <c r="DG61" s="39"/>
-      <c r="DH61" s="39"/>
-      <c r="DI61" s="39"/>
-      <c r="DJ61" s="39"/>
-      <c r="DK61" s="39"/>
-      <c r="DL61" s="39"/>
-      <c r="DM61" s="39"/>
-    </row>
-    <row r="62" spans="1:117" x14ac:dyDescent="0.15">
-      <c r="A62" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B62" s="39"/>
-      <c r="C62" s="58">
-        <f t="shared" ref="C62:F62" si="159">C12/B12-1</f>
-        <v>5.0705436757074063E-2</v>
-      </c>
-      <c r="D62" s="58">
-        <f t="shared" si="159"/>
-        <v>-1.7544271038736015E-2</v>
-      </c>
-      <c r="E62" s="58">
-        <f t="shared" si="159"/>
-        <v>5.3885160425196643E-2</v>
-      </c>
-      <c r="F62" s="58">
-        <f t="shared" si="159"/>
-        <v>8.9233543955874239E-2</v>
-      </c>
-      <c r="G62" s="58">
-        <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="H62" s="58">
-        <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="I62" s="58">
-        <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="J62" s="58">
-        <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="K62" s="58">
-        <f t="shared" si="157"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="L62" s="39"/>
-      <c r="M62" s="39"/>
-      <c r="N62" s="39"/>
-      <c r="O62" s="39"/>
-      <c r="P62" s="39"/>
-      <c r="Q62" s="39"/>
-      <c r="R62" s="39"/>
-      <c r="S62" s="39"/>
-      <c r="T62" s="39"/>
-      <c r="U62" s="39"/>
-      <c r="V62" s="39"/>
-      <c r="W62" s="39"/>
-      <c r="X62" s="39"/>
-      <c r="Y62" s="39"/>
-      <c r="Z62" s="39"/>
-      <c r="AA62" s="39"/>
-      <c r="AB62" s="39"/>
-      <c r="AC62" s="39"/>
-      <c r="AD62" s="39"/>
-      <c r="AE62" s="39"/>
-      <c r="AF62" s="39"/>
-      <c r="AG62" s="39"/>
-      <c r="AH62" s="39"/>
-      <c r="AI62" s="39"/>
-      <c r="AJ62" s="39"/>
-      <c r="AK62" s="39"/>
-      <c r="AL62" s="39"/>
-      <c r="AM62" s="39"/>
-      <c r="AN62" s="39"/>
-      <c r="AO62" s="39"/>
-      <c r="AP62" s="39"/>
-      <c r="AQ62" s="39"/>
-      <c r="AR62" s="39"/>
-      <c r="AS62" s="39"/>
-      <c r="AT62" s="39"/>
-      <c r="AU62" s="39"/>
-      <c r="AV62" s="39"/>
-      <c r="AW62" s="39"/>
-      <c r="AX62" s="39"/>
-      <c r="AY62" s="39"/>
-      <c r="AZ62" s="39"/>
-      <c r="BA62" s="39"/>
-      <c r="BB62" s="39"/>
-      <c r="BC62" s="39"/>
-      <c r="BD62" s="39"/>
-      <c r="BE62" s="39"/>
-      <c r="BF62" s="39"/>
-      <c r="BG62" s="39"/>
-      <c r="BH62" s="39"/>
-      <c r="BI62" s="39"/>
-      <c r="BJ62" s="39"/>
-      <c r="BK62" s="39"/>
-      <c r="BL62" s="39"/>
-      <c r="BM62" s="39"/>
-      <c r="BN62" s="39"/>
-      <c r="BO62" s="39"/>
-      <c r="BP62" s="39"/>
-      <c r="BQ62" s="39"/>
-      <c r="BR62" s="39"/>
-      <c r="BS62" s="39"/>
-      <c r="BT62" s="39"/>
-      <c r="BU62" s="39"/>
-      <c r="BV62" s="39"/>
-      <c r="BW62" s="39"/>
-      <c r="BX62" s="39"/>
-      <c r="BY62" s="39"/>
-      <c r="BZ62" s="39"/>
-      <c r="CA62" s="39"/>
-      <c r="CB62" s="39"/>
-      <c r="CC62" s="39"/>
-      <c r="CD62" s="39"/>
-      <c r="CE62" s="39"/>
-      <c r="CF62" s="39"/>
-      <c r="CG62" s="39"/>
-      <c r="CH62" s="39"/>
-      <c r="CI62" s="39"/>
-      <c r="CJ62" s="39"/>
-      <c r="CK62" s="39"/>
-      <c r="CL62" s="39"/>
-      <c r="CM62" s="39"/>
-      <c r="CN62" s="39"/>
-      <c r="CO62" s="39"/>
-      <c r="CP62" s="39"/>
-      <c r="CQ62" s="39"/>
-      <c r="CR62" s="39"/>
-      <c r="CS62" s="39"/>
-      <c r="CT62" s="39"/>
-      <c r="CU62" s="39"/>
-      <c r="CV62" s="39"/>
-      <c r="CW62" s="39"/>
-      <c r="CX62" s="39"/>
-      <c r="CY62" s="39"/>
-      <c r="CZ62" s="39"/>
-      <c r="DA62" s="39"/>
-      <c r="DB62" s="39"/>
-      <c r="DC62" s="39"/>
-      <c r="DD62" s="39"/>
-      <c r="DE62" s="39"/>
-      <c r="DF62" s="39"/>
-      <c r="DG62" s="39"/>
-      <c r="DH62" s="39"/>
-      <c r="DI62" s="39"/>
-      <c r="DJ62" s="39"/>
-      <c r="DK62" s="39"/>
-      <c r="DL62" s="39"/>
-      <c r="DM62" s="39"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -10108,18 +9568,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y52"/>
+  <dimension ref="A1:AC52"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y14" sqref="Y14"/>
+      <selection pane="bottomRight" activeCell="AB19" sqref="AB19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="70" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="10.83203125" style="20" customWidth="1"/>
     <col min="6" max="6" width="10.83203125" style="21" customWidth="1"/>
     <col min="7" max="8" width="10.83203125" style="20" customWidth="1"/>
@@ -10135,8 +9595,8 @@
     <col min="26" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="65" t="s">
         <v>45</v>
       </c>
       <c r="B1" s="20" t="s">
@@ -10203,17 +9663,29 @@
         <v>98</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="X1" s="23" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="Y1" s="23" t="s">
         <v>99</v>
       </c>
+      <c r="Z1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="2" spans="1:25" s="20" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
+    <row r="2" spans="1:29" s="20" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="65"/>
       <c r="B2" s="20" t="s">
         <v>96</v>
       </c>
@@ -10274,18 +9746,21 @@
       <c r="U2" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="V2" s="64">
+      <c r="V2" s="59">
         <v>43889</v>
       </c>
-      <c r="W2" s="63">
+      <c r="W2" s="58">
         <v>43980</v>
       </c>
-      <c r="X2" s="63">
+      <c r="X2" s="58">
         <v>44071</v>
       </c>
+      <c r="Y2" s="58">
+        <v>44162</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="66" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="23">
@@ -10357,10 +9832,12 @@
       <c r="X3" s="23">
         <v>3000</v>
       </c>
-      <c r="Y3" s="23"/>
+      <c r="Y3" s="23">
+        <v>3115</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="66" t="s">
         <v>74</v>
       </c>
       <c r="B4" s="23">
@@ -10432,10 +9909,12 @@
       <c r="X4" s="23">
         <v>109</v>
       </c>
-      <c r="Y4" s="23"/>
+      <c r="Y4" s="23">
+        <v>127</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="66" t="s">
         <v>75</v>
       </c>
       <c r="B5" s="23">
@@ -10507,27 +9986,33 @@
       <c r="X5" s="23">
         <v>116</v>
       </c>
-      <c r="Y5" s="23"/>
+      <c r="Y5" s="23">
+        <v>182</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" s="40" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="N6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="V6" s="41"/>
-      <c r="W6" s="40">
+    <row r="6" spans="1:29" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="66"/>
+      <c r="F6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="23">
         <v>3175</v>
       </c>
-      <c r="Y6" s="40">
+      <c r="Y6" s="23">
         <v>3350</v>
       </c>
+      <c r="Z6" s="23">
+        <v>3750</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17" t="s">
+    <row r="7" spans="1:29" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="67" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="24">
-        <f t="shared" ref="B7:X7" si="0">SUM(B3:B5)</f>
+        <f t="shared" ref="B7:Y7" si="0">SUM(B3:B5)</f>
         <v>1109.181</v>
       </c>
       <c r="C7" s="24">
@@ -10618,12 +10103,13 @@
         <f t="shared" si="0"/>
         <v>3225</v>
       </c>
-      <c r="Y7" s="52">
-        <v>3350</v>
+      <c r="Y7" s="24">
+        <f t="shared" si="0"/>
+        <v>3424</v>
       </c>
     </row>
-    <row r="8" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="66" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="23">
@@ -10680,25 +10166,27 @@
       <c r="S8" s="23">
         <v>407.488</v>
       </c>
-      <c r="T8" s="53">
+      <c r="T8" s="51">
         <v>415.96300000000002</v>
       </c>
-      <c r="U8" s="53">
+      <c r="U8" s="51">
         <v>451.983</v>
       </c>
       <c r="V8" s="22">
         <v>452</v>
       </c>
-      <c r="W8" s="53">
+      <c r="W8" s="51">
         <v>415</v>
       </c>
-      <c r="X8" s="53">
+      <c r="X8" s="51">
         <v>427</v>
       </c>
-      <c r="Y8" s="53"/>
+      <c r="Y8" s="51">
+        <v>428</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="66" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="27">
@@ -10770,7 +10258,7 @@
         <v>2203.6600000000003</v>
       </c>
       <c r="S9" s="27">
-        <f t="shared" ref="S9:X9" si="4">S7-S8</f>
+        <f t="shared" ref="S9:Y9" si="4">S7-S8</f>
         <v>2336.7920000000004</v>
       </c>
       <c r="T9" s="27">
@@ -10793,10 +10281,13 @@
         <f t="shared" si="4"/>
         <v>2798</v>
       </c>
-      <c r="Y9" s="53"/>
+      <c r="Y9" s="27">
+        <f t="shared" si="4"/>
+        <v>2996</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="66" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="23">
@@ -10853,25 +10344,27 @@
       <c r="S10" s="23">
         <v>475.95800000000003</v>
       </c>
-      <c r="T10" s="53">
+      <c r="T10" s="51">
         <v>489.827</v>
       </c>
-      <c r="U10" s="53">
+      <c r="U10" s="51">
         <v>499.80599999999998</v>
       </c>
       <c r="V10" s="22">
         <v>532</v>
       </c>
-      <c r="W10" s="53">
+      <c r="W10" s="51">
         <v>532</v>
       </c>
-      <c r="X10" s="53">
+      <c r="X10" s="51">
         <v>566</v>
       </c>
-      <c r="Y10" s="53"/>
+      <c r="Y10" s="51">
+        <v>558</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="66" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="23">
@@ -10928,25 +10421,27 @@
       <c r="S11" s="23">
         <v>848.92700000000002</v>
       </c>
-      <c r="T11" s="53">
+      <c r="T11" s="51">
         <v>812.31399999999996</v>
       </c>
-      <c r="U11" s="53">
+      <c r="U11" s="51">
         <v>801.58799999999997</v>
       </c>
       <c r="V11" s="22">
         <v>857</v>
       </c>
-      <c r="W11" s="53">
+      <c r="W11" s="51">
         <v>901</v>
       </c>
-      <c r="X11" s="53">
+      <c r="X11" s="51">
         <v>892</v>
       </c>
-      <c r="Y11" s="53"/>
+      <c r="Y11" s="51">
+        <v>941</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="66" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="23">
@@ -11021,11 +10516,11 @@
         <f>219.334+43.026</f>
         <v>262.36</v>
       </c>
-      <c r="T12" s="53">
+      <c r="T12" s="51">
         <f>219.256+42.954</f>
         <v>262.20999999999998</v>
       </c>
-      <c r="U12" s="53">
+      <c r="U12" s="51">
         <f>225.938+42.698</f>
         <v>268.63599999999997</v>
       </c>
@@ -11033,18 +10528,21 @@
         <f>271+42</f>
         <v>313</v>
       </c>
-      <c r="W12" s="53">
+      <c r="W12" s="51">
         <f>224+40</f>
         <v>264</v>
       </c>
-      <c r="X12" s="53">
+      <c r="X12" s="51">
         <f>230+41</f>
         <v>271</v>
       </c>
-      <c r="Y12" s="53"/>
+      <c r="Y12" s="51">
+        <f>243+39</f>
+        <v>282</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="66" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="27">
@@ -11139,10 +10637,13 @@
         <f t="shared" si="11"/>
         <v>1729</v>
       </c>
-      <c r="Y13" s="53"/>
+      <c r="Y13" s="27">
+        <f t="shared" ref="Y13" si="12">SUM(Y10:Y12)</f>
+        <v>1781</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="66" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="27">
@@ -11166,81 +10667,84 @@
         <v>307.75799999999992</v>
       </c>
       <c r="G14" s="27">
-        <f t="shared" ref="G14:H14" si="12">G9-G13</f>
+        <f t="shared" ref="G14:H14" si="13">G9-G13</f>
         <v>344.23900000000003</v>
       </c>
       <c r="H14" s="27">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>369.32500000000005</v>
       </c>
       <c r="I14" s="27">
-        <f t="shared" ref="I14:P14" si="13">I9-I13</f>
+        <f t="shared" ref="I14:P14" si="14">I9-I13</f>
         <v>472.27999999999986</v>
       </c>
       <c r="J14" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>468.99900000000002</v>
       </c>
       <c r="K14" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>504.08199999999988</v>
       </c>
       <c r="L14" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>545.67400000000021</v>
       </c>
       <c r="M14" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>649.33999999999992</v>
       </c>
       <c r="N14" s="28">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>702.73300000000017</v>
       </c>
       <c r="O14" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>698.48399999999992</v>
       </c>
       <c r="P14" s="27">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>718.60600000000022</v>
       </c>
       <c r="Q14" s="27">
-        <f t="shared" ref="Q14:S14" si="14">Q9-Q13</f>
+        <f t="shared" ref="Q14:S14" si="15">Q9-Q13</f>
         <v>720.54600000000005</v>
       </c>
       <c r="R14" s="28">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>694.83000000000038</v>
       </c>
       <c r="S14" s="27">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>749.54700000000048</v>
       </c>
       <c r="T14" s="27">
-        <f t="shared" ref="T14:U14" si="15">T9-T13</f>
+        <f t="shared" ref="T14:U14" si="16">T9-T13</f>
         <v>853.81199999999944</v>
       </c>
       <c r="U14" s="27">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>969.93100000000027</v>
       </c>
       <c r="V14" s="28">
-        <f t="shared" ref="V14:X14" si="16">V9-V13</f>
+        <f t="shared" ref="V14:X14" si="17">V9-V13</f>
         <v>937</v>
       </c>
       <c r="W14" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1016</v>
       </c>
       <c r="X14" s="27">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1069</v>
       </c>
-      <c r="Y14" s="53"/>
+      <c r="Y14" s="27">
+        <f t="shared" ref="Y14" si="18">Y9-Y13</f>
+        <v>1215</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="66" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="23">
@@ -11297,26 +10801,29 @@
       <c r="S15" s="23">
         <v>-38.774999999999999</v>
       </c>
-      <c r="T15" s="53">
+      <c r="T15" s="51">
         <v>-19.324000000000002</v>
       </c>
-      <c r="U15" s="53">
+      <c r="U15" s="51">
         <v>-12.784000000000001</v>
       </c>
       <c r="V15" s="22">
         <v>-18</v>
       </c>
-      <c r="W15" s="53">
+      <c r="W15" s="51">
         <f>-28+12</f>
         <v>-16</v>
       </c>
-      <c r="X15" s="53">
+      <c r="X15" s="51">
         <v>-9</v>
       </c>
-      <c r="Y15" s="53"/>
+      <c r="Y15" s="51">
+        <f>-27+6+3</f>
+        <v>-18</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:29" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="66" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="27">
@@ -11340,27 +10847,27 @@
         <v>292.3069999999999</v>
       </c>
       <c r="G16" s="27">
-        <f t="shared" ref="G16:I16" si="17">G14+G15</f>
+        <f t="shared" ref="G16:I16" si="19">G14+G15</f>
         <v>329.83000000000004</v>
       </c>
       <c r="H16" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>356.30100000000004</v>
       </c>
       <c r="I16" s="27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="19"/>
         <v>456.69999999999987</v>
       </c>
       <c r="J16" s="28">
-        <f t="shared" ref="J16:K16" si="18">J14+J15</f>
+        <f t="shared" ref="J16:K16" si="20">J14+J15</f>
         <v>460.63200000000001</v>
       </c>
       <c r="K16" s="27">
-        <f t="shared" si="18"/>
+        <f t="shared" si="20"/>
         <v>492.61799999999988</v>
       </c>
       <c r="L16" s="27">
-        <f t="shared" ref="L16:N16" si="19">L14+L15</f>
+        <f t="shared" ref="L16:N16" si="21">L14+L15</f>
         <v>541.37900000000025</v>
       </c>
       <c r="M16" s="27">
@@ -11368,53 +10875,56 @@
         <v>643.01199999999994</v>
       </c>
       <c r="N16" s="28">
-        <f t="shared" si="19"/>
+        <f t="shared" si="21"/>
         <v>702.50200000000018</v>
       </c>
       <c r="O16" s="27">
-        <f t="shared" ref="O16" si="20">O14+O15</f>
+        <f t="shared" ref="O16" si="22">O14+O15</f>
         <v>690.79899999999998</v>
       </c>
       <c r="P16" s="27">
-        <f t="shared" ref="P16:T16" si="21">P14+P15</f>
+        <f t="shared" ref="P16:T16" si="23">P14+P15</f>
         <v>701.35800000000017</v>
       </c>
       <c r="Q16" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>699.2170000000001</v>
       </c>
       <c r="R16" s="28">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>702.3340000000004</v>
       </c>
       <c r="S16" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>710.7720000000005</v>
       </c>
       <c r="T16" s="27">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>834.48799999999949</v>
       </c>
       <c r="U16" s="27">
-        <f t="shared" ref="U16" si="22">U14+U15</f>
+        <f t="shared" ref="U16" si="24">U14+U15</f>
         <v>957.14700000000028</v>
       </c>
       <c r="V16" s="28">
-        <f t="shared" ref="V16:X16" si="23">V14+V15</f>
+        <f t="shared" ref="V16:Y16" si="25">V14+V15</f>
         <v>919</v>
       </c>
       <c r="W16" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
       <c r="X16" s="27">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>1060</v>
       </c>
-      <c r="Y16" s="53"/>
+      <c r="Y16" s="27">
+        <f t="shared" si="25"/>
+        <v>1197</v>
+      </c>
     </row>
     <row r="17" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="66" t="s">
         <v>14</v>
       </c>
       <c r="B17" s="23">
@@ -11486,39 +10996,45 @@
       <c r="X17" s="23">
         <v>105</v>
       </c>
-      <c r="Y17" s="23"/>
+      <c r="Y17" s="23">
+        <f>Y16*U25</f>
+        <v>131.66978739942763</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" s="48" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="48" t="s">
+    <row r="18" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="40"/>
-      <c r="P18" s="40"/>
-      <c r="Q18" s="40"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="40"/>
-      <c r="T18" s="40"/>
-      <c r="U18" s="40"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="40"/>
-      <c r="X18" s="40"/>
-      <c r="Y18" s="40"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="23"/>
+      <c r="X18" s="23"/>
+      <c r="Y18" s="23">
+        <f>-1053-Y17</f>
+        <v>-1184.6697873994276</v>
+      </c>
     </row>
     <row r="19" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="67" t="s">
         <v>15</v>
       </c>
       <c r="B19" s="24">
@@ -11542,179 +11058,185 @@
         <v>254.3069999999999</v>
       </c>
       <c r="G19" s="24">
-        <f t="shared" ref="G19:H19" si="24">G16-G17</f>
+        <f t="shared" ref="G19:H19" si="26">G16-G17</f>
         <v>244.07400000000004</v>
       </c>
       <c r="H19" s="24">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>270.78800000000001</v>
       </c>
       <c r="I19" s="24">
-        <f t="shared" ref="I19:O19" si="25">I16-I17</f>
+        <f t="shared" ref="I19:O19" si="27">I16-I17</f>
         <v>399.61299999999989</v>
       </c>
       <c r="J19" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>398.44600000000003</v>
       </c>
       <c r="K19" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>374.38999999999987</v>
       </c>
       <c r="L19" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>419.56900000000024</v>
       </c>
       <c r="M19" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>501.54899999999998</v>
       </c>
       <c r="N19" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>583.07600000000014</v>
       </c>
       <c r="O19" s="24">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>663.16700000000003</v>
       </c>
       <c r="P19" s="24">
-        <f t="shared" ref="P19:S19" si="26">P16-P17</f>
+        <f t="shared" ref="P19:S19" si="28">P16-P17</f>
         <v>666.29100000000017</v>
       </c>
       <c r="Q19" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>678.24000000000012</v>
       </c>
       <c r="R19" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>674.24100000000044</v>
       </c>
       <c r="S19" s="24">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>632.59300000000053</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" ref="T19:U19" si="27">T16-T17</f>
+        <f t="shared" ref="T19:U19" si="29">T16-T17</f>
         <v>792.76299999999947</v>
       </c>
       <c r="U19" s="24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>851.86100000000033</v>
       </c>
       <c r="V19" s="25">
-        <f t="shared" ref="V19:X19" si="28">V16-V17</f>
+        <f t="shared" ref="V19:Y19" si="30">V16-V17</f>
         <v>955</v>
       </c>
       <c r="W19" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>1100</v>
       </c>
       <c r="X19" s="24">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>955</v>
       </c>
-      <c r="Y19" s="52"/>
+      <c r="Y19" s="24">
+        <f t="shared" si="30"/>
+        <v>1065.3302126005724</v>
+      </c>
     </row>
     <row r="20" spans="1:25" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="65">
-        <f t="shared" ref="B20:H20" si="29">IFERROR(B19/B21,0)</f>
+      <c r="B20" s="60">
+        <f t="shared" ref="B20:H20" si="31">IFERROR(B19/B21,0)</f>
         <v>0.1672584261692999</v>
       </c>
-      <c r="C20" s="65">
-        <f t="shared" si="29"/>
+      <c r="C20" s="60">
+        <f t="shared" si="31"/>
         <v>0.29172913592651634</v>
       </c>
-      <c r="D20" s="65">
-        <f t="shared" si="29"/>
+      <c r="D20" s="60">
+        <f t="shared" si="31"/>
         <v>0.34492268820839461</v>
       </c>
-      <c r="E20" s="65">
+      <c r="E20" s="60">
         <f>IFERROR(E19/E21,0)</f>
         <v>0.44011802091649943</v>
       </c>
-      <c r="F20" s="66">
-        <f t="shared" si="29"/>
+      <c r="F20" s="61">
+        <f t="shared" si="31"/>
         <v>0.50290502218812028</v>
       </c>
-      <c r="G20" s="65">
-        <f t="shared" si="29"/>
+      <c r="G20" s="60">
+        <f t="shared" si="31"/>
         <v>0.48357818614096792</v>
       </c>
-      <c r="H20" s="65">
-        <f t="shared" si="29"/>
+      <c r="H20" s="60">
+        <f t="shared" si="31"/>
         <v>0.53763086471472343</v>
       </c>
-      <c r="I20" s="65">
-        <f t="shared" ref="I20:L20" si="30">IFERROR(I19/I21,0)</f>
+      <c r="I20" s="60">
+        <f t="shared" ref="I20:L20" si="32">IFERROR(I19/I21,0)</f>
         <v>0.79735063131514661</v>
       </c>
-      <c r="J20" s="66">
-        <f t="shared" si="30"/>
+      <c r="J20" s="61">
+        <f t="shared" si="32"/>
         <v>0.79552211092498726</v>
       </c>
-      <c r="K20" s="65">
-        <f t="shared" si="30"/>
+      <c r="K20" s="60">
+        <f t="shared" si="32"/>
         <v>0.74825472518292135</v>
       </c>
-      <c r="L20" s="65">
-        <f t="shared" si="30"/>
+      <c r="L20" s="60">
+        <f t="shared" si="32"/>
         <v>0.83847057742037379</v>
       </c>
-      <c r="M20" s="65">
-        <f t="shared" ref="M20" si="31">IFERROR(M19/M21,0)</f>
+      <c r="M20" s="60">
+        <f t="shared" ref="M20" si="33">IFERROR(M19/M21,0)</f>
         <v>1.002977642682878</v>
       </c>
-      <c r="N20" s="66">
-        <f t="shared" ref="N20:S20" si="32">IFERROR(N19/N21,0)</f>
+      <c r="N20" s="61">
+        <f t="shared" ref="N20:S20" si="34">IFERROR(N19/N21,0)</f>
         <v>1.1674759176906615</v>
       </c>
-      <c r="O20" s="65">
-        <f t="shared" si="32"/>
+      <c r="O20" s="60">
+        <f t="shared" si="34"/>
         <v>1.330987131010011</v>
       </c>
-      <c r="P20" s="65">
-        <f t="shared" si="32"/>
+      <c r="P20" s="60">
+        <f t="shared" si="34"/>
         <v>1.3409873084493609</v>
       </c>
-      <c r="Q20" s="65">
-        <f t="shared" si="32"/>
+      <c r="Q20" s="60">
+        <f t="shared" si="34"/>
         <v>1.3696616234642198</v>
       </c>
-      <c r="R20" s="66">
-        <f t="shared" si="32"/>
+      <c r="R20" s="61">
+        <f t="shared" si="34"/>
         <v>1.3643411009575312</v>
       </c>
-      <c r="S20" s="65">
-        <f t="shared" si="32"/>
+      <c r="S20" s="60">
+        <f t="shared" si="34"/>
         <v>1.2852043428441415</v>
       </c>
-      <c r="T20" s="65">
-        <f t="shared" ref="T20:U20" si="33">IFERROR(T19/T21,0)</f>
+      <c r="T20" s="60">
+        <f t="shared" ref="T20:U20" si="35">IFERROR(T19/T21,0)</f>
         <v>1.6144504950696672</v>
       </c>
-      <c r="U20" s="65">
-        <f t="shared" si="33"/>
+      <c r="U20" s="60">
+        <f t="shared" si="35"/>
         <v>1.7425780043407917</v>
       </c>
-      <c r="V20" s="66">
-        <f t="shared" ref="V20:X20" si="34">IFERROR(V19/V21,0)</f>
+      <c r="V20" s="61">
+        <f t="shared" ref="V20:Y20" si="36">IFERROR(V19/V21,0)</f>
         <v>1.9569672131147542</v>
       </c>
-      <c r="W20" s="65">
-        <f t="shared" si="34"/>
+      <c r="W20" s="60">
+        <f t="shared" si="36"/>
         <v>2.268041237113402</v>
       </c>
-      <c r="X20" s="65">
-        <f t="shared" si="34"/>
+      <c r="X20" s="60">
+        <f t="shared" si="36"/>
         <v>1.9690721649484537</v>
       </c>
-      <c r="Y20" s="67"/>
+      <c r="Y20" s="60">
+        <f t="shared" si="36"/>
+        <v>2.2010954805796952</v>
+      </c>
     </row>
     <row r="21" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B21" s="23">
@@ -11771,24 +11293,27 @@
       <c r="S21" s="23">
         <v>492.21199999999999</v>
       </c>
-      <c r="T21" s="53">
+      <c r="T21" s="51">
         <v>491.04199999999997</v>
       </c>
-      <c r="U21" s="53">
+      <c r="U21" s="51">
         <v>488.851</v>
       </c>
       <c r="V21" s="22">
         <v>488</v>
       </c>
-      <c r="W21" s="53">
+      <c r="W21" s="51">
         <v>485</v>
       </c>
-      <c r="X21" s="53">
+      <c r="X21" s="51">
         <v>485</v>
       </c>
-      <c r="Y21" s="53"/>
+      <c r="Y21" s="51">
+        <v>484</v>
+      </c>
     </row>
     <row r="22" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="69"/>
       <c r="B22" s="40"/>
       <c r="C22" s="40"/>
       <c r="D22" s="40"/>
@@ -11801,306 +11326,316 @@
       <c r="K22" s="40"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
-      <c r="N22" s="59"/>
+      <c r="N22" s="57"/>
       <c r="Q22" s="40"/>
-      <c r="R22" s="59"/>
-      <c r="V22" s="59"/>
+      <c r="R22" s="57"/>
+      <c r="V22" s="57"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="70" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="34">
-        <f t="shared" ref="B23:Q23" si="35">IFERROR(B9/B7,0)</f>
+        <f t="shared" ref="B23:Q23" si="37">IFERROR(B9/B7,0)</f>
         <v>0.84962057590240003</v>
       </c>
       <c r="C23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.8406645223799174</v>
       </c>
       <c r="D23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.84316799258972142</v>
       </c>
       <c r="E23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.84586620984014127</v>
       </c>
       <c r="F23" s="35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.85645414885042304</v>
       </c>
       <c r="G23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.85552463021257463</v>
       </c>
       <c r="H23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.86153991176030609</v>
       </c>
       <c r="I23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.86536095383106015</v>
       </c>
       <c r="J23" s="35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.8588662536586178</v>
       </c>
       <c r="K23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.86493547531585202</v>
       </c>
       <c r="L23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.85719096570805953</v>
       </c>
       <c r="M23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.86500913238595722</v>
       </c>
       <c r="N23" s="35">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.87546483868997138</v>
       </c>
       <c r="O23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.87184607535893888</v>
       </c>
       <c r="P23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.87102479359043528</v>
       </c>
       <c r="Q23" s="34">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>0.85423299690622312</v>
       </c>
       <c r="R23" s="35">
-        <f t="shared" ref="R23:S23" si="36">IFERROR(R9/R7,0)</f>
+        <f t="shared" ref="R23:S23" si="38">IFERROR(R9/R7,0)</f>
         <v>0.8472532686184181</v>
       </c>
       <c r="S23" s="34">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>0.85151369393793641</v>
       </c>
       <c r="T23" s="34">
-        <f t="shared" ref="T23:V23" si="37">IFERROR(T9/T7,0)</f>
+        <f t="shared" ref="T23:V23" si="39">IFERROR(T9/T7,0)</f>
         <v>0.85323059031249837</v>
       </c>
       <c r="U23" s="34">
-        <f t="shared" ref="U23" si="38">IFERROR(U9/U7,0)</f>
+        <f t="shared" ref="U23" si="40">IFERROR(U9/U7,0)</f>
         <v>0.8489333356506672</v>
       </c>
       <c r="V23" s="35">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>0.85376900679391787</v>
       </c>
       <c r="W23" s="34">
-        <f t="shared" ref="W23:X23" si="39">IFERROR(W9/W7,0)</f>
+        <f t="shared" ref="W23:X23" si="41">IFERROR(W9/W7,0)</f>
         <v>0.86732736572890023</v>
       </c>
       <c r="X23" s="34">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.86759689922480621</v>
       </c>
-      <c r="Y23" s="34"/>
+      <c r="Y23" s="34">
+        <f t="shared" ref="Y23" si="42">IFERROR(Y9/Y7,0)</f>
+        <v>0.875</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="70" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="36">
-        <f t="shared" ref="B24:Q24" si="40">IFERROR(B14/B7,0)</f>
+        <f t="shared" ref="B24:Q24" si="43">IFERROR(B14/B7,0)</f>
         <v>0.15599347626762455</v>
       </c>
       <c r="C24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.16660127108362199</v>
       </c>
       <c r="D24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.2020245235545686</v>
       </c>
       <c r="E24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.22231560834167668</v>
       </c>
       <c r="F24" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.22247539460795823</v>
       </c>
       <c r="G24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.24611195037709774</v>
       </c>
       <c r="H24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.25227686143198585</v>
       </c>
       <c r="I24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.29362995587592527</v>
       </c>
       <c r="J24" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.27889282286521661</v>
       </c>
       <c r="K24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.2844401559652181</v>
       </c>
       <c r="L24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.29638895557701656</v>
       </c>
       <c r="M24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.32360291937336627</v>
       </c>
       <c r="N24" s="37">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.33802352825733417</v>
       </c>
       <c r="O24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.31816376357408349</v>
       </c>
       <c r="P24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.31365437026096044</v>
       </c>
       <c r="Q24" s="36">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.29235522645432876</v>
       </c>
       <c r="R24" s="37">
-        <f t="shared" ref="R24:S24" si="41">IFERROR(R14/R7,0)</f>
+        <f t="shared" ref="R24:S24" si="44">IFERROR(R14/R7,0)</f>
         <v>0.26714510797225327</v>
       </c>
       <c r="S24" s="36">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.27313065722156649</v>
       </c>
       <c r="T24" s="36">
-        <f t="shared" ref="T24:V24" si="42">IFERROR(T14/T7,0)</f>
+        <f t="shared" ref="T24:V24" si="45">IFERROR(T14/T7,0)</f>
         <v>0.301261129533408</v>
       </c>
       <c r="U24" s="36">
-        <f t="shared" ref="U24" si="43">IFERROR(U14/U7,0)</f>
+        <f t="shared" ref="U24" si="46">IFERROR(U14/U7,0)</f>
         <v>0.32418086702157534</v>
       </c>
       <c r="V24" s="37">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>0.30313814299579422</v>
       </c>
       <c r="W24" s="36">
-        <f t="shared" ref="W24:X24" si="44">IFERROR(W14/W7,0)</f>
+        <f t="shared" ref="W24:X24" si="47">IFERROR(W14/W7,0)</f>
         <v>0.32480818414322249</v>
       </c>
       <c r="X24" s="36">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>0.33147286821705424</v>
       </c>
-      <c r="Y24" s="36"/>
+      <c r="Y24" s="36">
+        <f t="shared" ref="Y24" si="48">IFERROR(Y14/Y7,0)</f>
+        <v>0.35484813084112149</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="70" t="s">
         <v>21</v>
       </c>
       <c r="B25" s="36">
-        <f t="shared" ref="B25:Q25" si="45">IFERROR(B17/B16,0)</f>
+        <f t="shared" ref="B25:Q25" si="49">IFERROR(B17/B16,0)</f>
         <v>0.48000588062334576</v>
       </c>
       <c r="C25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.18500447578105148</v>
       </c>
       <c r="D25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.24999677584376181</v>
       </c>
       <c r="E25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.25000000000000022</v>
       </c>
       <c r="F25" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.1300003078954661</v>
       </c>
       <c r="G25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.26000060637298</v>
       </c>
       <c r="H25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.24000213302797352</v>
       </c>
       <c r="I25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.12499890518940228</v>
       </c>
       <c r="J25" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.13500147623265427</v>
       </c>
       <c r="K25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.23999935040944509</v>
       </c>
       <c r="L25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.22499949203792527</v>
       </c>
       <c r="M25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.22000055986513473</v>
       </c>
       <c r="N25" s="37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>0.17000093949910458</v>
       </c>
       <c r="O25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>4.0000057903963382E-2</v>
       </c>
       <c r="P25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>4.999871677517044E-2</v>
       </c>
       <c r="Q25" s="36">
-        <f t="shared" si="45"/>
+        <f t="shared" si="49"/>
         <v>3.0000700783876819E-2</v>
       </c>
       <c r="R25" s="37">
-        <f t="shared" ref="R25:S25" si="46">IFERROR(R17/R16,0)</f>
+        <f t="shared" ref="R25:S25" si="50">IFERROR(R17/R16,0)</f>
         <v>3.9999487423362651E-2</v>
       </c>
       <c r="S25" s="36">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0.10999167102812146</v>
       </c>
       <c r="T25" s="36">
-        <f t="shared" ref="T25:V25" si="47">IFERROR(T17/T16,0)</f>
+        <f t="shared" ref="T25:V25" si="51">IFERROR(T17/T16,0)</f>
         <v>5.0000719003748438E-2</v>
       </c>
       <c r="U25" s="36">
-        <f t="shared" ref="U25" si="48">IFERROR(U17/U16,0)</f>
+        <f t="shared" ref="U25" si="52">IFERROR(U17/U16,0)</f>
         <v>0.10999982238882844</v>
       </c>
       <c r="V25" s="37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>-3.9173014145810661E-2</v>
       </c>
       <c r="W25" s="36">
-        <f t="shared" ref="W25:X25" si="49">IFERROR(W17/W16,0)</f>
+        <f t="shared" ref="W25:X25" si="53">IFERROR(W17/W16,0)</f>
         <v>-0.1</v>
       </c>
       <c r="X25" s="36">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9.9056603773584911E-2</v>
       </c>
-      <c r="Y25" s="36"/>
+      <c r="Y25" s="36">
+        <f t="shared" ref="Y25" si="54">IFERROR(Y17/Y16,0)</f>
+        <v>0.10999982238882844</v>
+      </c>
     </row>
     <row r="26" spans="1:25" s="42" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="69"/>
       <c r="B26" s="40"/>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -12113,13 +11648,13 @@
       <c r="K26" s="40"/>
       <c r="L26" s="40"/>
       <c r="M26" s="40"/>
-      <c r="N26" s="59"/>
+      <c r="N26" s="57"/>
       <c r="Q26" s="40"/>
-      <c r="R26" s="59"/>
-      <c r="V26" s="59"/>
+      <c r="R26" s="57"/>
+      <c r="V26" s="57"/>
     </row>
     <row r="27" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="71" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="30"/>
@@ -12127,88 +11662,88 @@
       <c r="D27" s="30"/>
       <c r="E27" s="30"/>
       <c r="F27" s="31">
-        <f t="shared" ref="F27:Y27" si="50">IFERROR((F7/B7)-1,0)</f>
+        <f t="shared" ref="F27:Y27" si="55">IFERROR((F7/B7)-1,0)</f>
         <v>0.24716795545542158</v>
       </c>
       <c r="G27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.20354461269465962</v>
       </c>
       <c r="H27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.20217233496035369</v>
       </c>
       <c r="I27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.23118040054990652</v>
       </c>
       <c r="J27" s="31">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.21564624620934181</v>
       </c>
       <c r="K27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.26701837194155464</v>
       </c>
       <c r="L27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.2575925550234397</v>
       </c>
       <c r="M27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.24755738399011706</v>
       </c>
       <c r="N27" s="31">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.2362572146575439</v>
       </c>
       <c r="O27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.23878365186577066</v>
       </c>
       <c r="P27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.24442363533459277</v>
       </c>
       <c r="Q27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.22826230504910061</v>
       </c>
       <c r="R27" s="31">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.25108817107891657</v>
       </c>
       <c r="S27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.25003644049267537</v>
       </c>
       <c r="T27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.23702836571113295</v>
       </c>
       <c r="U27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.21395506415783361</v>
       </c>
       <c r="V27" s="31">
-        <f t="shared" ref="V27" si="51">IFERROR((V7/R7)-1,0)</f>
+        <f t="shared" ref="V27" si="56">IFERROR((V7/R7)-1,0)</f>
         <v>0.18841375407255656</v>
       </c>
       <c r="W27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.13982538224962449</v>
       </c>
       <c r="X27" s="30">
-        <f t="shared" si="50"/>
+        <f t="shared" si="55"/>
         <v>0.13791694511817765</v>
       </c>
       <c r="Y27" s="30">
-        <f t="shared" si="50"/>
-        <v>0.11967336287042785</v>
+        <f t="shared" si="55"/>
+        <v>0.14440644610995368</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="70" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="32"/>
@@ -12216,85 +11751,88 @@
       <c r="D28" s="32"/>
       <c r="E28" s="32"/>
       <c r="F28" s="33">
-        <f t="shared" ref="F28:X31" si="52">F10/B10-1</f>
+        <f t="shared" ref="F28:Y31" si="57">F10/B10-1</f>
         <v>0.10066864956915955</v>
       </c>
       <c r="G28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.11745903569866423</v>
       </c>
       <c r="H28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.13623890972285735</v>
       </c>
       <c r="I28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.16930897811476808</v>
       </c>
       <c r="J28" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.20182206033625061</v>
       </c>
       <c r="K28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.28783486175392725</v>
       </c>
       <c r="L28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.27009458643590278</v>
       </c>
       <c r="M28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.25665021000663191</v>
       </c>
       <c r="N28" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22342033906628744</v>
       </c>
       <c r="O28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.24958834472830738</v>
       </c>
       <c r="P28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.26430257799749635</v>
       </c>
       <c r="Q28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.28371797324906023</v>
       </c>
       <c r="R28" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.33221989339648883</v>
       </c>
       <c r="S28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.27217957490484546</v>
       </c>
       <c r="T28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22776890742611355</v>
       </c>
       <c r="U28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.20157804393712819</v>
       </c>
       <c r="V28" s="33">
-        <f t="shared" ref="V28:V30" si="53">V10/R10-1</f>
+        <f t="shared" ref="V28:V30" si="58">V10/R10-1</f>
         <v>0.14497984448074508</v>
       </c>
       <c r="W28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.11774568344265668</v>
       </c>
       <c r="X28" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.15551000659416481</v>
       </c>
-      <c r="Y28" s="32"/>
+      <c r="Y28" s="32">
+        <f t="shared" si="57"/>
+        <v>0.11643317607231607</v>
+      </c>
     </row>
     <row r="29" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="70" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="32"/>
@@ -12302,85 +11840,88 @@
       <c r="D29" s="32"/>
       <c r="E29" s="32"/>
       <c r="F29" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.20917092944204962</v>
       </c>
       <c r="G29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>8.3820064730982358E-2</v>
       </c>
       <c r="H29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.13137423554193894</v>
       </c>
       <c r="I29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.12134404899970996</v>
       </c>
       <c r="J29" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>9.5613519734002228E-2</v>
       </c>
       <c r="K29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.19514076609426745</v>
       </c>
       <c r="L29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.15208754385046319</v>
       </c>
       <c r="M29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.15970766116814339</v>
       </c>
       <c r="N29" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.11658725689365879</v>
       </c>
       <c r="O29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.16835533666728164</v>
       </c>
       <c r="P29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.21812857098708771</v>
       </c>
       <c r="Q29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.2603517829522175</v>
       </c>
       <c r="R29" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.34522520599631301</v>
       </c>
       <c r="S29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.31369126374349099</v>
       </c>
       <c r="T29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.21225697076784411</v>
       </c>
       <c r="U29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.10781911431189384</v>
       </c>
       <c r="V29" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>9.6583827883682805E-2</v>
       </c>
       <c r="W29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>6.1339785399686875E-2</v>
       </c>
       <c r="X29" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>9.8097533712332874E-2</v>
       </c>
-      <c r="Y29" s="32"/>
+      <c r="Y29" s="32">
+        <f t="shared" si="57"/>
+        <v>0.17391976925802277</v>
+      </c>
     </row>
     <row r="30" spans="1:25" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="70" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="32"/>
@@ -12388,113 +11929,116 @@
       <c r="D30" s="32"/>
       <c r="E30" s="32"/>
       <c r="F30" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>2.3599076395958152E-2</v>
       </c>
       <c r="G30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>5.9296265582546415E-2</v>
       </c>
       <c r="H30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.18521056877485309</v>
       </c>
       <c r="I30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>9.218138812629828E-2</v>
       </c>
       <c r="J30" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>3.0477230004244626E-2</v>
       </c>
       <c r="K30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.12176198780534375</v>
       </c>
       <c r="L30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>4.9031418658440629E-3</v>
       </c>
       <c r="M30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.12934633935641782</v>
       </c>
       <c r="N30" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.10386263063741663</v>
       </c>
       <c r="O30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.10746160261902205</v>
       </c>
       <c r="P30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.24640052748306651</v>
       </c>
       <c r="Q30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.30296462738973595</v>
       </c>
       <c r="R30" s="33">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.40029106649749968</v>
       </c>
       <c r="S30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.34413312225586501</v>
       </c>
       <c r="T30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.26100693960189858</v>
       </c>
       <c r="U30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>9.5190531907520581E-2</v>
       </c>
       <c r="V30" s="33">
-        <f t="shared" si="53"/>
+        <f t="shared" si="58"/>
         <v>0.19158656134005891</v>
       </c>
       <c r="W30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>6.2509528891598887E-3</v>
       </c>
       <c r="X30" s="32">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>3.3522748941688052E-2</v>
       </c>
-      <c r="Y30" s="32"/>
+      <c r="Y30" s="32">
+        <f t="shared" si="57"/>
+        <v>4.9747613871558682E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="70" t="s">
         <v>82</v>
       </c>
       <c r="J31" s="35">
-        <f t="shared" ref="J31:P31" si="54">J13/F13-1</f>
+        <f t="shared" ref="J31:P31" si="59">J13/F13-1</f>
         <v>0.11209172125586497</v>
       </c>
       <c r="K31" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.20689683490323096</v>
       </c>
       <c r="L31" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.15756311235832832</v>
       </c>
       <c r="M31" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.18138656325747649</v>
       </c>
       <c r="N31" s="35">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.14559678461207204</v>
       </c>
       <c r="O31" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.18156438700245348</v>
       </c>
       <c r="P31" s="34">
-        <f t="shared" si="54"/>
+        <f t="shared" si="59"/>
         <v>0.23680891989950403</v>
       </c>
       <c r="Q31" s="34">
@@ -12506,15 +12050,15 @@
         <v>0.35041062836521952</v>
       </c>
       <c r="S31" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.30580272670731801</v>
       </c>
       <c r="T31" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.22504146508397183</v>
       </c>
       <c r="U31" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.13374465092163734</v>
       </c>
       <c r="V31" s="35">
@@ -12522,14 +12066,17 @@
         <v>0.12802635154391151</v>
       </c>
       <c r="W31" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>6.9148115130304388E-2</v>
       </c>
       <c r="X31" s="34">
-        <f t="shared" si="52"/>
+        <f t="shared" si="57"/>
         <v>0.10525067583937364</v>
       </c>
-      <c r="Y31" s="34"/>
+      <c r="Y31" s="34">
+        <f t="shared" si="57"/>
+        <v>0.13437322853703426</v>
+      </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.15">
       <c r="J32" s="46"/>
@@ -12543,7 +12090,7 @@
       <c r="S32" s="45"/>
     </row>
     <row r="33" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="67" t="s">
         <v>26</v>
       </c>
       <c r="B33" s="23"/>
@@ -12557,64 +12104,67 @@
       <c r="G33" s="23"/>
       <c r="H33" s="23"/>
       <c r="I33" s="24">
-        <f t="shared" ref="I33" si="55">I34-I35</f>
+        <f t="shared" ref="I33" si="60">I34-I35</f>
         <v>2859.232</v>
       </c>
       <c r="J33" s="22"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="24">
-        <f t="shared" ref="M33:P33" si="56">M34-M35</f>
+        <f t="shared" ref="M33:P33" si="61">M34-M35</f>
         <v>3938.3530000000001</v>
       </c>
       <c r="N33" s="25">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>4273.1760000000004</v>
       </c>
       <c r="O33" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>4460.0070000000005</v>
       </c>
       <c r="P33" s="24">
-        <f t="shared" si="56"/>
+        <f t="shared" si="61"/>
         <v>3069.8160000000003</v>
       </c>
       <c r="Q33" s="24">
-        <f t="shared" ref="Q33:S33" si="57">Q34-Q35</f>
+        <f t="shared" ref="Q33:S33" si="62">Q34-Q35</f>
         <v>-895.83800000000019</v>
       </c>
       <c r="R33" s="25">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-903.33000000000038</v>
       </c>
       <c r="S33" s="24">
-        <f t="shared" si="57"/>
+        <f t="shared" si="62"/>
         <v>-654.62699999999995</v>
       </c>
       <c r="T33" s="24">
-        <f t="shared" ref="T33" si="58">T34-T35</f>
+        <f t="shared" ref="T33" si="63">T34-T35</f>
         <v>-486.22799999999961</v>
       </c>
       <c r="U33" s="24">
-        <f t="shared" ref="U33" si="59">U34-U35</f>
+        <f t="shared" ref="U33" si="64">U34-U35</f>
         <v>38.709000000000742</v>
       </c>
       <c r="V33" s="25">
-        <f t="shared" ref="V33:X33" si="60">V34-V35</f>
+        <f t="shared" ref="V33:Y33" si="65">V34-V35</f>
         <v>58</v>
       </c>
       <c r="W33" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>237</v>
       </c>
       <c r="X33" s="24">
-        <f t="shared" si="60"/>
+        <f t="shared" si="65"/>
         <v>1148</v>
       </c>
-      <c r="Y33" s="47"/>
+      <c r="Y33" s="24">
+        <f t="shared" si="65"/>
+        <v>1875</v>
+      </c>
     </row>
     <row r="34" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="66" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="23"/>
@@ -12682,10 +12232,13 @@
         <f>3767+1497</f>
         <v>5264</v>
       </c>
-      <c r="Y34" s="23"/>
+      <c r="Y34" s="23">
+        <f>4478+1514</f>
+        <v>5992</v>
+      </c>
     </row>
     <row r="35" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="66" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="23"/>
@@ -12743,9 +12296,12 @@
       <c r="X35" s="23">
         <v>4116</v>
       </c>
-      <c r="Y35" s="23"/>
+      <c r="Y35" s="23">
+        <v>4117</v>
+      </c>
     </row>
     <row r="36" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="66"/>
       <c r="B36" s="23"/>
       <c r="C36" s="23"/>
       <c r="D36" s="23"/>
@@ -12772,7 +12328,7 @@
       <c r="Y36" s="23"/>
     </row>
     <row r="37" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="72" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="23"/>
@@ -12840,10 +12396,13 @@
         <f>10739+1445</f>
         <v>12184</v>
       </c>
-      <c r="Y37" s="23"/>
+      <c r="Y37" s="23">
+        <f>10742+1359</f>
+        <v>12101</v>
+      </c>
     </row>
     <row r="38" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68" t="s">
+      <c r="A38" s="72" t="s">
         <v>57</v>
       </c>
       <c r="B38" s="23"/>
@@ -12897,10 +12456,12 @@
       <c r="X38" s="23">
         <v>22414</v>
       </c>
-      <c r="Y38" s="23"/>
+      <c r="Y38" s="23">
+        <v>24284</v>
+      </c>
     </row>
     <row r="39" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68" t="s">
+      <c r="A39" s="72" t="s">
         <v>58</v>
       </c>
       <c r="B39" s="23"/>
@@ -12954,9 +12515,12 @@
       <c r="X39" s="23">
         <v>10701</v>
       </c>
-      <c r="Y39" s="23"/>
+      <c r="Y39" s="23">
+        <v>11020</v>
+      </c>
     </row>
     <row r="40" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="66"/>
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
@@ -12983,7 +12547,7 @@
       <c r="Y40" s="23"/>
     </row>
     <row r="41" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="68" t="s">
+      <c r="A41" s="72" t="s">
         <v>59</v>
       </c>
       <c r="B41" s="23"/>
@@ -12997,64 +12561,67 @@
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="27">
-        <f t="shared" ref="I41:O41" si="61">I38-I34-I37</f>
+        <f t="shared" ref="I41:O41" si="66">I38-I34-I37</f>
         <v>2124.9349999999995</v>
       </c>
       <c r="J41" s="22"/>
       <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>2508.5629999999992</v>
       </c>
       <c r="N41" s="28">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>2627.8759999999993</v>
       </c>
       <c r="O41" s="27">
-        <f t="shared" si="61"/>
+        <f t="shared" si="66"/>
         <v>2685.0699999999997</v>
       </c>
       <c r="P41" s="27">
-        <f t="shared" ref="P41:V41" si="62">P38-P34-P37</f>
+        <f t="shared" ref="P41:V41" si="67">P38-P34-P37</f>
         <v>2644.8210000000017</v>
       </c>
       <c r="Q41" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>2889.6710000000003</v>
       </c>
       <c r="R41" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>3554.4610000000011</v>
       </c>
       <c r="S41" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>3571.9070000000011</v>
       </c>
       <c r="T41" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>3900.3990000000013</v>
       </c>
       <c r="U41" s="27">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>4173.659999999998</v>
       </c>
       <c r="V41" s="28">
-        <f t="shared" si="62"/>
+        <f t="shared" si="67"/>
         <v>4726</v>
       </c>
       <c r="W41" s="27">
-        <f t="shared" ref="W41:X41" si="63">W38-W34-W37</f>
+        <f t="shared" ref="W41:X41" si="68">W38-W34-W37</f>
         <v>5022</v>
       </c>
       <c r="X41" s="27">
-        <f t="shared" si="63"/>
+        <f t="shared" si="68"/>
         <v>4966</v>
       </c>
-      <c r="Y41" s="23"/>
+      <c r="Y41" s="27">
+        <f t="shared" ref="Y41" si="69">Y38-Y34-Y37</f>
+        <v>6191</v>
+      </c>
     </row>
     <row r="42" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="72" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="23"/>
@@ -13075,31 +12642,31 @@
       <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="27">
-        <f t="shared" ref="M42:P42" si="64">M38-M39</f>
+        <f t="shared" ref="M42:P42" si="70">M38-M39</f>
         <v>8459.8690000000006</v>
       </c>
       <c r="N42" s="28">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>8634.0280000000002</v>
       </c>
       <c r="O42" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>8705.5830000000005</v>
       </c>
       <c r="P42" s="27">
-        <f t="shared" si="64"/>
+        <f t="shared" si="70"/>
         <v>8861.9250000000011</v>
       </c>
       <c r="Q42" s="27">
-        <f t="shared" ref="Q42:S42" si="65">Q38-Q39</f>
+        <f t="shared" ref="Q42:S42" si="71">Q38-Q39</f>
         <v>9362.1140000000014</v>
       </c>
       <c r="R42" s="28">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>9871.4850000000006</v>
       </c>
       <c r="S42" s="27">
-        <f t="shared" si="65"/>
+        <f t="shared" si="71"/>
         <v>9931.6929999999993</v>
       </c>
       <c r="T42" s="27">
@@ -13111,7 +12678,7 @@
         <v>10530.155000000001</v>
       </c>
       <c r="V42" s="28">
-        <f t="shared" ref="V42" si="66">V38-V39</f>
+        <f t="shared" ref="V42" si="72">V38-V39</f>
         <v>10465</v>
       </c>
       <c r="W42" s="27">
@@ -13122,9 +12689,13 @@
         <f>X38-X39</f>
         <v>11713</v>
       </c>
-      <c r="Y42" s="23"/>
+      <c r="Y42" s="27">
+        <f>Y38-Y39</f>
+        <v>13264</v>
+      </c>
     </row>
     <row r="43" spans="1:25" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="66"/>
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
@@ -13151,7 +12722,7 @@
       <c r="Y43" s="23"/>
     </row>
     <row r="44" spans="1:25" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="69" t="s">
+      <c r="A44" s="73" t="s">
         <v>61</v>
       </c>
       <c r="B44" s="47"/>
@@ -13172,43 +12743,43 @@
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
       <c r="M44" s="24">
-        <f t="shared" ref="M44:U44" si="67">SUM(J19:M19)</f>
+        <f t="shared" ref="M44:U44" si="73">SUM(J19:M19)</f>
         <v>1693.9540000000002</v>
       </c>
       <c r="N44" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>1878.5840000000003</v>
       </c>
       <c r="O44" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2167.3610000000003</v>
       </c>
       <c r="P44" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2414.0830000000001</v>
       </c>
       <c r="Q44" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2590.7740000000003</v>
       </c>
       <c r="R44" s="25">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2681.9390000000008</v>
       </c>
       <c r="S44" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2651.3650000000016</v>
       </c>
       <c r="T44" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2777.8370000000004</v>
       </c>
       <c r="U44" s="24">
-        <f t="shared" si="67"/>
+        <f t="shared" si="73"/>
         <v>2951.458000000001</v>
       </c>
       <c r="V44" s="25">
-        <f t="shared" ref="V44" si="68">SUM(S19:V19)</f>
+        <f t="shared" ref="V44" si="74">SUM(S19:V19)</f>
         <v>3232.2170000000006</v>
       </c>
       <c r="W44" s="24">
@@ -13219,10 +12790,13 @@
         <f>SUM(U19:X19)</f>
         <v>3861.8610000000003</v>
       </c>
-      <c r="Y44" s="47"/>
+      <c r="Y44" s="24">
+        <f>SUM(V19:Y19)</f>
+        <v>4075.3302126005724</v>
+      </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="74" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="34">
@@ -13230,63 +12804,67 @@
         <v>3.1807820520511045E-2</v>
       </c>
       <c r="I45" s="34">
-        <f t="shared" ref="I45:O45" si="69">I44/I42</f>
+        <f t="shared" ref="I45:O45" si="75">I44/I42</f>
         <v>0.15741521528761246</v>
       </c>
       <c r="J45" s="22"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
       <c r="M45" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.2002340698183388</v>
       </c>
       <c r="N45" s="35">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.21757909518014074</v>
       </c>
       <c r="O45" s="34">
-        <f t="shared" si="69"/>
+        <f t="shared" si="75"/>
         <v>0.2489621889768899</v>
       </c>
       <c r="P45" s="34">
-        <f t="shared" ref="P45:V45" si="70">P44/P42</f>
+        <f t="shared" ref="P45:V45" si="76">P44/P42</f>
         <v>0.27241067826685511</v>
       </c>
       <c r="Q45" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.27672959333757313</v>
       </c>
       <c r="R45" s="35">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.27168546576325653</v>
       </c>
       <c r="S45" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.2669600238348086</v>
       </c>
       <c r="T45" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.2711997034396838</v>
       </c>
       <c r="U45" s="34">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.28028628258558402</v>
       </c>
       <c r="V45" s="35">
-        <f t="shared" si="70"/>
+        <f t="shared" si="76"/>
         <v>0.30885972288580987</v>
       </c>
       <c r="W45" s="34">
-        <f t="shared" ref="W45:X45" si="71">W44/W42</f>
+        <f t="shared" ref="W45:X45" si="77">W44/W42</f>
         <v>0.34000771987868761</v>
       </c>
       <c r="X45" s="34">
-        <f t="shared" si="71"/>
+        <f t="shared" si="77"/>
         <v>0.32970724835652698</v>
+      </c>
+      <c r="Y45" s="34">
+        <f t="shared" ref="Y45" si="78">Y44/Y42</f>
+        <v>0.30724745269907816</v>
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A46" s="18" t="s">
+      <c r="A46" s="74" t="s">
         <v>63</v>
       </c>
       <c r="E46" s="34">
@@ -13294,63 +12872,67 @@
         <v>1.899164556910209E-2</v>
       </c>
       <c r="I46" s="34">
-        <f t="shared" ref="I46:O46" si="72">I44/I38</f>
+        <f t="shared" ref="I46:O46" si="79">I44/I38</f>
         <v>9.1978556263837719E-2</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
       <c r="M46" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.11653864496136233</v>
       </c>
       <c r="N46" s="35">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.12546070604137916</v>
       </c>
       <c r="O46" s="34">
-        <f t="shared" si="72"/>
+        <f t="shared" si="79"/>
         <v>0.14293367109390478</v>
       </c>
       <c r="P46" s="34">
-        <f t="shared" ref="P46:V46" si="73">P44/P38</f>
+        <f t="shared" ref="P46:V46" si="80">P44/P38</f>
         <v>0.15680323364697232</v>
       </c>
       <c r="Q46" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.13803707687092787</v>
       </c>
       <c r="R46" s="35">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.1374962984867476</v>
       </c>
       <c r="S46" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.13482036350315674</v>
       </c>
       <c r="T46" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.13851177369298645</v>
       </c>
       <c r="U46" s="34">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.142153989904828</v>
       </c>
       <c r="V46" s="35">
-        <f t="shared" si="73"/>
+        <f t="shared" si="80"/>
         <v>0.15236244932591686</v>
       </c>
       <c r="W46" s="34">
-        <f t="shared" ref="W46:X46" si="74">W44/W38</f>
+        <f t="shared" ref="W46:X46" si="81">W44/W38</f>
         <v>0.17125510345785305</v>
       </c>
       <c r="X46" s="34">
-        <f t="shared" si="74"/>
+        <f t="shared" si="81"/>
         <v>0.17229682341393773</v>
+      </c>
+      <c r="Y46" s="34">
+        <f t="shared" ref="Y46" si="82">Y44/Y38</f>
+        <v>0.16781956072313345</v>
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A47" s="18" t="s">
+      <c r="A47" s="74" t="s">
         <v>64</v>
       </c>
       <c r="E47" s="34">
@@ -13358,63 +12940,67 @@
         <v>0.19801421189089963</v>
       </c>
       <c r="I47" s="34">
-        <f t="shared" ref="I47:O47" si="75">I44/(I42-I37)</f>
+        <f t="shared" ref="I47:O47" si="83">I44/(I42-I37)</f>
         <v>0.72868707121641774</v>
       </c>
       <c r="J47" s="22"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
       <c r="M47" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0.75198277584178619</v>
       </c>
       <c r="N47" s="35">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0.77105257001242422</v>
       </c>
       <c r="O47" s="34">
-        <f t="shared" si="75"/>
+        <f t="shared" si="83"/>
         <v>0.84619138699565433</v>
       </c>
       <c r="P47" s="34">
-        <f t="shared" ref="P47:V47" si="76">P44/(P42-P37)</f>
+        <f t="shared" ref="P47:V47" si="84">P44/(P42-P37)</f>
         <v>2.2869383741507137</v>
       </c>
       <c r="Q47" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-0.78796387398169387</v>
       </c>
       <c r="R47" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-0.9399320023285056</v>
       </c>
       <c r="S47" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-0.98808756284169363</v>
       </c>
       <c r="T47" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-1.2286312651487017</v>
       </c>
       <c r="U47" s="34">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-1.5685819955155405</v>
       </c>
       <c r="V47" s="35">
-        <f t="shared" si="76"/>
+        <f t="shared" si="84"/>
         <v>-1.7452575593952486</v>
       </c>
       <c r="W47" s="34">
-        <f t="shared" ref="W47:X47" si="77">W44/(W42-W37)</f>
+        <f t="shared" ref="W47:X47" si="85">W44/(W42-W37)</f>
         <v>-2.7424936990363231</v>
       </c>
       <c r="X47" s="34">
-        <f t="shared" si="77"/>
+        <f t="shared" si="85"/>
         <v>-8.1992802547770705</v>
+      </c>
+      <c r="Y47" s="34">
+        <f t="shared" ref="Y47" si="86">Y44/(Y42-Y37)</f>
+        <v>3.5041532352541465</v>
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A48" s="18" t="s">
+      <c r="A48" s="74" t="s">
         <v>65</v>
       </c>
       <c r="E48" s="34">
@@ -13422,306 +13008,319 @@
         <v>0.11963738920225608</v>
       </c>
       <c r="I48" s="34">
-        <f t="shared" ref="I48:O48" si="78">I44/I41</f>
+        <f t="shared" ref="I48:O48" si="87">I44/I41</f>
         <v>0.55003188332819597</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="23"/>
       <c r="L48" s="23"/>
       <c r="M48" s="34">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>0.67526866975236444</v>
       </c>
       <c r="N48" s="35">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>0.71486782481365208</v>
       </c>
       <c r="O48" s="34">
-        <f t="shared" si="78"/>
+        <f t="shared" si="87"/>
         <v>0.80718975669163207</v>
       </c>
       <c r="P48" s="34">
-        <f t="shared" ref="P48:V48" si="79">P44/P41</f>
+        <f t="shared" ref="P48:V48" si="88">P44/P41</f>
         <v>0.91275855719536347</v>
       </c>
       <c r="Q48" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>0.89656365724679388</v>
       </c>
       <c r="R48" s="35">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>0.75452762036213084</v>
       </c>
       <c r="S48" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>0.74228276380096148</v>
       </c>
       <c r="T48" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>0.71219303461004879</v>
       </c>
       <c r="U48" s="34">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>0.70716301759127542</v>
       </c>
       <c r="V48" s="35">
-        <f t="shared" si="79"/>
+        <f t="shared" si="88"/>
         <v>0.68392234447735945</v>
       </c>
       <c r="W48" s="34">
-        <f t="shared" ref="W48:X48" si="80">W44/W41</f>
+        <f t="shared" ref="W48:X48" si="89">W44/W41</f>
         <v>0.7366833930704898</v>
       </c>
       <c r="X48" s="34">
-        <f t="shared" si="80"/>
+        <f t="shared" si="89"/>
         <v>0.77766028997180836</v>
+      </c>
+      <c r="Y48" s="34">
+        <f t="shared" ref="Y48" si="90">Y44/Y41</f>
+        <v>0.65826687330004396</v>
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="70" t="s">
         <v>76</v>
       </c>
       <c r="F50" s="35">
-        <f t="shared" ref="F50:X52" si="81">F3/B3-1</f>
+        <f t="shared" ref="F50:Y52" si="91">F3/B3-1</f>
         <v>0.50012194404030041</v>
       </c>
       <c r="G50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.40020646981832475</v>
       </c>
       <c r="H50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.40954207450561775</v>
       </c>
       <c r="I50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.39103560148727068</v>
       </c>
       <c r="J50" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.29302125671572066</v>
       </c>
       <c r="K50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.36908650669737608</v>
       </c>
       <c r="L50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.34377315801273656</v>
       </c>
       <c r="M50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.34359762111682679</v>
       </c>
       <c r="N50" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.29591373668936649</v>
       </c>
       <c r="O50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.29618114296113074</v>
       </c>
       <c r="P50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.28730730238624091</v>
       </c>
       <c r="Q50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.28783888084047793</v>
       </c>
       <c r="R50" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.28527990507193768</v>
       </c>
       <c r="S50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.2771345269771015</v>
       </c>
       <c r="T50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.25974014410055868</v>
       </c>
       <c r="U50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.23014406466931425</v>
       </c>
       <c r="V50" s="35">
-        <f t="shared" ref="V50:V52" si="82">V3/R3-1</f>
+        <f t="shared" ref="V50:V52" si="92">V3/R3-1</f>
         <v>0.22561407603666339</v>
       </c>
       <c r="W50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.17014922456238479</v>
       </c>
       <c r="X50" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.17805472535421174</v>
       </c>
-      <c r="Y50" s="34"/>
+      <c r="Y50" s="34">
+        <f t="shared" si="91"/>
+        <v>0.15935922978351047</v>
+      </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="70" t="s">
         <v>77</v>
       </c>
       <c r="F51" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.30835631796515506</v>
       </c>
       <c r="G51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.284252088964005</v>
       </c>
       <c r="H51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.34277143002418853</v>
       </c>
       <c r="I51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.21993279343119054</v>
       </c>
       <c r="J51" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-8.8144914276621966E-2</v>
       </c>
       <c r="K51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.12699745547073793</v>
       </c>
       <c r="L51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.1215683023872679</v>
       </c>
       <c r="M51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.13089948901886206</v>
       </c>
       <c r="N51" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-6.4220083431033026E-2</v>
       </c>
       <c r="O51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.11980529890116287</v>
       </c>
       <c r="P51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-6.1864230849076218E-2</v>
       </c>
       <c r="Q51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.22009477591820648</v>
       </c>
       <c r="R51" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-6.1419048063027226E-3</v>
       </c>
       <c r="S51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>1.2073407376500978E-2</v>
       </c>
       <c r="T51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>5.4946455034970088E-2</v>
       </c>
       <c r="U51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.11083264085092237</v>
       </c>
       <c r="V51" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>-0.16155587086787759</v>
       </c>
       <c r="W51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.16239137263113812</v>
       </c>
       <c r="X51" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.30714907736411545</v>
       </c>
-      <c r="Y51" s="34"/>
+      <c r="Y51" s="34">
+        <f t="shared" si="91"/>
+        <v>-0.23996241703920485</v>
+      </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F52" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>6.6765112180250608E-2</v>
       </c>
       <c r="G52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>4.2619460306008605E-2</v>
       </c>
       <c r="H52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>9.1739072906100727E-3</v>
       </c>
       <c r="I52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>8.5137236403026062E-2</v>
       </c>
       <c r="J52" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>2.1719521670402697E-2</v>
       </c>
       <c r="K52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-1.3046303406722415E-2</v>
       </c>
       <c r="L52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-2.2971023993706541E-2</v>
       </c>
       <c r="M52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-5.2229914667525357E-2</v>
       </c>
       <c r="N52" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-3.7061317250121073E-3</v>
       </c>
       <c r="O52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>3.6603821982813978E-2</v>
       </c>
       <c r="P52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>7.7538312890845118E-2</v>
       </c>
       <c r="Q52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.10455950803519865</v>
       </c>
       <c r="R52" s="35">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.10040269869539653</v>
       </c>
       <c r="S52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>0.11655778811574113</v>
       </c>
       <c r="T52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>8.1282587758626512E-2</v>
       </c>
       <c r="U52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>6.1334030543978013E-2</v>
       </c>
       <c r="V52" s="35">
-        <f t="shared" si="82"/>
+        <f t="shared" si="92"/>
         <v>-1.9334263504086069E-2</v>
       </c>
       <c r="W52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-6.9197071664438115E-2</v>
       </c>
       <c r="X52" s="34">
-        <f t="shared" si="81"/>
+        <f t="shared" si="91"/>
         <v>-0.10929557565612669</v>
       </c>
-      <c r="Y52" s="34"/>
+      <c r="Y52" s="34">
+        <f t="shared" si="91"/>
+        <v>0.31866857946065008</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13734,62 +13333,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B4:B13"/>
+  <dimension ref="B4:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
     <col min="2" max="2" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="3"/>
+    <col min="3" max="3" width="30.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="64" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B6" s="3" t="s">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B7" s="3" t="s">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B9" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B8" s="3" t="s">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B9" s="3" t="s">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B11" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B10" s="3" t="s">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B12" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B11" s="3" t="s">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B13" s="3" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B12" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B13" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
